--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DE54B-19F8-8D49-B4B8-905115ECDD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411477B7-0799-5E4A-AF43-CF74F01BB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$N$1:$O$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="373">
   <si>
     <t>id</t>
   </si>
@@ -3379,9 +3395,6 @@
   </si>
   <si>
     <t>Confidence</t>
-  </si>
-  <si>
-    <t>highly confident</t>
   </si>
   <si>
     <t>Very confident</t>
@@ -4038,7 +4051,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4061,9 +4074,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4078,9 +4088,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4399,10 +4406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4423,7 +4431,7 @@
     <col min="14" max="14" width="14.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="12.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35" style="1" customWidth="1"/>
     <col min="18" max="18" width="60.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
@@ -4441,19 +4449,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4465,7 +4473,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -4477,7 +4485,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -4492,7 +4500,7 @@
       <c r="Q1" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -4504,7 +4512,7 @@
       <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -4516,7 +4524,7 @@
       <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="12" t="s">
         <v>24</v>
       </c>
       <c r="AA1" s="2" t="s">
@@ -4529,7 +4537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>320</v>
       </c>
@@ -4560,20 +4568,20 @@
       <c r="K2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="Q2" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>46</v>
@@ -4603,7 +4611,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>320</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>42</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>41</v>
@@ -4650,7 +4658,7 @@
         <v>52</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>54</v>
@@ -4680,7 +4688,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>320</v>
       </c>
@@ -4712,7 +4720,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>41</v>
@@ -4721,7 +4729,7 @@
         <v>42</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>59</v>
@@ -4751,7 +4759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>320</v>
       </c>
@@ -4786,19 +4794,19 @@
         <v>64</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="Q5" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>65</v>
@@ -4828,7 +4836,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>320</v>
       </c>
@@ -4863,7 +4871,7 @@
         <v>42</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>41</v>
@@ -4872,10 +4880,10 @@
         <v>42</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>71</v>
@@ -4905,7 +4913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>320</v>
       </c>
@@ -4937,7 +4945,7 @@
         <v>45</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>44</v>
@@ -4946,7 +4954,7 @@
         <v>45</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>77</v>
@@ -4979,7 +4987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>321</v>
       </c>
@@ -5014,7 +5022,7 @@
         <v>42</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>41</v>
@@ -5023,10 +5031,10 @@
         <v>42</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>85</v>
@@ -5059,7 +5067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>321</v>
       </c>
@@ -5091,7 +5099,7 @@
         <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>41</v>
@@ -5100,10 +5108,10 @@
         <v>42</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>90</v>
@@ -5136,7 +5144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>321</v>
       </c>
@@ -5168,7 +5176,7 @@
         <v>42</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>41</v>
@@ -5177,10 +5185,10 @@
         <v>42</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>96</v>
@@ -5210,7 +5218,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>321</v>
       </c>
@@ -5242,7 +5250,7 @@
         <v>76</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>44</v>
@@ -5251,10 +5259,10 @@
         <v>45</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>101</v>
@@ -5284,7 +5292,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>321</v>
       </c>
@@ -5322,19 +5330,19 @@
         <v>105</v>
       </c>
       <c r="M12" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="Q12" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>107</v>
@@ -5373,7 +5381,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>321</v>
       </c>
@@ -5411,7 +5419,7 @@
         <v>105</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>41</v>
@@ -5420,10 +5428,10 @@
         <v>42</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>112</v>
@@ -5462,7 +5470,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>322</v>
       </c>
@@ -5494,7 +5502,7 @@
         <v>45</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>44</v>
@@ -5503,10 +5511,10 @@
         <v>45</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>124</v>
@@ -5536,7 +5544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>322</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>45</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>44</v>
@@ -5577,10 +5585,10 @@
         <v>45</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>129</v>
@@ -5610,7 +5618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>322</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>42</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>41</v>
@@ -5651,10 +5659,10 @@
         <v>42</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>134</v>
@@ -5684,8 +5692,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>322</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5716,7 +5724,7 @@
         <v>139</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>47</v>
@@ -5725,10 +5733,10 @@
         <v>45</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>142</v>
@@ -5799,7 +5807,7 @@
         <v>148</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>47</v>
@@ -5808,10 +5816,10 @@
         <v>76</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>149</v>
@@ -5850,7 +5858,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>322</v>
       </c>
@@ -5888,19 +5896,19 @@
         <v>153</v>
       </c>
       <c r="M19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="Q19" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>155</v>
@@ -5939,7 +5947,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>323</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>162</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>47</v>
@@ -5983,10 +5991,10 @@
         <v>42</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>163</v>
@@ -6025,7 +6033,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>323</v>
       </c>
@@ -6057,13 +6065,13 @@
         <v>45</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>169</v>
@@ -6096,7 +6104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>323</v>
       </c>
@@ -6128,19 +6136,19 @@
         <v>42</v>
       </c>
       <c r="M22" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="Q22" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>175</v>
@@ -6170,7 +6178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>323</v>
       </c>
@@ -6202,7 +6210,7 @@
         <v>45</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>41</v>
@@ -6211,10 +6219,10 @@
         <v>45</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R23" s="1" t="s">
         <v>180</v>
@@ -6244,7 +6252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>323</v>
       </c>
@@ -6279,7 +6287,7 @@
         <v>45</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>44</v>
@@ -6291,7 +6299,7 @@
         <v>185</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>187</v>
@@ -6324,7 +6332,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>323</v>
       </c>
@@ -6359,19 +6367,19 @@
         <v>42</v>
       </c>
       <c r="M25" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="Q25" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>194</v>
@@ -6407,7 +6415,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2.1</v>
       </c>
@@ -6433,7 +6441,7 @@
         <v>45</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>44</v>
@@ -6442,10 +6450,10 @@
         <v>45</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q26" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>361</v>
       </c>
       <c r="R26" s="1" t="s">
         <v>201</v>
@@ -6475,7 +6483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3.4</v>
       </c>
@@ -6508,7 +6516,7 @@
       </c>
       <c r="L27"/>
       <c r="M27" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>44</v>
@@ -6517,7 +6525,7 @@
         <v>45</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>209</v>
@@ -6550,7 +6558,7 @@
       </c>
       <c r="AC27"/>
     </row>
-    <row r="28" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>3.5</v>
       </c>
@@ -6589,7 +6597,7 @@
         <v>45</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>216</v>
@@ -6622,7 +6630,7 @@
       </c>
       <c r="AC28"/>
     </row>
-    <row r="29" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -6655,7 +6663,7 @@
       </c>
       <c r="L29"/>
       <c r="M29" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>44</v>
@@ -6664,7 +6672,7 @@
         <v>45</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>223</v>
@@ -6697,7 +6705,7 @@
       </c>
       <c r="AC29"/>
     </row>
-    <row r="30" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>3.9</v>
       </c>
@@ -6730,7 +6738,7 @@
       </c>
       <c r="L30"/>
       <c r="M30" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>44</v>
@@ -6739,7 +6747,7 @@
         <v>45</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>229</v>
@@ -6772,7 +6780,7 @@
       </c>
       <c r="AC30"/>
     </row>
-    <row r="31" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>3.9</v>
       </c>
@@ -6805,7 +6813,7 @@
       </c>
       <c r="L31"/>
       <c r="M31" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>44</v>
@@ -6814,7 +6822,7 @@
         <v>45</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>235</v>
@@ -6847,7 +6855,7 @@
       </c>
       <c r="AC31"/>
     </row>
-    <row r="32" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>3.9</v>
       </c>
@@ -6880,7 +6888,7 @@
       </c>
       <c r="L32"/>
       <c r="M32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>44</v>
@@ -6889,7 +6897,7 @@
         <v>45</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>241</v>
@@ -6960,7 +6968,7 @@
         <v>246</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>47</v>
@@ -6969,10 +6977,10 @@
         <v>76</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>248</v>
@@ -7011,9 +7019,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>373</v>
+    <row r="34" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>251</v>
@@ -7043,19 +7051,19 @@
         <v>253</v>
       </c>
       <c r="M34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>372</v>
-      </c>
       <c r="Q34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>255</v>
@@ -7094,7 +7102,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>4.0999999999999996</v>
       </c>
@@ -7171,7 +7179,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>4.2</v>
       </c>
@@ -7239,7 +7247,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>4.3</v>
       </c>
@@ -7319,7 +7327,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>4.4000000000000004</v>
       </c>
@@ -7399,7 +7407,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>4.5</v>
       </c>
@@ -7479,7 +7487,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -7562,7 +7570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -7634,6 +7642,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="N1:O41" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EPC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="APC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411477B7-0799-5E4A-AF43-CF74F01BB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7B1B7-81F6-D84E-952D-842861403759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$N$1:$O$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$O$1:$P$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="371">
   <si>
     <t>id</t>
   </si>
@@ -176,28 +176,6 @@
 // test: x = [0, 1, 0]; Expected = 2</t>
   </si>
   <si>
-    <t xml:space="preserve">There is nothing inherently wrong with the given code. It is a simple implementation of a method that searches for the last occurrence of the value 0 in an array of integers and returns the index of that occurrence. If the value 0 is not found in the array, the method returns -1.
-If you would like to suggest a modification to the code, you could add input validation to check for a null input and throw a NullPointerException if the input is null, as specified in the method's Javadoc comment. Here is one way to do that:
-```
-public static int lastZero (int[] x)
-{
-   if (x == null)
-   {
-      throw new NullPointerException("Input array is null");
-   }
-   for (int i = 0; i &lt; x.length; i++)
-   {
-      if (x[i] == 0)
-      {
-         return i;
-      }
-   }
-   return -1;
-}
-```
-</t>
-  </si>
-  <si>
     <t>EIC</t>
   </si>
   <si>
@@ -308,18 +286,6 @@
     <t>If possible, give a test case that does not execute the fault. If not, briefly explain why not.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Since the given code does not contain any faults, any test case that passes a valid input (i.e., an non-null array of integers) to the method would not execute the fault.
-For example, the following test case would not execute the fault:
-```
-int[] input = {1, 2, 3, 4, 5, 6, 7, 8, 9, 10};
-int output = lastZero(input);
-System.out.println(output);  // prints -1
-```
-In this test case, the input array does not contain the value 0, so the method returns -1 as expected.
-</t>
-  </si>
-  <si>
     <t>Treats execution as failure</t>
   </si>
   <si>
@@ -341,12 +307,6 @@
   </si>
   <si>
     <t>A test case that does not execute the fault would be an array where the last element is not 0. For example, x = [1, 2, 3]. In this case, the function would return -1 as expected, as there are no 0's in the array.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Since the given code does not contain any faults, it is not possible to provide a test case that executes a fault but does not result in an error state.
-The code simply searches for the last occurrence of the value 0 in an array of integers and returns the index of that occurrence. If the value 0 is not found in the array, the method returns -1. There is no way for the method to execute a fault in this behavior.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -386,30 +346,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Since the given code does not contain any faults, it is not possible to provide a test case that results in an error but not a failure.
-The code simply searches for the last occurrence of the value 0 in an array of integers and returns the index of that occurrence. If the value 0 is not found in the array, the method returns -1. There is no way for the method to produce an error in this behavior.
-However, if the input to the method is null, a NullPointerException will be thrown, as specified in the method's Javadoc comment. This would be an error, but not a failure, since the program would not crash and the execution would continue after the exception is caught. Here is an example test case that would result in this error:
-```
-try
-{
-   int[] input = null;
-   int output = lastZero(input);
-   System.out.println(output);
-}
-catch (NullPointerException e)
-{
-   System.out.println("Caught NullPointerException: " + e.getMessage());
-}
-```
-This test case would output the following:
-```
-Caught NullPointerException: Input array is null
-```
-The test case passes a null input to the method, which causes a NullPointerException to be thrown. This is an error, but the exception is caught and the program continues executing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 A test case that results in an error but not a failure would be passing a null value to the method as the input array. For example:
 ```
 int[] x = null;
@@ -446,16 +382,6 @@
   </si>
   <si>
     <t>The given code throws a `NullPointerException` if the input array `x` is null. So, a test case that results in an error would be `lastZero(null)`. This will result in an error, but not a failure, as the code is handling the error by throwing an exception.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Since the given code does not contain any faults, it is not possible to describe an error state for any test case.
-The code simply searches for the last occurrence of the value 0 in an array of integers and returns the index of that occurrence. If the value 0 is not found in the array, the method returns -1. There is no way for the method to produce an error in this behavior.
-However, if the input to the method is null, a NullPointerException will be thrown, as specified in the method's Javadoc comment. This would be an error, but not a failure, since the program would not crash and the execution would continue after the exception is caught. In this case, the first error state would be the point at which the NullPointerException is thrown, when the program attempts to access the length of a null array.
-</t>
-  </si>
-  <si>
-    <t>Did not talk about the initialization</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -486,46 +412,6 @@
 - x: null 
 - i: not defined 
 - Return value: None (as it throws exception)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-To repair the code and add input validation, we can modify the method as follows:
-```
-public static int lastZero (int[] x)
-{
-   if (x == null)
-   {
-      throw new NullPointerException("Input array is null");
-   }
-   for (int i = 0; i &lt; x.length; i++)
-   {
-      if (x[i] == 0)
-      {
-         return i;
-      }
-   }
-   return -1;
-}
-```
-We can test the modified method with the following test case:
-```
-try
-{
-   int[] input = null;
-   int output = lastZero(input);
-   System.out.println(output);
-}
-catch (NullPointerException e)
-{
-   System.out.println("Caught NullPointerException: " + e.getMessage());
-}
-```
-This test case should produce the following output:
-```
-Caught NullPointerException: Input array is null
-```
-This output is the expected result, since the input array is null and the method throws a NullPointerException as specified in the Javadoc comment.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -639,25 +525,6 @@
 // test: x = [-3, -2, 0, 1, 4]; Expected = 3</t>
   </si>
   <si>
-    <t>The code does not handle the case where an element in the array is negative and odd. In this case, the element would not satisfy either of the conditions in the if statement and would not be counted. To fix this, the if statement should be modified to use the "or" operator (||) instead of the "and" operator (&amp;&amp;). This would allow negative and odd elements to be counted. The modified code would look like this:
-```
-public static int oddOrPos (int[] x)
-   {  // Effects:  if x is null throw NullPointerException
-      // else return the number of elements in x that
-      //      are either odd or positive (or both)
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++)
-      {
-         if (x[i]%2 == 1 || x[i] &gt; 0)
-         {
-            count++;
-         }
-      }
-      return count;
-   }
-```</t>
-  </si>
-  <si>
     <t>Finds the correct issue but fails to give a fix for the code</t>
   </si>
   <si>
@@ -764,15 +631,6 @@
 This will ensure that the function throws an IllegalArgumentException instead of a NullPointerException when the input array is null.</t>
   </si>
   <si>
-    <t>It is not possible to give a test case that does not execute the fault, because the fault in the code is that it does not handle the case where an element in the array is negative and odd. Any array that contains at least one negative and odd element will execute the fault.
-For example, the following test case would execute the fault:
-```
-int[] x = {-3, 2, 4, 6};
-int count = oddOrPos(x);
-```
-In this case, the value of count would be 3, because the negative and odd element (-3) is not counted by the code.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 A test case that does not execute the fault is one where the input array is not null. For example, the following test case would not execute the fault:
 ```
@@ -798,16 +656,6 @@
     <t>A test case that does not execute the fault would be: x = [2, 4, 6, 8, 10]; In this case, none of the elements in the array are odd or positive (or both) so the count variable will remain at 0 and the function will return 0.</t>
   </si>
   <si>
-    <t xml:space="preserve">It is not possible to give a test case that executes the fault but does not result in an error state, because the fault in the code is that it does not handle the case where an element in the array is negative and odd. Any array that contains at least one negative and odd element will execute the fault, and the result of the oddOrPos() function will not be correct.
-For example, the following test case would execute the fault:
-```
-int[] x = {-3, 2, 4, 6};
-int count = oddOrPos(x);
-```
-In this case, the value of count would be 3, which is incorrect. The correct value would be 4, because all elements in the array are either odd or positive (or both).
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 It is not possible to give a test case that executes the fault, but does not result in an error state as the given code throws a `NullPointerException` when the input array is null and this will cause the program to terminate abruptly and would not allow any further processing.
 Since the exception is thrown, it will stop the program execution and  it doesn't allow to handle it in a graceful way, so it will cause an error state.
@@ -825,19 +673,6 @@
     <t>It is not possible to give a test case that executes the fault of this method but does not result in an error state because the method throws a `NullPointerException` if the input array `x` is null. If `x` is null, the code will not execute any further and will immediately throw the exception. This is because the method has a precondition that `x` should not be null and it checks for it in the beginning itself.</t>
   </si>
   <si>
-    <t>It is not possible to give a test case that results in an error but not a failure, because the fault in the code is not related to error handling. The fault is that the code does not handle the case where an element in the array is negative and odd. This will not result in an error or a failure, but the result of the oddOrPos() function will not be correct.
-However, it is possible to test for the NullPointerException that is thrown if the input array is null. This would result in an error, but not a failure. A test case for this would be:
-```
-int[] x = null;
-try {
-    int count = oddOrPos(x);
-} catch (NullPointerException e) {
-    // expected exception
-}
-```
-In this case, the code will throw a NullPointerException when it attempts to access the length of the null array, as expected.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 A test case that results in an error, but not a failure is one where the program counter is not affected by the error and the program can continue to execute. However, it is not possible to give a test case where the error state is caused by a `NullPointerException` and program counter is not affected as the `NullPointerException` will stop the program execution and program counter will be set to the location where the exception was thrown, causing the program to fail.
 In this case, since the exception is thrown, it will stop the program execution and  it doesn't allow to handle it in a graceful way. It would cause a failure state.
@@ -863,13 +698,6 @@
   </si>
   <si>
     <t>A test case that results in an error would be passing a null value for the parameter x, as the method throws a NullPointerException in this case. This is not a failure as the method is correctly handling the error condition by throwing an exception.</t>
-  </si>
-  <si>
-    <t>The first error state in the test case occurs when the oddOrPos() function is called with a null array. This results in the following error state:
-- The program counter is at the line where the oddOrPos() function is called.
-- The input array x is null.
-- The NullPointerException has not yet been thrown.
-This error state occurs before the function has a chance to execute any of its code, because the NullPointerException is thrown as soon as the function tries to access the length of the null array.</t>
   </si>
   <si>
     <t>Did not talk about the commented test case</t>
@@ -898,44 +726,6 @@
   </si>
   <si>
     <t>The first error state in this test case would be if the input array 'x' is null, causing a NullPointerException to be thrown in the method. This would occur on the first line of the method before any logic is executed, as the method checks for a null value before counting the elements in the array. The complete state of the error would be that the input array 'x' is null and a NullPointerException is thrown.</t>
-  </si>
-  <si>
-    <t>Here is the modified code that handles the case where the input array is null:
-```
-   public static int oddOrPos (int[] x)
-   {  // Effects:  if x is null return 0
-      // else return the number of elements in x that
-      //      are either odd or positive (or both)
-      if (x == null) {
-          return 0;
-      }
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++)
-      {
-         if (x[i]%2 == 1 || x[i] &gt; 0)
-         {
-            count++;
-         }
-      }
-      return count;
-   }
-```
-To test this code, I will use the test case that was provided earlier:
-```
-int[] x = null;
-try {
-    int count = oddOrPos(x);
-} catch (NullPointerException e) {
-    // expected exception
-}
-```
-This test case should not throw a NullPointerException, because the modified code handles the case where the input array is null. Instead, it should return 0. To verify that the modified code works correctly, I will print the result of the oddOrPos() function to the console:
-```
-int[] x = null;
-int count = oddOrPos(x);
-System.out.println(count);  // should print 0
-```
-The output of this code is as expected, indicating that the modified code is correct.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1048,12 +838,6 @@
 // and that equals()is faulty.</t>
   </si>
   <si>
-    <t xml:space="preserve">The problem with the given code is that the `BigDecimal` class has inconsistent implementation of the `equals` and `compareTo` methods. The `equals` method returns `false` for the `BigDecimal` objects `x` and `y`, but the `compareTo` method returns `0` for the same objects, indicating that they are equal. This inconsistency can lead to unexpected behavior when using the `BigDecimal` objects with collections that rely on either the `equals` or `compareTo` methods for comparison, such as the `TreeSet` and `HashSet` in the example.
-To fix this issue, one possible modification to the code would be to override the `equals` method in the `BigDecimal` class to use the same comparison logic as the `compareTo` method. This would ensure that the `equals` and `compareTo` methods are consistent with each other and behave as expected when used with collections.
-Alternatively, if it is not possible or desirable to modify the `BigDecimal` class, the code could use a different collection class that does not rely on either the `equals` or `compareTo` methods for comparison, such as a `LinkedHashSet` or a `List`. This would allow the code to work correctly even with the inconsistent implementation of the `equals` and `compareTo` methods in the `BigDecimal` class.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The problem with the given code is that the `equals()` method and the `compareTo()` method in the `BigDecimal` class are inconsistent. This means that two `BigDecimal` objects that are considered equal by `equals()` may not be considered equal by `compareTo()` and vice versa. As a result, when the code adds the `x` and `y` objects to the `BigDecimalTree` and `BigDecimalHash` sets, the `BigDecimalTree` set only contains one element while the `BigDecimalHash` set contains two elements.
 To fix this issue, the `equals()` method in the `BigDecimal` class should be modified so that it is consistent with the `compareTo()` method. For example, the `equals()` method could be modified to use `compareTo()` to determine equality, like this:
 ```
@@ -1112,12 +896,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-It is not possible to give a test case that does not execute the fault in the given code, because the fault is inherent in the implementation of the `BigDecimal` class. The fault occurs whenever the `BigDecimal` objects `x` and `y` are used with a collection that relies on either the `equals` or `compareTo` methods for comparison, regardless of the specific values of `x` and `y`.
-The fault occurs because the `equals` and `compareTo` methods of the `BigDecimal` class are implemented in a way that is inconsistent with each other. The `equals` method returns `false` for the `BigDecimal` objects `x` and `y`, but the `compareTo` method returns `0` for the same objects, indicating that they are equal. This inconsistency can lead to unexpected behavior when using the `BigDecimal` objects with collections that rely on either the `equals` or `compareTo` methods for comparison.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 It is not possible to give a test case that does not execute the fault because the problem is with the `BigDecimal` class itself, and the fault occurs whenever the `equals()` and `compareTo()` methods are used in the same context, regardless of the specific values of the `BigDecimal` objects being compared.
 In the given code, the fault occurs when the `x` and `y` objects are added to the `BigDecimalTree` and `BigDecimalHash` sets because the `TreeSet` uses the `compareTo()` method to determine equality and the `HashSet` uses the `equals()` method. Since these methods are inconsistent in the `BigDecimal` class, the `BigDecimalTree` set only contains one element while the `BigDecimalHash` set contains two elements.
 </t>
@@ -1143,27 +921,6 @@
   </si>
   <si>
     <t>It is not possible to give a test case that does not execute the fault in this example, because the fault is inherent in the implementation of the `BigDecimal` class. The `equals()` and `compareTo()` methods in `BigDecimal` are inconsistent, meaning that they do not return the same result for the same input. In this example, `x` and `y` are two `BigDecimal` objects with the same value, but the `equals()` method returns `false` for them, while the `compareTo()` method returns `0`. As a result, when `x` and `y` are added to a `TreeSet`, only one of them is added, while both are added to a `HashSet`. This behavior cannot be avoided without changing the implementation of the `BigDecimal` class.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-A test case that executes the fault but does not result in an error state for the given code would be as follows:
-```
-public static void main(String[] args) {
-    BigDecimal x = new BigDecimal("1.0");
-    BigDecimal y = new BigDecimal("1.00");
-    Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
-    BigDecimalTree.add(x);
-    BigDecimalTree.add(y);
-    Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
-    BigDecimalHash.add(x);
-    BigDecimalHash.add(y);
-    System.out.println("BigDecimalTree = " + BigDecimalTree);
-    System.out.println("BigDecimalHash = " + BigDecimalHash);
-}
-```
-This test case executes the fault by using the `BigDecimal` objects `x` and `y` with a `TreeSet` and a `HashSet`, which rely on the `compareTo` and `equals` methods, respectively, for comparison. The fault occurs because the `equals` and `compareTo` methods of the `BigDecimal` class are implemented in a way that is inconsistent with each other. The `equals` method returns `false` for the `BigDecimal` objects `x` and `y`, but the `compareTo` method returns `0` for the same objects, indicating that they are equal. As a result, the `TreeSet` ends up with only one element, while the `HashSet` has two elements.
-This test case does not result in an error state, because the code does not contain any syntax errors or runtime exceptions. However, the test case does produce unexpected results, which may indicate a problem with the code.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1210,12 +967,6 @@
     <t>If possible, give a test case that results in an error, but not a failure. If not, briefly explain why not. Hint: Don’t forget about the program counter.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-It is not possible to give a test case that results in an error but not a failure for the given code, because the code does not contain any syntax errors or runtime exceptions. The code simply creates and uses two `BigDecimal` objects and two collections, which are all valid operations.
-The fault in the given code is not an error, but rather an inconsistency in the implementation of the `equals` and `compareTo` methods of the `BigDecimal` class. This inconsistency can lead to unexpected behavior when using the `BigDecimal` objects with collections that rely on either the `equals` or `compareTo` methods for comparison, such as the `TreeSet` and `HashSet` in the example. However, this behavior is not considered an error, as it does not result in a syntax error or a runtime exception.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">AC </t>
   </si>
   <si>
@@ -1261,12 +1012,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-There is no error state in the given code. The code simply creates and uses two `BigDecimal` objects and two collections, which are all valid operations.
-The fault in the given code is not an error, but rather an inconsistency in the implementation of the `equals` and `compareTo` methods of the `BigDecimal` class. This inconsistency can lead to unexpected behavior when using the `BigDecimal` objects with collections that rely on either the `equals` or `compareTo` methods for comparison, such as the `TreeSet` and `HashSet` in the example. However, this behavior is not considered an error, as it does not result in a syntax error or a runtime exception.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 The first error state in the given code occurs when the `x` and `y` objects are added to the `BigDecimalTree` set. 
 The state of the program at this point is:
 - `x` and `y` are both instances of `BigDecimal` with string values "1.0" and "1.00" respectively.
@@ -1286,40 +1031,6 @@
   </si>
   <si>
     <t>The first error state in the given code occurs when the elements x and y, which are instances of the BigDecimal class with the values "1.0" and "1.00" respectively, are added to the BigDecimalTree Set. Since the TreeSet uses the compareTo() method for comparison, the element y is considered equal to the element x and is not added to the set, resulting in the BigDecimalTree Set having only 1 element. This is an error state as the expected behavior is that the BigDecimalTree Set should have 2 elements, x and y, as they have different values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-To fix the fault in the given code, one possible modification would be to override the `equals` method in the `BigDecimal` class to use the same comparison logic as the `compareTo` method. This would ensure that the `equals` and `compareTo` methods are consistent with each other and behave as expected when used with collections.
-Here is an example of how this could be done:
-```
-public class BigDecimal {
-    // existing implementation of compareTo method
-    public int compareTo(BigDecimal other) {
-        // implementation details
-    }
-    @Override
-    public boolean equals(Object other) {
-        if (other == this) {
-            return true;
-        }
-        if (!(other instanceof BigDecimal)) {
-            return false;
-        }
-        return compareTo((BigDecimal) other) == 0;
-    }
-}
-```
-With this modification, the test case from earlier would produce the expected output:
-```
-BigDecimalTree = 1
-BigDecimalHash = 1, 1
-```
-Here is a screen printout of the test case being executed with the modified `BigDecimal` class:
-```
-BigDecimalTree = [1]
-BigDecimalHash = [1, 1]
-```
-</t>
   </si>
   <si>
     <t>Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
@@ -1469,37 +1180,6 @@
 a modification to the code.</t>
   </si>
   <si>
-    <t xml:space="preserve">There are a few issues with the given code.
-First, in the `Point` class, the `equals` method does not properly override the `equals` method in the `Object` class. The `equals` method in the `Object` class checks for object reference equality (i.e., whether two references refer to the same object), while the `equals` method in the `Point` class checks for value equality (i.e., whether two `Point` objects have the same values for their `x` and `y` fields). To properly override the `equals` method, the `Point` class should add an `@Override` annotation to the method and also include a check for object reference equality at the beginning of the method. The modified `equals` method in the `Point` class should look like this:
-```
-@Override
-public boolean equals(Object o) {
-    if (o == this) return true;
-    if (!(o instanceof Point)) return false;
-    Point p = (Point) o;
-    return (p.x == this.x) &amp;&amp; (p.y == this.y);
-}
-```
-Second, in the `ColorPoint` class, the `equals` method does not properly handle the case where it is passed an object that is not an instance of `ColorPoint`. In this case, the method should return `false` rather than throwing a `ClassCastException`. To fix this issue, the `equals` method in the `ColorPoint` class should include a check for object reference equality at the beginning of the method, similar to what was done in the modified `equals` method in the `Point` class. The modified `equals` method in the `ColorPoint` class should look like this:
-```
-@Override
-public boolean equals(Object o) {
-    if (o == this) return true;
-    if (!(o instanceof ColorPoint)) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return super.equals(cp) &amp;&amp; (cp.color == this.color);
-}
-```
-Finally, the tests at the end of the code are not checking the expected behavior of the `equals` methods. The first test, `p.equals(cp1)`, is expected to return `true`, but it will actually return `false` because `p` and `cp1` are not equal according to the `equals` method in the `Point` class. The second test, `cp1.equals(p)`, is expected to return `true`, but it will actually throw a `ClassCastException` because the `equals` method in the `ColorPoint` class is attempting to cast the `Point` object `p` to a `ColorPoint` object. The third test, `cp1.equals(cp2)`, is expected to return `false`, but it will actually return `true` because the `equals` method in the `ColorPoint` class is not considering the `color` field when checking for equality.
-To fix these issues, the tests should be modified to use the modified `equals` methods described above. The modified tests should look like this:
-```
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-assertTrue(p.equals(cp1)); // Test 1: p
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The fault with the given code is that the equals method in the ColorPoint class does not correctly override the equals method in the Point class. Specifically, in Location B, the equals method first checks if the object being compared to is an instance of ColorPoint, and if not, returns false. This means that if an instance of ColorPoint is compared to an instance of Point, the equals method will always return false, even if their x and y coordinates are the same. This is not the expected behavior, as it violates the symmetric property of the equals contract, which states that if a.equals(b) is true, then b.equals(a) should also be true.
 To correct this fault, the equals method in the ColorPoint class should be modified to first check if the object being compared to is an instance of Point, and if so, call the superclass's equals method and check if the colors are the same. This would ensure that the symmetric property of the equals contract is upheld and that instances of ColorPoint and Point are correctly compared.
 e.g. 
@@ -1583,12 +1263,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-It is not possible to give a test case that does not execute the fault in the given code because the fault is present in the implementation of the `equals` method in both the `Point` and `ColorPoint` classes. The fault in the `Point` class is that the method does not properly override the `equals` method in the `Object` class, and the fault in the `ColorPoint` class is that the method does not properly handle the case where it is passed an object that is not an instance of `ColorPoint`. These faults are present in the implementation of the `equals` method in both classes and will be executed every time the method is called.
-To avoid executing the fault, the implementation of the `equals` method in both classes must be modified to properly override the `equals` method in the `Object` class and handle the case where it is passed an object that is not an instance of the class. The modified `equals` methods for both classes were provided in the previous response.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 It's not possible to give a test case that does not execute the fault, because the fault is present in the implementation of the equals method in the ColorPoint class. The test cases provided in the question all execute the fault, as they all correctly return false when comparing an instance of Point to an instance of ColorPoint, even if their x and y coordinates are the same.
 In order to not execute the fault, the equals method in the ColorPoint class must be modified as I described in the previous answer, so that it correctly calls the superclass's equals method and checks if the colors are the same. Then, the test cases would return the expected results, e.g. p.equals (cp1) = true; cp1.equals (p) = true, cp1.equals (cp2) = false
 </t>
@@ -1617,12 +1291,6 @@
   <si>
     <t>The class ColorPoint extends Point, and adds the additional state of 'color'. The class overrides the equals method, but the implementation is faulty as it only compares the color state of the ColorPoint class, it does not consider the Point class' state of x and y. In the test cases, p.equals(cp1) returns true, but cp1.equals(p) returns false, and cp1.equals(cp2) also returns false, while they are expected to return true.
 It is not possible to give a test case that does not execute the fault because the fault is in the implementation of the equals method in the ColorPoint class. The correct implementation would be to use "super.equals(cp) &amp;&amp; (cp.color == this.color)" instead of just "(cp.color == this.color)".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-It is not possible to give a test case that executes the fault in the given code but does not result in an error state because the fault in the `Point` class will always result in an error state (i.e., a `ClassCastException` will be thrown) when the `equals` method is called with an object that is not an instance of the `Point` class. The fault in the `ColorPoint` class will also always result in an error state (i.e., a `ClassCastException` will be thrown) when the `equals` method is called with an object that is not an instance of the `ColorPoint` class.
-To avoid these error states, the implementation of the `equals` method in both classes must be modified to properly handle the case where it is passed an object that is not an instance of the class. The modified `equals` methods for both classes were provided in a previous response.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1666,12 +1334,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-It is not possible to give a test case that results in an error but not a failure for the given code because the fault in the `Point` class will always result in a failure (i.e., a `ClassCastException` will be thrown) when the `equals` method is called with an object that is not an instance of the `Point` class. The fault in the `ColorPoint` class will also always result in a failure (i.e., a `ClassCastException` will be thrown) when the `equals` method is called with an object that is not an instance of the `ColorPoint` class.
-To avoid these failures, the implementation of the `equals` method in both classes must be modified to properly handle the case where it is passed an object that is not an instance of the class. The modified `equals` methods for both classes were provided in a previous response.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 It is not possible to give a test case that results in an error but not a failure because an error and a failure are closely related concepts. 
 A failure is defined as an event in which a program terminates abnormally or produces incorrect or unexpected output. A test case that causes a failure would result in the program crashing or producing incorrect output.
 An error, on the other hand, is a defect or bug in the program that can cause a failure. In this case, the error is in the implementation of the equals method in the ColorPoint class, which violates the symmetric property of the equals contract.
@@ -1700,19 +1362,6 @@
   </si>
   <si>
     <t xml:space="preserve"> In the given code, describe the first error state. Be sure to describe the complete state.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-The first error state in the given code occurs when the `equals` method in the `Point` class is called with an object that is not an instance of the `Point` class. When this happens, a `ClassCastException` will be thrown when the code attempts to cast the object to a `Point` object at Location A.
-The complete state of the error includes the following:
-- The `Point` object that the `equals` method was called on (e.g., `p` in the test `p.equals(cp1)`)
-- The object that was passed as an argument to the `equals` method (e.g., `cp1` in the test `p.equals(cp1)`)
-- The line of code where the `ClassCastException` is thrown (i.e., `Point p = (Point) o;` at Location A)
-- The `ClassCastException` object that is thrown, which includes the following information:
-  - The message describing the error (e.g., "Cannot cast com.example.ColorPoint to com.example.Point")
-  - The stack trace showing the sequence of method calls leading up to the exception
-This error state will occur whenever the `equals` method in the `Point` class is called with an object that is not an instance of the `Point` class, regardless of the values of the fields in the objects being compared.
-</t>
   </si>
   <si>
     <t>Exception is treated as error</t>
@@ -1742,59 +1391,6 @@
   </si>
   <si>
     <t>Also talks about design perspective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-To fix the faults in the given code, the implementation of the `equals` method in both the `Point` and `ColorPoint` classes must be modified. The modified `equals` methods should include an `@Override` annotation and a check for object reference equality at the beginning of the method to properly override the `equals` method in the `Object` class and handle the case where the method is passed an object that is not an instance of the class.
-Here is the modified code with the fixed `equals` methods:
-```
-class Point
-{
-    private int x; private int y;
-    public Point (int x, int y) { this.x=x; this.y=y; }
-    @Override
-    public boolean equals(Object o) {
-        if (o == this) return true;
-        if (!(o instanceof Point)) return false;
-        Point p = (Point) o;
-        return (p.x == this.x) &amp;&amp; (p.y == this.y);
-    }
-}
-class ColorPoint extends Point
-{
-    private Color color;
-    // Fault: Superclass instantiable; subclass state extended
-    public ColorPoint (int x, int y, Color color)
-    {
-        super (x,y);
-        this.color=color;
-    }
-    @Override
-    public boolean equals(Object o) {
-        if (o == this) return true;
-        if (!(o instanceof ColorPoint)) return false;
-        ColorPoint cp = (ColorPoint) o;
-        return super.equals(cp) &amp;&amp; (cp.color == this.color);
-    }
-}
-```
-With these changes, the tests at the end of the code will produce the expected output. Here is the modified test code:
-```
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-assertTrue(p.equals(cp1)); // Test 1: p.equals(cp1) = true
-assertTrue(cp1.equals(p)); // Test 2: cp1.equals(p) = true
-assertFalse(cp1.equals(cp2)); // Test 3: cp1.equals(cp2) = false
-```
-Here is a screen printout showing that the modified code works as expected:
-```
-All tests passed.
-```
-</t>
-  </si>
-  <si>
-    <t>Just need to remove extends Point. Otherwise correctly provides solution in terms of composition</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1937,9 +1533,6 @@
     <t>How are faults and failures related to testing and debugging?</t>
   </si>
   <si>
-    <t>Faults and failures are related to testing and debugging because they are often the result of errors or problems in the code being tested or debugged. Testing is the process of evaluating a system or its components to determine whether it satisfies specified requirements. As part of this process, testers may identify faults or failures in the system that need to be addressed. Debugging is the process of identifying and fixing errors or issues in the code that cause the system to behave unexpectedly or incorrectly. Debugging can involve isolating the root cause of a fault or failure and then implementing a solution to fix it.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faults and failures are closely related to testing and debugging. Testing is the process of evaluating a system or its component(s) with the intent to find whether it satisfies the specified requirements or not. Debugging is the process of identifying and resolving defects or problems in a system or its components. Faults, also known as bugs or defects, are the source of failures, which occur when a system or its component(s) do not perform as intended. Therefore, testing and debugging are essential to identify and resolve faults, ensuring that a system or its component(s) perform as intended and meet the specified requirements.
 </t>
   </si>
@@ -1990,37 +1583,6 @@
     <t>Delete the explict throw of NullPointerException in the Min program (figure 3.2). Verify that the JUnit test for a list with a single null element now fails.</t>
   </si>
   <si>
-    <t xml:space="preserve">To delete the explicit throw of NullPointerException in the Min program, you can simply remove the following line of code:
-if (result == null) throw new NullPointerException ("Min.min");
-After removing this line, the modified Min program would look like this:
-import java.util.*;
-public class Min
-{
-/**
-* Returns the minimum element in a list
-* @param list Comparable list of elements to search
-* return the minimum element in the list
-* @throws NullPointerException (NPE) if list is null or
-* if any list elements are null
-* @throws ClassCastException (CCE) if list elements are not mutually comparable
-* @throws MlegalArgumentException if list is empty
-*/
-public static &lt;T extends Comparable&lt;? super T&gt;&gt; T min (List&lt;? extends T&gt; lst)
-{
-if (list.size() == 0)
-throw new IllegalArgumentException ("Min.min”);
-}
-Iterator&lt;? extends T&gt; itr = list.iterator():
-T result = itr.next():
-while (itr.hasNext())
-f
-T comp = itr
-</t>
-  </si>
-  <si>
-    <t>Answer is incomplete.</t>
-  </si>
-  <si>
     <t xml:space="preserve">To delete the explicit throw of NullPointerException in the Min program, you can remove the following line of code:
 if (result == null) throw new NullPointerException ("Min.min");
 After removing this line, the JUnit test for a list with a single null element will now fail because the program no longer checks for null elements and throws an exception when it encounters one. Instead, the program will likely throw a NullPointerException at runtime when it attempts to call the compareTo method on a null element.
@@ -2093,61 +1655,6 @@
   </si>
   <si>
     <t>Demonstrate the problem with Point using a HashSet.</t>
-  </si>
-  <si>
-    <t>To demonstrate the problem with the Point class, let's first define the class:
-class Point {
-  int x;
-  int y;
-  public Point(int x, int y) {
-    this.x = x;
-    this.y = y;
-  }
-  // Overrides equals() method, but not hashCode()
-  public boolean equals(Object o) {
-    if (!(o instanceof Point)) return false;
-    Point p = (Point) o;
-    return p.x == x &amp;&amp; p.y == y;
-  }
-}
-Now, let's try to use a HashSet to store a few Point objects:
-Set&lt;Point&gt; set = new HashSet&lt;&gt;();
-Point p1 = new Point(1, 2);
-Point p2 = new Point(3, 4);
-Point p3 = new Point(1, 2);
-set.add(p1);
-set.add(p2);
-set.add(p3);
-System.out.println(set.size());  // Outputs: 3
-As we can see, the HashSet contains 3 elements even though p1 and p3 are equal. This is because the HashSet uses the hashCode() method to determine if two objects are equal, and in this case, the hashCode() method has not been overridden. Since the hashCode() method for p1 and p3 will be different (since they are distinct objects), the HashSet will consider them to be different elements and will add both to the set.
-To fix this issue, we need to override the hashCode() method in the Point class:
-class Point {
-  int x;
-  int y;
-  public Point(int x, int y) {
-    this.x = x;
-    this.y = y;
-  }
-  // Overrides equals() method
-  public boolean equals(Object o) {
-    if (!(o instanceof Point)) return false;
-    Point p = (Point) o;
-    return p.x == x &amp;&amp; p.y == y;
-  }
-  // Overrides hashCode() method
-  public int hashCode() {
-    return Objects.hash(x, y);
-  }
-}
-With the hashCode() method overridden, the HashSet will now correctly store only 2 elements:
-Set&lt;Point&gt; set = new HashSet&lt;&gt;();
-Point p1 = new Point(1, 2);
-Point p2 = new Point(3, 4);
-Point p3 = new Point(1, 2);
-set.add(p1);
-set.add(p2);
-set.add(p3);
-System.out.println(set.size());  // Outputs: 2</t>
   </si>
   <si>
     <t xml:space="preserve">If the Point class overrides the equals() method but does not also override the hashCode() method, then instances of Point may not behave correctly when stored in a HashSet. For example, if two Point instances have the same x and y coordinates, the equals() method may return true for these instances, indicating that they are equal. However, the HashSet will use the hashCode() method to determine where to store the instances, and if the hashCode() method is not overridden, the HashSet will consider the instances to be different, even though the equals() method considers them to be equal. This can lead to unexpected behavior, such as the HashSet storing multiple copies of the same Point instance.
@@ -2232,15 +1739,6 @@
     <t>Write down the mathematical relationship required between equals() and hashCode().</t>
   </si>
   <si>
-    <t xml:space="preserve">The equals() and hashCode() methods are used together in Java to implement the contract of object equality, as defined by the Objects.equals() and Objects.hash() methods.
-According to this contract, if two objects are equal (as determined by the equals() method), then their hashCode() values must be equal as well. Conversely, if two objects have equal hashCode() values, they do not necessarily have to be equal (as determined by the equals() method).
-In other words, the relationship between equals() and hashCode() is defined by the following mathematical relationship:
-if a.equals(b) then a.hashCode() == b.hashCode()
-This relationship is important because it allows objects to be stored and retrieved efficiently in common data structures such as HashMap, HashSet, and Hashtable.
-It's also worth noting that the hashCode() method should be implemented such that it returns the same value for two equal objects every time it is called on those objects, as long as the objects are not modified. This allows the hashCode() method to be used as a way to identify unique objects and helps to ensure the efficiency of data structures that rely on it.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 The mathematical relationship required between the equals() and hashCode() methods is known as the "general contract" and it states that if two objects are equal, according to the equals(Object) method, then calling the hashCode() method on each of the two objects must produce the same integer result. 
 Additionally, it is not required but strongly recommended that if two objects are unequal according to the equals(java.lang.Object) method, then calling the hashCode() method on each of the two objects should produce distinct integer results. In other words, the hashCode() method should return distinct values for distinct objects.
@@ -2264,23 +1762,6 @@
   </si>
   <si>
     <t>Write a simple JUnit test to show that Point objects do not enjoy this property.</t>
-  </si>
-  <si>
-    <t>Here is a simple JUnit test that demonstrates that the Point class does not satisfy the required relationship between equals() and hashCode():
-import org.junit.Test;
-import static org.junit.Assert.*;
-public class PointTest {
-  @Test
-  public void testEqualsAndHashCode() {
-    Point p1 = new Point(1, 2);
-    Point p2 = new Point(1, 2);
-    Point p3 = new Point(3, 4);
-    assertTrue(p1.equals(p2));
-    assertFalse(p1.hashCode() == p2.hashCode());  // Fails
-  }
-}
-In this test, we create two Point objects, p1 and p2, which are equal (as determined by the equals() method). However, the test fails because the hashCode() values of p1 and p2 are not equal, indicating that the hashCode() method is not properly implemented.
-To fix this issue, the hashCode() method in the Point class needs to be overridden as described in the previous answer. Once the hashCode() method is properly implemented, the test should pass.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2376,30 +1857,6 @@
     <t>Repair the Point class to fix the fault.</t>
   </si>
   <si>
-    <t xml:space="preserve">To repair the fault in the Point class, the hashCode() method needs to be overridden as follows:
-class Point {
-  int x;
-  int y;
-  public Point(int x, int y) {
-    this.x = x;
-    this.y = y;
-  }
-  // Overrides equals() method
-  public boolean equals(Object o) {
-    if (!(o instanceof Point)) return false;
-    Point p = (Point) o;
-    return p.x == x &amp;&amp; p.y == y;
-  }
-  // Overrides hashCode() method
-  public int hashCode() {
-    return Objects.hash(x, y);
-  }
-}
-With the hashCode() method overridden, the Point class will now satisfy the required relationship between equals() and hashCode() and can be used with common data structures such as HashMap, HashSet, and Hashtable without any issues.
-It's worth noting that the hashCode() method implementation shown above uses the Objects.hash() utility method to compute the hash code for the Point object. This method takes the x and y fields of the Point object as arguments and returns a hash code that is based on their values. This ensures that the hash code is consistent with the definition of equality for the Point class (as defined by the equals() method).
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Here is an example of how the Point class can be repaired to fix the fault and satisfy the mathematical relationship between equals() and hashCode():
 ```java
@@ -2523,33 +1980,6 @@
   </si>
   <si>
     <t>Rewrite your JUnit test as an appropriate JUnit theory. Evaluate it with suitable DataPoints.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To rewrite the JUnit test as a JUnit theory, we can use the @Theory annotation and the @DataPoints annotation to specify a set of data points that will be used to evaluate the theory.
-Here is the revised JUnit test:
-import org.junit.experimental.theories.DataPoint;
-import org.junit.experimental.theories.Theories;
-import org.junit.experimental.theories.Theory;
-import org.junit.runner.RunWith;
-import static org.junit.Assert.*;
-@RunWith(Theories.class)
-public class PointTest {
-  @DataPoint
-  public static Point p1 = new Point(1, 2);
-  @DataPoint
-  public static Point p2 = new Point(1, 2);
-  @DataPoint
-  public static Point p3 = new Point(3, 4);
-  @Theory
-  public void testEqualsAndHashCode(Point p1, Point p2) {
-    assertTrue(p1.equals(p2));
-    assertTrue(p1.hashCode() == p2.hashCode());
-  }
-}
-In this revised test, the @DataPoint annotation is used to define three Point objects that will be used as data points for the theory. The theory itself is defined using the @Theory annotation and takes two Point objects as arguments. The theory asserts that if two Point objects are equal (as determined by the equals() method), then their hashCode() values must also be equal.
-To evaluate the theory, JUnit will generate a set of test cases using the data points defined in the test class. For each test case, JUnit will pass two Point objects to the theory and evaluate the assertions. If any of the assertions fail, the theory will be considered to have failed.
-In this case, since the Point class has been repaired and the hashCode() method is properly implemented, the theory should pass for all test cases.
-</t>
   </si>
   <si>
     <t>Does not consider null points, non-point objects</t>
@@ -2676,11 +2106,6 @@
   </si>
   <si>
     <t>Replace each occurrence of a set with a list in the JUnit theory removeThenAddDoesNotChangeSet. Is the resulting theory valid or invalid? How many of the tests that pass the precondition also pass the postcondition? Explain.</t>
-  </si>
-  <si>
-    <t>It is not possible for me to accurately answer this question without more information about the JUnit theory "removeThenAddDoesNotChangeSet" and the context in which it is being used.
-In general, replacing a set with a list in a JUnit theory may result in the theory becoming invalid, depending on how the set and list are used in the theory. If the set and list are used in ways that are not interchangeable, such as using set-specific methods on a list, then the theory may become invalid.
-Without knowing more about the theory and the specific replacements being made, it is not possible to determine how many of the tests that pass the precondition will also pass the postcondition. It is also not possible to determine whether the resulting theory will be valid or invalid.</t>
   </si>
   <si>
     <t>Question does not provide enough context to answer</t>
@@ -3921,6 +3346,516 @@
   </si>
   <si>
     <t>3.10'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given code correctly finds the last zero element in the array by iterating through the array in reverse order. However, it does not handle the case where there are multiple zeroes in the array. In such a case, it will return the index of the first zero it encounters instead of the last one. To fix this, you can modify the code to store the index of the last zero encountered in a separate variable, and update that variable every time a zero is encountered. Then, return that variable after the loop.
+```
+   public static int lastZero (int[] x)
+   {
+      int lastZeroIndex = -1;
+      for (int i = 0; i &lt; x.length; i++)
+      {
+         if (x[i] == 0)
+         {
+            lastZeroIndex = i;
+         }
+      }
+      return lastZeroIndex;
+   }
+```
+So this code will return the last zero in the array.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A test case that does not execute the fault is one in which the array only contains one zero or where the last zero element is the only zero element in the array. 
+```
+int[] x = {1, 2, 3, 0}; 
+int lastZero = lastZero(x); 
+//Expected output: 3
+```
+In this case, the function will correctly return the index of the last zero element in the array, which is 3. Since there is only one zero element, the original code and the modified code will give the same output.
+Another test case could be:
+```
+int[] x = {1, 2, 3, 0, 0, 0}; 
+int lastZero = lastZero(x); 
+//Expected output: 5
+```
+In this case, the function will correctly return the index of the last zero element in the array, which is 5. Since the last zero element is the last one in the array, the original code and the modified code will give the same output.
+It's not possible to give a test case that executes the fault because the test case that execute the fault is that when there is multiple zeroes in the array and the last zero is not the last element of the array.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A test case that executes the fault, but does not result in an error state, is one in which the array contains multiple zero elements and the last zero is not the last element in the array.
+```
+int[] x = {1, 0, 2, 0, 3, 0};
+int lastZero = lastZero(x); 
+//Expected output: 5
+```
+In this case, the function will return the index of the first zero element it encounters which is 1, instead of the last zero element in the array which is 5. However, the function will still return a valid index, it will just not be the expected index. It will not throw any exceptions or result in an error state.
+Another test case could be:
+```
+int[] x = {1, 2, 0, 3, 0, 0};
+int lastZero = lastZero(x); 
+//Expected output: 5
+```
+In this case, the function will return the index of the first zero element it encounters which is 2, instead of the last zero element in the array which is 5. However, the function will still return a valid index, it will just not be the expected index. It will not throw any exceptions or result in an error state.
+It's not possible to give a test case that executes the fault and results in an error state because the function will not throw any exceptions or result in an error state it will just not return the expected output.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A test case that results in an error, but not a failure, is one in which the input array is null.
+```
+int[] x = null;
+int lastZero = lastZero(x);
+```
+In this case, the function will throw a `NullPointerException` when it attempts to access the length of the array. This is an error, but it does not result in a failure because the program counter does not reach the end of the program, and the program does not crash.
+It's not possible to give a test case that results in a failure because the program will not crash it will throw an exception.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The given test case is:
+```
+int[] x = null;
+int lastZero = lastZero(x);
+```
+The first error state in this case is when the function attempts to access the length of the array x, which is `x.length`. Since x is null, this will result in a `NullPointerException` being thrown. The complete state of the error includes the following:
+- The program is in the `lastZero` function and has reached the line `for (int i = 0; i &lt; x.length; i++)`
+- The local variable `x` is null
+- A `NullPointerException` is thrown at this point and the stack trace will point to the line `for (int i = 0; i &lt; x.length; i++)`
+It's also possible to say that the error state is when the exception is thrown and caught by the runtime, the complete state includes:
+- The exception object is created with the message "null" and the type of the exception is NullPointerException
+- The program counter points to the line where the exception was thrown
+- The program will not proceed to the next line of code and the exception will be caught by runtime and the program will stop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+As I am a text-based AI model I can't provide a screen printout or other evidence that my new program works. However, I can provide the modified code to fix the error:
+```
+public static int lastZero (int[] x) {
+    if (x == null) {
+        throw new NullPointerException("Input array is null");
+    }
+    int lastZeroIndex = -1;
+    for (int i = 0; i &lt; x.length; i++) {
+        if (x[i] == 0) {
+            lastZeroIndex = i;
+        }
+    }
+    return lastZeroIndex;
+}
+```
+In this new version of the code, I've added a null check at the beginning of the function to check if the input array is null. If it is, it throws a `NullPointerException` with an appropriate error message.
+This modification will handle the case where the input array is null, and it will prevent the program from throwing a `NullPointerException` and also it will give a proper error message to handle it.
+This modification will work on all test cases including the one where the input array is null and will give the expected output.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The code seems to be correctly counting the number of elements in the array that are either odd or positive, but it's not handling the case when the input array is null. The NullPointerException is thrown when trying to access x.length if x is null. To fix this, the code should check for a null input array before trying to access its elements, like this:
+```
+    if (x == null) {
+        throw new NullPointerException("Input array is null");
+    }
+    int count = 0;
+    for (int i = 0; i &lt; x.length; i++) {
+        if (x[i] % 2 == 1 || x[i] &gt; 0) {
+            count++;
+        }
+    }
+    return count;
+```
+This way, the NullPointerException will be thrown before trying to access x.length, and the user of this method will know that the input array is null.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A test case that does not execute the fault would be one in which the input array is not null. For example:
+```
+int[] x = {-3, -2, 0, 1, 4};
+int result = oddOrPos(x);
+//Expected output: 3
+```
+In this test case, the input array is not null, so the code does not throw a NullPointerException and the count of odd or positive elements in the array is correctly returned.
+It's not possible to test the failure case, as the code would throw an exception and the program would stop executing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It's not possible to give a test case that executes the fault (null input array) but does not result in an error state, because a NullPointerException is thrown as soon as the code attempts to access the length of the null array, and the program would stop executing.
+A test case that executes the fault would be one in which the input array is null, like this:
+```
+int[] x = null;
+int result = oddOrPos(x);
+```
+This test case would cause the program to throw a NullPointerException, because the code tries to access the length of a null array, and the program would stop executing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It's not possible to give a test case that results in an error, but not a failure, because in this case, the code throws a NullPointerException, which is an error. An error is an abnormal condition, which stops the normal execution of the program, and results in the program stopping or halting. 
+A failure is when the program continues to run but it produces an incorrect output.
+In this case, when the input array is null, the code throws a NullPointerException, which is an abnormal condition and the program stops executing, so it results in a failure, not an error.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+For the test case `int[] x = null; int result = oddOrPos(x);`, the first error state is when the code tries to access the `length` attribute of the null array `x`. 
+This error state is triggered by the following line of code:
+```
+for (int i = 0; i &lt; x.length; i++)
+```
+At this point, the error state is as follows:
+- The variable `x` is null and the program is trying to access its attribute `length`, which throws a NullPointerException.
+- The variable `count` has not been initialized yet.
+- The variable `i` has been initialized as 0 and is ready to be used in the loop.
+- The program counter is on the line of code where the exception is thrown.
+The program will stop executing after this error state and the NullPointerException will be thrown to the user.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+I am an AI model and I cannot create screen printout or other evidence. However, I can assure you that the repair  I proposed earlier  will solve the problem and the test case will now produce the expected output.
+As a reminder, the proposed fix was to check if the input array is null before trying to access its elements:
+```
+    if (x == null) {
+        throw new NullPointerException("Input array is null");
+    }
+    int count = 0;
+    for (int i = 0; i &lt; x.length; i++) {
+        if (x[i] % 2 == 1 || x[i] &gt; 0) {
+            count++;
+        }
+    }
+    return count;
+```
+With this modification, the code will check if the input array is null, and if it is, it will throw a NullPointerException with a message indicating that the input array is null. This way, the user of this method will know that the input array is null and the program will not try to access its elements, preventing the exception from being thrown.
+After this modification, the test case `int[] x = {-3, -2, 0, 1, 4}; int result = oddOrPos(x);` should produce the expected output of 3.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The problem with the given code is that the `BigDecimal` class has inconsistent behavior between its `equals()` and `compareTo()` methods. Specifically, the `equals()` method does not return `true` for two instances of `BigDecimal` that have the same numeric value but different internal representations (such as `1.0` and `1.00`). However, the `compareTo()` method returns `0` for these same instances, indicating that they are equal. 
+This inconsistency causes issues when using `BigDecimal` with certain collections, such as `TreeSet` and `HashSet`. For example, in the given code, `BigDecimalTree` only contains one element after adding `x` and `y`, because `TreeSet` uses `compareTo()` to determine equality. On the other hand, `BigDecimalHash` contains both `x` and `y`, because `HashSet` uses `equals()` to determine equality.
+One possible modification to the code to fix the issue is to override the `equals()` method in the `BigDecimal` class to use `compareTo()` instead of its current implementation, or providing a custom comparator while creating TreeSet. This would ensure that the `equals()` method also considers two instances of `BigDecimal` equal if their `compareTo()` method returns `0`.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It is not possible to give a test case that does not execute the fault, because the fault lies in the implementation of the `BigDecimal` class and its `equals()` and `compareTo()` methods. These methods are called internally by the `TreeSet` and `HashSet` classes and cannot be directly controlled by test cases.
+However, if the above modification is made to the `BigDecimal` class and the updated class is used in the code, it would give correct behavior as it will ensure that the `equals()` method also considers two instances of `BigDecimal` equal if their `compareTo()` method returns `0`.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A test case that executes the fault but does not result in an error state would be one that adds instances of `BigDecimal` with the same numeric value but different internal representations, such as `1.0` and `1.00`, to a `TreeSet` or `HashSet`.
+Example:
+```
+BigDecimal x = new BigDecimal ("1.0");
+BigDecimal y = new BigDecimal ("1.00");
+Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
+BigDecimalTree.add(x);
+BigDecimalTree.add(y);
+Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
+BigDecimalHash.add(x);
+BigDecimalHash.add(y);
+System.out.println("BigDecimalTree = " + BigDecimalTree);
+System.out.println("BigDecimalHash = " + BigDecimalHash);
+```
+The output of this test case would be:
+```
+BigDecimalTree = [1.0]
+BigDecimalHash = [1.0, 1.00]
+```
+As we can see that in the above test case, the fault is executed, but it does not result in an error state. The test case completes execution successfully, and the program produces the expected output. But, it will not be the expected output if we want the two instances of BigDecimal to be treated as equal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+It is not possible to give a test case that results in an error, but not a failure in this scenario. The fault in the `BigDecimal` class causes the `TreeSet` and `HashSet` classes to not behave as expected, but it does not result in any kind of error or exception. The program counter does not encounter any issues and the program execution continues normally.
+It will not result in any error even if the program counter encounters the faulty code and execute it, but the behavior of the program will be incorrect and not as expected because of the fault in the `BigDecimal` class.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The first error state in the given code is that the `BigDecimalTree` set only contains one element after adding `x` and `y` to it. This is because `TreeSet` uses the `compareTo()` method to determine equality, and the `compareTo()` method of the `BigDecimal` class returns 0 for the instances of `x` and `y` even though they are not equal according to the `equals()` method. As a result, `x` and `y` are considered equal by `TreeSet` and only one of them is added to the set.
+The complete state of the error can be described as follows:
+- `x` and `y` are instances of `BigDecimal` with the same numeric value but different internal representations (`1.0` and `1.00`).
+- The `BigDecimal` class has inconsistent behavior between its `equals()` and `compareTo()` methods.
+- `x` and `y` are added to a `TreeSet` called `BigDecimalTree`.
+- `BigDecimalTree` only contains one element, even though both `x` and `y` were added to it.
+- This unexpected behavior is due to the fault in the `BigDecimal` class, which causes the `TreeSet` to not behave as expected.
+It is important to note that the same error state occurs in the `BigDecimalHash` set, but it is not exposed because of the way `HashSet` uses `equals()` method to determine equality.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+As mentioned earlier, one possible way to fix the issue is to override the `equals()` method in the `BigDecimal` class to use `compareTo()` instead of its current implementation.
+Here is an example of how this could be done:
+```
+public class BigDecimal {
+    // existing implementation of BigDecimal
+    @Override
+    public boolean equals(Object o) {
+        if (o instanceof BigDecimal) {
+            return this.compareTo((BigDecimal) o) == 0;
+        }
+        return false;
+    }
+}
+```
+Alternatively, we can also provide a custom comparator while creating TreeSet.
+```
+Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;(new Comparator&lt;BigDecimal&gt;() {
+    public int compare(BigDecimal bd1, BigDecimal bd2) {
+        return bd1.compareTo(bd2);
+    }
+});
+```
+With this modification,  the test case given earlier:
+```
+BigDecimal x = new BigDecimal ("1.0");
+BigDecimal y = new BigDecimal ("1.00");
+Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
+BigDecimalTree.add(x);
+BigDecimalTree.add(y);
+Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
+BigDecimalHash.add(x);
+BigDecimalHash.add(y);
+System.out.println("BigDecimalTree = " + BigDecimalTree);
+System.out.println("BigDecimalHash = " + BigDecimalHash);
+```
+will produce the expected output:
+```
+BigDecimalTree = [1.0]
+BigDecimalHash = [1.0, 1.00]
+```
+It is also worth noting that this modification will also make the `BigDecimal` class consistent with the `equals()` and `compareTo()` methods, which will prevent similar issues from occurring in the future.
+It would be great if you could provide the evidence of the program working, as I am a language model and I cannot execute the code.
+</t>
+  </si>
+  <si>
+    <t>The fault in the given code is that the equals method in the ColorPoint subclass does not properly handle symmetry. Specifically, the equals method in the ColorPoint class only checks for equality when comparing a ColorPoint object to another ColorPoint object, and not when comparing a ColorPoint object to a Point object. This causes the equals method to return false when comparing a ColorPoint object to a Point object, even though they are equal in terms of their x and y coordinates.
+To fix this fault, the equals method in the ColorPoint class should be modified to check for equality when comparing a ColorPoint object to both a ColorPoint object and a Point object. One way to do this would be to add a check at the beginning of the method to see if the passed object is an instance of Point, and if so, call the equals method on the superclass and return the result. For example:
+@Override public boolean equals (Object o) {
+    if (o instanceof Point) {
+        return super.equals(o);
+    }
+    if (!(o instanceof ColorPoint)) return false;
+    ColorPoint cp = (ColorPoint) o;
+    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
+}
+This way, the equals method will handle symmetry properly and return true for both p.equals(cp1) and cp1.equals(p).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not possible to give a test case that does not execute the fault because the fault exists in the implementation of the equals method in the ColorPoint class. Any test case that involves comparing a ColorPoint object to a Point object will execute the fault, as the equals method in the ColorPoint class does not handle symmetry when comparing to Point objects. The given test cases in the question p.equals(cp1) and cp1.equals(p) both execute the fault and return false, when it should return true.
+</t>
+  </si>
+  <si>
+    <t>A test case that executes the fault but does not result in an error state would be:
+Point p = new Point(1,2);
+ColorPoint cp1 = new ColorPoint(1,2,RED);
+p.equals(cp1); // returns false, even though p and cp1 are equal in terms of x and y coordinates.
+This test case calls the equals method on a Point object and compares it to a ColorPoint object, which results in the fault being executed. However, the test case does not result in an error state because the equals method simply returns false instead of causing any program crashes or unexpected behavior. The test case is not producing an error, but it's not producing the expected outcome.</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that results in an error, but not a failure because the fault in this code only affects the behavior of the equals method and does not result in any program crashes or unexpected behavior. The equals method simply returns the incorrect result in certain cases, but it does not cause any errors or failures. The program counter would still execute the next instructions after the call to the equals method, without any interruption.</t>
+  </si>
+  <si>
+    <t>The first error state in the given code occurs when the equals method in the ColorPoint class is called and the passed object is an instance of Point. In this case, the method does not handle symmetry properly and returns false, even though the Point object and the ColorPoint object are equal in terms of their x and y coordinates.
+The complete state of the error is that the equals method in the ColorPoint class is not implemented correctly and does not handle symmetry when comparing to Point objects. As a result, it returns false when it should return true in certain cases. This causes the test cases p.equals(cp1) and cp1.equals(p) to return false, instead of true.</t>
+  </si>
+  <si>
+    <t>I am sorry, as a AI model, i don't have the capability to implement and test a repair on the specific code you provided. However, i already provided a possible solution on part (a) that handles symmetry when comparing a ColorPoint object to both a ColorPoint object and a Point object. To verify that the given test now produces the expected output, you can use the test cases i provided in part (a) and check that they now return the expected results, which are:
+p.equals(cp1) // returns true
+cp1.equals(p) // returns true
+cp1.equals(cp2) // returns false
+It's important to test the code with additional test cases and also verify that the new implementation does not break any other functionality in the code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faults, also known as bugs or defects, are the source of failures in software. Testing and debugging are both used to detect and correct faults in software. Testing is the process of evaluating a system or its component(s) with the intent to find defects. Debugging is the process of identifying and resolving defects or problems in a computer program. Together, testing and debugging help to ensure that software is functioning correctly and is free of defects before it is released to users.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To delete the explicit throw of NullPointerException in the Min program, you would need to remove the following line:
+if (result == null) throw new NullPointerException ("Min.min");
+After removing this line, the JUnit test for a list with a single null element would likely fail because the program would not have any way of handling a null element in the list. Without this line, the program would continue to run and compare the null element to the other elements in the list, resulting in a NullPointerException being thrown at runtime.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The non-syntactic flaw in this test method is that it does not set up the proper initial state for the test. Specifically, it does not initialize the names object or give it any values before calling the sort() method. This means that the test is not repeatable and will not be able to detect any bugs in the sort() method. Additionally, the test does not verify that the sort() method has any effect on the order of the elements in the names object. It only checks that the first element is "Alex" after the sort() method has been called, which might not be the expected outcome.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here is an example of how the problem with the Point class from Chapter 1 can be demonstrated using a HashSet:
+```
+import java.util.HashSet;
+class Point {
+    int x, y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    @Override
+    public boolean equals(Object obj) {
+        if (obj == this) {
+            return true;
+        }
+        if (!(obj instanceof Point)) {
+            return false;
+        }
+        Point p = (Point) obj;
+        return p.x == x &amp;&amp; p.y == y;
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        HashSet&lt;Point&gt; set = new HashSet&lt;Point&gt;();
+        Point p1 = new Point(1, 2);
+        Point p2 = new Point(1, 2);
+        set.add(p1);
+        set.add(p2);
+        System.out.println(set.size()); // prints 2 instead of 1
+    }
+}
+```
+In this example, two Point objects (p1 and p2) are created with the same x and y values, and they are added to a HashSet. Since the Point class does not override the hashCode() method, the HashSet uses the default implementation of the Object class, which generates a unique hash code based on the memory address of the object. As a result, the HashSet considers p1 and p2 to be different objects and does not remove the duplicate. This causes the set.size() to return 2 instead of 1.
+To fix this problem, the Point class should override the hashCode() method and implement a proper hash function based on the x and y values of the Point objects.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The relationship between the `equals()` and `hashCode()` methods in Java is defined by the following contract:
+- If two objects are equal according to the `equals(Object)` method, then calling the `hashCode()` method on each of the two objects must produce the same integer result.
+- It is not required that if two objects are unequal according to the `equals(Object)` method, then calling the `hashCode()` method on each of the two objects must produce distinct integer results. However, the programmer should be aware that producing distinct integer results for unequal objects may improve the performance of hash tables.
+In other words, if two objects are equal, they must have the same hash code. However, if two objects have different hash codes, they may still be equal. Therefore, it is important to make sure that the hash code is based on the same attributes used by the equals method.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Here is a simple JUnit test that demonstrates that Point objects do not satisfy the contract between `equals()` and `hashCode()`:
+```
+import org.junit.Test;
+import java.util.HashSet;
+import static org.junit.Assert.*;
+class Point {
+    int x, y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    @Override
+    public boolean equals(Object obj) {
+        if (obj == this) {
+            return true;
+        }
+        if (!(obj instanceof Point)) {
+            return false;
+        }
+        Point p = (Point) obj;
+        return p.x == x &amp;&amp; p.y == y;
+    }
+}
+public class PointTest {
+    @Test
+    public void testHashCode() {
+        Point p1 = new Point(1, 2);
+        Point p2 = new Point(1, 2);
+        assertTrue(p1.equals(p2));
+        assertFalse(p1.hashCode() == p2.hashCode());
+    }
+}
+```
+This test creates two Point objects (p1 and p2) with the same x and y values and checks if they are equal using the `equals()` method. Then it checks if the hash codes of these two objects are the same. Since the Point class does not override the `hashCode()` method, it uses the default implementation of the `Object` class which generates a unique hash code based on the memory address of the object. As a result, the test fails, indicating that the Point objects do not satisfy the contract between `equals()` and `hashCode()`.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Here is an example of how the Point class can be repaired to fix the fault:
+```
+class Point {
+    int x, y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    @Override
+    public boolean equals(Object obj) {
+        if (obj == this) {
+            return true;
+        }
+        if (!(obj instanceof Point)) {
+            return false;
+        }
+        Point p = (Point) obj;
+        return p.x == x &amp;&amp; p.y == y;
+    }
+    @Override
+    public int hashCode() {
+        return Objects.hash(x, y);
+    }
+}
+```
+In this example, the Point class overrides the `hashCode()` method and uses the `Objects.hash()` method to generate a hash code based on the x and y values of the Point objects. The `Objects.hash()` method generates a hash code based on the values of all the parameters passed to it. This ensures that if two Point objects are equal, they will have the same hash code and can be stored in a Collection structure such as HashSet without any problem.
+Note that the use of the `Objects.hash()` method is available since Java 7. If you're using an older version of Java, you can implement your own hash function using a similar approach.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Here is an example of how the JUnit test can be rewritten as a JUnit theory with appropriate DataPoints:
+```
+import org.junit.experimental.theories.DataPoints;
+import org.junit.experimental.theories.Theories;
+import org.junit.experimental.theories.Theory;
+import org.junit.runner.RunWith;
+import java.util.Objects;
+class Point {
+    int x, y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    @Override
+    public boolean equals(Object obj) {
+        if (obj == this) {
+            return true;
+        }
+        if (!(obj instanceof Point)) {
+            return false;
+        }
+        Point p = (Point) obj;
+        return p.x == x &amp;&amp; p.y == y;
+    }
+    @Override
+    public int hashCode() {
+        return Objects.hash(x, y);
+    }
+}
+@RunWith(Theories.class)
+public class PointTest {
+    @DataPoints
+    public static Point[] points() {
+        return new Point[]{new Point(1, 2), new Point(3, 4), new Point(5, 6), new Point(7, 8)};
+    }
+    @Theory
+    public void testHashCode(Point p1, Point p2) {
+        if (p1.equals(p2)) {
+            assertEquals(p1.hashCode(), p2.hashCode());
+        }
+    }
+}
+```
+This test uses JUnit theories, which allow to test the same method with multiple sets of inputs. The `@DataPoints` annotation is used to define a set of input data. The `@Theory` annotation is used to specify that a method should be run as a theory. 
+In this case, the test uses the `points()` method, which returns an array of Point objects, as the DataPoints. The `testHashCode()` method is run for all possible combinations of the Point objects in the array, and it checks if the hashCode() method returns the same value for two Point objects if they are equals.
+This theory test is more robust than the previous one as it will test the hashCode() method for all the combinations of the Point objects in the array which ensures that the hashCode() method is working correctly for all possible inputs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It depends on the specific implementation of the theory and the methods being used. In general, replacing a set with a list in the theory would likely result in the theory being invalid, as the behavior of sets and lists are different in Java. Sets are designed to not allow duplicate elements, while lists can have duplicate elements. This would change the behavior of the methods being tested and could cause the theory to fail.
+As for the number of tests that pass the precondition and also pass the postcondition, it would depend on the specific implementation of the theory and the methods being used. Without more information, it is not possible to determine how many tests would pass both the precondition and postcondition.
+</t>
   </si>
 </sst>
 </file>
@@ -4406,11 +4341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M18" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4423,15 +4357,15 @@
     <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="65.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="35" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="63.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="65.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="1" customWidth="1"/>
     <col min="18" max="18" width="60.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
@@ -4473,32 +4407,32 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>16</v>
@@ -4537,9 +4471,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -4551,69 +4485,69 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -4622,75 +4556,72 @@
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AA3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -4702,66 +4633,66 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="W4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -4773,72 +4704,72 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AA5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -4850,72 +4781,69 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
+        <v>298</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>70</v>
+        <v>297</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>333</v>
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4927,1710 +4855,1709 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>299</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>44</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>363</v>
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>84</v>
+        <v>297</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>335</v>
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="S9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>94</v>
+        <v>302</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>41</v>
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>337</v>
+        <v>40</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>363</v>
+        <v>346</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>303</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>338</v>
+        <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>44</v>
+        <v>347</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>363</v>
+        <v>69</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>106</v>
+        <v>305</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>363</v>
+        <v>41</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>306</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>41</v>
+        <v>305</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>341</v>
+        <v>41</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>363</v>
+        <v>349</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>122</v>
+        <v>307</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>123</v>
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>342</v>
+        <v>43</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>44</v>
+        <v>350</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>325</v>
+        <v>44</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>128</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>343</v>
+        <v>43</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="K16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>344</v>
+        <v>40</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>138</v>
+        <v>310</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>140</v>
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>345</v>
+        <v>40</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>47</v>
+        <v>353</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>325</v>
+        <v>44</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>148</v>
+        <v>40</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>346</v>
+        <v>130</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>325</v>
+        <v>354</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC18" s="1" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>154</v>
+        <v>314</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>348</v>
+        <v>134</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>44</v>
+        <v>355</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>326</v>
+        <v>44</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>160</v>
+        <v>315</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>161</v>
+        <v>41</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>350</v>
+        <v>142</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>326</v>
+        <v>69</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>44</v>
+        <v>317</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>326</v>
+        <v>43</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>353</v>
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="W23" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>356</v>
+        <v>43</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC24" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
+        <v>322</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>193</v>
+        <v>323</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>357</v>
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2.1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>199</v>
+        <v>326</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>200</v>
+        <v>44</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>361</v>
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>44</v>
+        <v>362</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>360</v>
+        <v>44</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V26" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3.4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>208</v>
+        <v>44</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L27"/>
-      <c r="M27" s="1" t="s">
-        <v>362</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>326</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U27"/>
       <c r="V27" s="1" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y27"/>
       <c r="Z27" s="1" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC27"/>
     </row>
-    <row r="28" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>3.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" s="1" t="s">
-        <v>214</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28"/>
       <c r="N28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28"/>
       <c r="R28" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U28"/>
       <c r="V28" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28"/>
       <c r="Z28" s="1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC28"/>
     </row>
-    <row r="29" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -6638,74 +6565,75 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>326</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29"/>
       <c r="R29" s="1" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U29"/>
       <c r="V29" s="1" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y29"/>
       <c r="Z29" s="1" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC29"/>
     </row>
-    <row r="30" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>3.9</v>
       </c>
@@ -6713,74 +6641,75 @@
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>228</v>
+        <v>44</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L30"/>
-      <c r="M30" s="1" t="s">
-        <v>365</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30"/>
       <c r="N30" s="1" t="s">
-        <v>44</v>
+        <v>366</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30"/>
       <c r="R30" s="1" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U30"/>
       <c r="V30" s="1" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y30"/>
       <c r="Z30" s="1" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC30"/>
     </row>
-    <row r="31" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>3.9</v>
       </c>
@@ -6788,74 +6717,75 @@
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>233</v>
+        <v>331</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31"/>
+      <c r="N31" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q31"/>
       <c r="R31" s="1" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U31"/>
       <c r="V31" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="W31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y31"/>
       <c r="Z31" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC31"/>
     </row>
-    <row r="32" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>3.9</v>
       </c>
@@ -6863,70 +6793,71 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>239</v>
+        <v>332</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>44</v>
+        <v>44</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32"/>
-      <c r="M32" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32" s="1" t="s">
+        <v>368</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>363</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q32"/>
       <c r="R32" s="1" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U32"/>
       <c r="V32" s="1" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="W32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y32"/>
       <c r="Z32" s="1" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC32"/>
     </row>
@@ -6938,556 +6869,556 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>246</v>
+      <c r="K34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>261</v>
+        <v>44</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>262</v>
+        <v>43</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>316</v>
+        <v>44</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="408" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>4.2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>268</v>
+        <v>43</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>4.3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>238</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>47</v>
+        <v>277</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>312</v>
+        <v>46</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="Z37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AA37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC37" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AA37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>312</v>
-      </c>
     </row>
-    <row r="38" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="J38" s="1" t="s">
-        <v>41</v>
+        <v>245</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>314</v>
+        <v>41</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T38" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="Z38" s="1" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>4.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>315</v>
+        <v>41</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="AA39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -7495,82 +7426,82 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>47</v>
+        <v>260</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>317</v>
+        <v>41</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>47</v>
+        <v>261</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>317</v>
+        <v>41</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB40" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="388" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -7578,82 +7509,70 @@
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB41" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="N1:O41" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="EPC"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="APC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C7B1B7-81F6-D84E-952D-842861403759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE70C54-0382-334E-8B2F-E8C0DC23A596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="372">
   <si>
     <t>id</t>
   </si>
@@ -2390,19 +2390,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Setting up a continuous integration (CI) server involves the following steps:
-1. Choose a CI tool, such as Jenkins, Travis CI, or CircleCI.
-2. Set up a version control system, such as Git, to manage the source code and tests.
-3. Create a simple example project with some source code and test cases.
-4. Create a configuration file (e.g. .travis.yml for Travis CI) that specifies how the CI server should build and test the project.
-5. Commit the example project and the configuration file to the version control system.
-6. Push the code to the CI server.
-7. Verify that the example project builds and tests successfully on the CI server.
-To "break the build," you can introduce a fault into the source code or add a failing test case. For example, you could change a passing test case to fail by modifying the expected output. After this, the build will fail and the CI server will notify you of the failure.
-To restore the build, you can fix the issue in the source code or test cases, and then push the changes to the version control system. The CI server will then automatically pick up the changes and run the build and tests again. If the build is successful, the CI server will notify you that the build is back to normal.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">To set up a continuous integration (CI) server, you will need to choose a CI tool and configure it to integrate with your version control system (VCS). Popular CI tools include Jenkins, Travis CI, and CircleCI. 
 Assuming you are using Git as your VCS, you can start by creating a new repository on a hosting service such as GitHub or GitLab. Next, you can connect your CI tool to the repository by providing it with the necessary access credentials.
 Once the CI server is set up, you can begin adding your source code and tests to the repository. A simple example of source code could be a "Hello World" program written in a programming language such as Python or JavaScript. A simple test case could be a unit test that checks that the "Hello World" program returns the expected output.
@@ -2454,19 +2441,6 @@
 6. Push your changes to GitHub to trigger a new build on Travis CI. The build will fail because the test case is expecting the wrong result.
 7. To restore the build, fix the source code error or update the test case to expect the correct result. Then push the changes to GitHub and the build will pass again.
 Note: This is a simple example and there are many other possibilities when setting up a CI server, like using different languages, different CI servers, and different version control systems, but the general process is similar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To set up a continuous integration (CI) server, you will need to first choose a CI tool such as Jenkins, Travis CI, or CircleCI. Once you have chosen a tool, you will need to set up a version control system (VCS) such as Git or Mercurial.
-1.  Install and configure the chosen CI tool on a server. 
-2.  Connect the CI tool to the chosen VCS.
-3.  Create a new repository in the VCS for the source code and another one for the tests.
-4.  Add a simple example of source code and corresponding test cases to the repositories.
-5.  Set up the CI tool to run the tests automatically whenever a change is pushed to the repository.
-6.  To experiment with "breaking the build," you can introduce a fault into the source code by causing a syntax error or adding a failing test case. 
-7.  Once the build is broken, fix the issue by correcting the error in the source code or updating the test case.
-8.  Push the changes to the repository and the CI tool should automatically run the tests again and restore the build.
-You may also want to set up notifications so that you or your team will be notified when the build is broken, and when it is restored.
-</t>
   </si>
   <si>
     <t xml:space="preserve">To set up a continuous integration (CI) server, you can use a tool like Jenkins, Travis CI, or CircleCI. These tools integrate with popular version control systems like Git and automatically build and test your code every time a change is pushed to the repository.
@@ -2641,10 +2615,6 @@
     <t>Does T1 necessarily satisfy C2? Explain.</t>
   </si>
   <si>
-    <t xml:space="preserve">No, T1 does not necessarily satisfy C2. The fact that T1 satisfies C1 does not guarantee that it will also satisfy C2, because C1 is a more comprehensive criterion that includes C2 as a subset. T1 may include additional test cases that are not covered by C2, but still meet the requirements of C1. Therefore, T1 could still provide adequate coverage according to C1 even if it does not satisfy C2.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">(a) No, T1 does not necessarily satisfy C2. The fact that T1 satisfies C1, which subsumes C2, only means that T1 covers all the requirements specified by C2, but it does not guarantee that T1 covers all the requirements specified by C1. Therefore, T1 may or may not satisfy C2.
 </t>
   </si>
@@ -2662,11 +2632,6 @@
   </si>
   <si>
     <t>Does T2 necessarily satisfy C1? Explain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-No, T2 does not necessarily satisfy C1. The fact that T2 satisfies C2 does not guarantee that it will also satisfy C1, because C1 is a more comprehensive criterion that includes C2 as a subset. T2 may not include test cases that are covered by C1 but not by C2, T2  may not provide adequate coverage according to C1 even if it satisfies C2.
-</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -2692,30 +2657,6 @@
   </si>
   <si>
     <t>Just says screenshot is not available.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step by step answer.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Better than book solution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
   </si>
   <si>
     <r>
@@ -3857,12 +3798,59 @@
 As for the number of tests that pass the precondition and also pass the postcondition, it would depend on the specific implementation of the theory and the methods being used. Without more information, it is not possible to determine how many tests would pass both the precondition and postcondition.
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step by step answer.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Better than book solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Step by step answer.
+Better than book solution  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool, you would need to integrate these tools into the continuous integration pipeline. This can typically be done by configuring the CI server to run the tools as part of the build process, or by using a plugin or extension that integrates the tools directly into the CI server.
+For example, to add code coverage, you would need to configure the CI server to run a code coverage tool such as JaCoCo or Cobertura during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the code coverage tool enabled.
+To add static analysis, you would need to configure the CI server to run a static analysis tool such as SonarQube or Checkstyle during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the static analysis tool enabled.
+It's also worth to note that many CI servers, like Jenkins, Gitlab-CI, Travis-CI, etc, have built-in or widely supported plugin that already provide functionality of running code coverage and static analysis.
+</t>
+  </si>
+  <si>
+    <t>Suggests specific tools for code coverage &amp; static analysis</t>
+  </si>
+  <si>
+    <t>(a) T1 may or may not satisfy C2. The fact that T1 satisfies C1, which subsumes C2, means that C1 is a more comprehensive criterion that includes all of the requirements of C2. However, it does not guarantee that T1 will also satisfy C2. T1 may include test cases that are not necessary to satisfy C2, and it may not include test cases that are necessary to satisfy C2. Therefore, additional test cases may be needed to confirm that T1 also satisfies C2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) No, T2 does not necessarily satisfy C1. The fact that T2 satisfies C2, which is subsumed by C1, means that T2 meets the requirements of C2 but it does not mean that T2 meets all the requirements of C1. T2 may not include test cases that are necessary to satisfy C1, and it may include test cases that are not necessary to satisfy C1. Therefore, additional test cases may be needed to confirm that T2 also satisfies C1.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3898,6 +3886,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4343,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4408,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
@@ -4473,7 +4468,7 @@
     </row>
     <row r="2" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -4485,7 +4480,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -4494,10 +4489,10 @@
         <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -4509,7 +4504,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -4547,7 +4542,7 @@
     </row>
     <row r="3" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -4559,7 +4554,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -4571,7 +4566,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -4583,7 +4578,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -4621,7 +4616,7 @@
     </row>
     <row r="4" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -4633,7 +4628,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -4642,7 +4637,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -4654,7 +4649,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -4692,7 +4687,7 @@
     </row>
     <row r="5" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -4704,7 +4699,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
@@ -4713,10 +4708,10 @@
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
@@ -4731,7 +4726,7 @@
         <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>43</v>
@@ -4769,7 +4764,7 @@
     </row>
     <row r="6" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -4781,7 +4776,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -4790,10 +4785,10 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -4805,7 +4800,7 @@
         <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>40</v>
@@ -4843,7 +4838,7 @@
     </row>
     <row r="7" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4855,7 +4850,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -4864,7 +4859,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -4876,7 +4871,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>46</v>
@@ -4917,7 +4912,7 @@
     </row>
     <row r="8" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -4929,7 +4924,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>40</v>
@@ -4938,10 +4933,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>76</v>
@@ -4953,7 +4948,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
@@ -4994,7 +4989,7 @@
     </row>
     <row r="9" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -5006,7 +5001,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -5015,10 +5010,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>80</v>
@@ -5030,7 +5025,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>40</v>
@@ -5071,7 +5066,7 @@
     </row>
     <row r="10" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -5083,7 +5078,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>40</v>
@@ -5092,10 +5087,10 @@
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>85</v>
@@ -5107,7 +5102,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -5145,7 +5140,7 @@
     </row>
     <row r="11" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -5157,7 +5152,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>43</v>
@@ -5166,10 +5161,10 @@
         <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>89</v>
@@ -5181,7 +5176,7 @@
         <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>40</v>
@@ -5219,7 +5214,7 @@
     </row>
     <row r="12" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -5231,7 +5226,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -5240,10 +5235,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>94</v>
@@ -5258,7 +5253,7 @@
         <v>93</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>40</v>
@@ -5308,7 +5303,7 @@
     </row>
     <row r="13" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -5320,7 +5315,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -5329,10 +5324,10 @@
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>98</v>
@@ -5347,7 +5342,7 @@
         <v>93</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -5397,7 +5392,7 @@
     </row>
     <row r="14" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -5409,7 +5404,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -5418,10 +5413,10 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>109</v>
@@ -5433,7 +5428,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -5471,7 +5466,7 @@
     </row>
     <row r="15" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -5483,7 +5478,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
@@ -5492,10 +5487,10 @@
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>113</v>
@@ -5507,7 +5502,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>43</v>
@@ -5545,7 +5540,7 @@
     </row>
     <row r="16" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -5557,7 +5552,7 @@
         <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
@@ -5566,10 +5561,10 @@
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>117</v>
@@ -5581,7 +5576,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>40</v>
@@ -5619,7 +5614,7 @@
     </row>
     <row r="17" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -5631,7 +5626,7 @@
         <v>121</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>46</v>
@@ -5640,10 +5635,10 @@
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>123</v>
@@ -5655,7 +5650,7 @@
         <v>122</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>46</v>
@@ -5702,7 +5697,7 @@
     </row>
     <row r="18" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -5714,7 +5709,7 @@
         <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>46</v>
@@ -5723,10 +5718,10 @@
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>129</v>
@@ -5741,7 +5736,7 @@
         <v>130</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -5791,7 +5786,7 @@
     </row>
     <row r="19" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
@@ -5803,7 +5798,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
@@ -5812,10 +5807,10 @@
         <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>135</v>
@@ -5830,7 +5825,7 @@
         <v>134</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>43</v>
@@ -5880,7 +5875,7 @@
     </row>
     <row r="20" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
@@ -5892,7 +5887,7 @@
         <v>140</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>46</v>
@@ -5901,10 +5896,10 @@
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>141</v>
@@ -5919,7 +5914,7 @@
         <v>142</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>43</v>
@@ -5969,7 +5964,7 @@
     </row>
     <row r="21" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
@@ -5981,13 +5976,13 @@
         <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>147</v>
@@ -5999,7 +5994,7 @@
         <v>44</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>43</v>
@@ -6040,7 +6035,7 @@
     </row>
     <row r="22" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
@@ -6052,7 +6047,7 @@
         <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
@@ -6061,10 +6056,10 @@
         <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>152</v>
@@ -6076,7 +6071,7 @@
         <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>40</v>
@@ -6114,7 +6109,7 @@
     </row>
     <row r="23" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
@@ -6126,7 +6121,7 @@
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
@@ -6135,10 +6130,10 @@
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>156</v>
@@ -6150,7 +6145,7 @@
         <v>44</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>43</v>
@@ -6188,7 +6183,7 @@
     </row>
     <row r="24" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
@@ -6200,7 +6195,7 @@
         <v>160</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>43</v>
@@ -6212,7 +6207,7 @@
         <v>161</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>162</v>
@@ -6224,7 +6219,7 @@
         <v>44</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>43</v>
@@ -6265,7 +6260,7 @@
     </row>
     <row r="25" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
@@ -6277,7 +6272,7 @@
         <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -6286,10 +6281,10 @@
         <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>167</v>
@@ -6301,7 +6296,7 @@
         <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>40</v>
@@ -6351,7 +6346,7 @@
         <v>172</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>43</v>
@@ -6360,10 +6355,10 @@
         <v>44</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>173</v>
@@ -6375,7 +6370,7 @@
         <v>44</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>43</v>
@@ -6422,7 +6417,7 @@
         <v>178</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>43</v>
@@ -6431,7 +6426,7 @@
         <v>44</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>179</v>
@@ -6444,7 +6439,7 @@
       </c>
       <c r="M27"/>
       <c r="N27" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>43</v>
@@ -6504,7 +6499,7 @@
         <v>44</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>186</v>
@@ -6517,7 +6512,7 @@
       </c>
       <c r="M28"/>
       <c r="N28" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>43</v>
@@ -6571,7 +6566,7 @@
         <v>191</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>43</v>
@@ -6580,7 +6575,7 @@
         <v>44</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>192</v>
@@ -6593,7 +6588,7 @@
       </c>
       <c r="M29"/>
       <c r="N29" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>43</v>
@@ -6647,7 +6642,7 @@
         <v>196</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>43</v>
@@ -6656,7 +6651,7 @@
         <v>44</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>197</v>
@@ -6669,7 +6664,7 @@
       </c>
       <c r="M30"/>
       <c r="N30" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>43</v>
@@ -6723,7 +6718,7 @@
         <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>43</v>
@@ -6732,7 +6727,7 @@
         <v>44</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>202</v>
@@ -6745,7 +6740,7 @@
       </c>
       <c r="M31"/>
       <c r="N31" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>43</v>
@@ -6799,7 +6794,7 @@
         <v>206</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>43</v>
@@ -6808,7 +6803,7 @@
         <v>44</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>207</v>
@@ -6821,7 +6816,7 @@
       </c>
       <c r="M32"/>
       <c r="N32" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>43</v>
@@ -6875,7 +6870,7 @@
         <v>211</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
@@ -6884,10 +6879,10 @@
         <v>69</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>213</v>
@@ -6902,7 +6897,7 @@
         <v>212</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>46</v>
@@ -6952,13 +6947,13 @@
     </row>
     <row r="34" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>217</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
@@ -6967,10 +6962,10 @@
         <v>44</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>219</v>
@@ -6985,7 +6980,7 @@
         <v>218</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>43</v>
@@ -7052,6 +7047,9 @@
       <c r="G35" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="I35" s="6" t="s">
+        <v>323</v>
+      </c>
       <c r="J35" s="1" t="s">
         <v>226</v>
       </c>
@@ -7071,7 +7069,7 @@
         <v>44</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>228</v>
@@ -7083,10 +7081,10 @@
         <v>44</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="W35" s="1" t="s">
         <v>43</v>
@@ -7095,7 +7093,7 @@
         <v>44</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>229</v>
@@ -7107,7 +7105,7 @@
         <v>44</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="408" customHeight="1" x14ac:dyDescent="0.2">
@@ -7127,47 +7125,53 @@
         <v>44</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="J36" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="N36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="K36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="O36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="X36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="AA36" s="3" t="s">
         <v>43</v>
       </c>
@@ -7175,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
@@ -7186,19 +7190,22 @@
         <v>230</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>277</v>
+        <v>369</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>46</v>
@@ -7207,10 +7214,10 @@
         <v>41</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O37" s="3" t="s">
         <v>46</v>
@@ -7219,10 +7226,10 @@
         <v>41</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>46</v>
@@ -7231,10 +7238,10 @@
         <v>41</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W37" s="1" t="s">
         <v>46</v>
@@ -7243,10 +7250,10 @@
         <v>41</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Z37" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AA37" s="3" t="s">
         <v>46</v>
@@ -7255,7 +7262,7 @@
         <v>41</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
@@ -7263,71 +7270,74 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="K38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="J38" s="1" t="s">
+      <c r="O38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="K38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="S38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="V38" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="R38" s="1" t="s">
+      <c r="W38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="AA38" s="3" t="s">
         <v>40</v>
       </c>
@@ -7335,7 +7345,7 @@
         <v>41</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
@@ -7343,71 +7353,74 @@
         <v>4.5</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="K39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N39" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="O39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="S39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="V39" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="R39" s="1" t="s">
+      <c r="W39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="AA39" s="3" t="s">
         <v>40</v>
       </c>
@@ -7415,7 +7428,7 @@
         <v>41</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
@@ -7426,22 +7439,28 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>46</v>
@@ -7450,10 +7469,10 @@
         <v>41</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>46</v>
@@ -7462,10 +7481,10 @@
         <v>41</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
@@ -7474,10 +7493,10 @@
         <v>41</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="W40" s="1" t="s">
         <v>46</v>
@@ -7486,10 +7505,10 @@
         <v>41</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AA40" s="1" t="s">
         <v>46</v>
@@ -7498,7 +7517,7 @@
         <v>41</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
@@ -7509,13 +7528,13 @@
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
@@ -7523,8 +7542,11 @@
       <c r="G41" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="I41" s="6" t="s">
+        <v>285</v>
+      </c>
       <c r="J41" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>46</v>
@@ -7533,10 +7555,10 @@
         <v>44</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>43</v>
@@ -7545,7 +7567,7 @@
         <v>44</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>43</v>
@@ -7554,7 +7576,7 @@
         <v>44</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="W41" s="1" t="s">
         <v>43</v>
@@ -7563,7 +7585,7 @@
         <v>44</v>
       </c>
       <c r="Z41" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AA41" s="1" t="s">
         <v>43</v>

--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE70C54-0382-334E-8B2F-E8C0DC23A596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A608AEB-A8A4-0D41-BE78-F68EEB4566E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32680" yWindow="-5860" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$O$1:$P$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$F$1:$G$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -967,9 +967,6 @@
     <t>If possible, give a test case that results in an error, but not a failure. If not, briefly explain why not. Hint: Don’t forget about the program counter.</t>
   </si>
   <si>
-    <t xml:space="preserve">AC </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 A test case that results in an error but not a failure would be to create two `BigDecimal` objects, `x` and `y`, with different string values, but such that `x.equals(y)` returns `false` and `x.compareTo(y)` returns `0`. And then use these BigDecimal objects in a scenario where the program uses both equals and compareTo method in the same logic flow. 
 For example:
@@ -1533,13 +1530,6 @@
     <t>How are faults and failures related to testing and debugging?</t>
   </si>
   <si>
-    <t xml:space="preserve">Faults and failures are closely related to testing and debugging. Testing is the process of evaluating a system or its component(s) with the intent to find whether it satisfies the specified requirements or not. Debugging is the process of identifying and resolving defects or problems in a system or its components. Faults, also known as bugs or defects, are the source of failures, which occur when a system or its component(s) do not perform as intended. Therefore, testing and debugging are essential to identify and resolve faults, ensuring that a system or its component(s) perform as intended and meet the specified requirements.
-</t>
-  </si>
-  <si>
-    <t>Faults and failures are related to testing and debugging because they are often discovered and identified during the testing and debugging process. A fault is a defect or error in the code that may or may not cause a failure, which is an observable malfunction of the system. Testing is the process of evaluating a system or its component(s) with the intent to find whether it satisfies the specified requirements or not. Debugging is the process of finding and resolving defects or problems in a computer program. Therefore, during testing, faults and failures may be discovered, and debugging is used to identify and fix the underlying cause of those faults and failures.</t>
-  </si>
-  <si>
     <t>Faults and failures are related to testing and debugging in that testing and debugging are used to identify and fix faults and failures in a system or application. Faults are mistakes or errors in the design or implementation of a system or application, while failures are instances of a system or application not performing as expected. Testing is used to identify faults by exposing a system or application to various inputs and conditions and observing its behavior, while debugging is used to find and fix faults by identifying the source of the problem and making changes to the system or application to correct it. Together, testing and debugging help ensure that a system or application is functioning correctly and is free of faults and failures.</t>
   </si>
   <si>
@@ -1583,22 +1573,6 @@
     <t>Delete the explict throw of NullPointerException in the Min program (figure 3.2). Verify that the JUnit test for a list with a single null element now fails.</t>
   </si>
   <si>
-    <t xml:space="preserve">To delete the explicit throw of NullPointerException in the Min program, you can remove the following line of code:
-if (result == null) throw new NullPointerException ("Min.min");
-After removing this line, the JUnit test for a list with a single null element will now fail because the program no longer checks for null elements and throws an exception when it encounters one. Instead, the program will likely throw a NullPointerException at runtime when it attempts to call the compareTo method on a null element.
-</t>
-  </si>
-  <si>
-    <t>To delete the explicit throw of the NullPointerException in the Min program, you would remove the following line of code:
-```
-if (result == null) throw new NullPointerException ("Min.min");
-```
-This line is located after the initialization of the "result" variable and before the while loop that iterates through the elements of the list. This line checks if the first element in the list is null, and if so, it throws a NullPointerException with the message "Min.min".
-Without this line, the program will not check if the first element of the list is null. As a result, if the first element of the list is null and the subsequent elements are not, the program will return null as the minimum element, rather than throwing an exception.
-In the JUnit test for a list with a single null element, if the explicit throw of NPE is removed, the test will fail because the program does not check for null elements in the list any more, and it will return a null which is not the expected result in this case.
-You will have to decide how you want your program to handle the scenario when there is a null element, then update the program and test accordingly.</t>
-  </si>
-  <si>
     <t>To delete the explicit throw of NullPointerException in the Min program, you can simply remove the following line of code:
 if (result == null) throw new NullPointerException ("Min.min");
 After removing this line, the JUnit test for a list with a single null element will fail because the NullPointerException will no longer be thrown and the program will not handle the null element properly.</t>
@@ -1633,16 +1607,6 @@
 This test case only checks if the first element is "Alex" or not but it does not check if all elements are in the correct order or not.
 To fix this, additional test cases should be added that verify that the elements are correctly sorted after the sort() method is called.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The flaw in the test method is that it is not checking the correctness of the sort() method by asserting the sorted order of all elements in the names object, but instead is only checking if the first element of the names object is "Alex" after the sort() method is called. This means that the test method is not providing full coverage of the sort() method's functionality and could lead to missing errors in the implementation of the sort() method. This is an issue of the Reliability aspect of the RIPR model, as the test method is not adequately ensuring the correct behavior of the system under test.
-</t>
-  </si>
-  <si>
-    <t>The non-syntactic flaw in this JUnit test method is that there is a line of code, `23`, that doesn't perform any function and doesn't affect the outcome of the test. It is not a part of the test case's precondition, execution, or postcondition. 
-In terms of the RIPR model, this line of code violates the 'precondition' and 'postcondition' as it does not set any expectation or validate any behavior, rather it is just a number causing the test case to be an invalid representation of the requirement it's supposed to test.
-It also violates the 'Requirements' part as it's not fulfilling any requirement that's been set.
-It could be said that this line of code is a 'Redundant' element and thus failing the 'Relevant' criteria, thus making the test case not able to understand what's expected in the case of a failure</t>
   </si>
   <si>
     <t>The non-syntactic flaw in the test method is that it does not have a proper oracle. The oracle in this case, is the expected output of the sort() method. The test method only asserts that the first element of the names object after sorting should be "Alex" using the assertTrue() method, but it does not check if the rest of the elements are sorted in the correct order. This means that the test method only checks for a partial correctness of the sort() method, and does not guarantee that the sort() method works correctly in all cases.</t>
@@ -2111,16 +2075,6 @@
     <t>Question does not provide enough context to answer</t>
   </si>
   <si>
-    <t xml:space="preserve">It is difficult to determine the validity of the resulting theory and the number of tests that pass the precondition also pass the postcondition without more information about the specific JUnit theory "removeThenAddDoesNotChangeSet" and the context in which it is being used. In general, replacing a set with a list in a JUnit theory would likely cause the theory to become invalid, as the behavior of sets and lists are not the same in Java. Additionally, the specific tests that pass the precondition and postcondition would depend on the implementation of the theory and the specific sets and lists being used.
-</t>
-  </si>
-  <si>
-    <t>It's not clear from the information provided what the original "theory removeThenAddDoesNotChangeSet" looks like, so it's difficult to say whether the resulting theory would be valid or invalid.
-If the original theory tests that removing an element from a set followed by adding the same element back to the set results in the set remaining unchanged, then replacing each occurrence of "set" with "list" would make the theory invalid. This is because in Java, sets are implemented as collections that do not allow duplicate elements, while lists do allow duplicate elements. Therefore, adding an element back to a list after removing it would result in the element being present twice, whereas it would not be present at all if it were a set.
-As for the number of tests that pass the precondition and also pass the postcondition, it would depend on the specific tests included in the original theory. If the tests involve adding and removing elements in such a way that the list would not end up with duplicate elements, then all of the tests would still pass. However, if the tests involve adding and removing elements in such a way that duplicate elements would be introduced to the list, then none of the tests would pass.
-It would be best to check each test and review the expected behavior, also changing the asserts or postcondition in order to reflect that you are testing with a list instead of set.</t>
-  </si>
-  <si>
     <t>It is not possible to determine if the resulting theory is valid or invalid without more information on the specific implementation of the JUnit theory "removeThenAddDoesNotChangeSet." 
 In order to determine if the tests pass the precondition and postcondition, one would need to see the specific test cases being run and the expected results.
 In general, replacing a set with a list in a JUnit theory could change the behavior of the tests, as sets and lists have different characteristics and methods. Sets do not allow duplicate elements and have no defined order, while lists do allow duplicate elements and have a defined order. This means that the tests would have to be re-written or adapted to account for these differences, and it's possible that the original tests would no longer pass the precondition or postcondition.</t>
@@ -2194,105 +2148,6 @@
 It's important to note that in this case, the divide method will return an integer, this decision should be made in the test.
 In summary, the process of adding new functionality to the Calc class using TDD would involve creating a failing test for each new functionality, modifying the Calc class until the test passes, and then performing any refactoring needed to keep the code clean and maintainable.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test 1: Subtraction
-- Create a test method called `testSubtraction()` in a test class called `CalcTest`
-- In the test method, create two integers, `a` and `b`, and call the `subtract()` method on the Calc class, passing in `a` and `b` as arguments
-- Assert that the result of the subtraction method is equal to the expected result (`a - b`)
-- Run the test and observe that it fails because the `subtract()` method does not yet exist in the Calc class
-Changes:
-- Add a new static public method called `subtract()` to the Calc class that takes in two integers as arguments and returns the result of subtracting the second integer from the first
-- Test the method using some sample inputs
-- Test the `testSubtraction()` method again and observe that it now passes
-Refactoring: None
-Test 2: Multiplication
-- Create a test method called `testMultiplication()` in the test class CalcTest
-- In the test method, create two integers, `a` and `b`, and call the `multiply()` method on the Calc class, passing in `a` and `b` as arguments
-- Assert that the result of the multiply method is equal to the expected result (`a * b`)
-- Run the test and observe that it fails because the `multiply()` method does not yet exist in the Calc class
-Changes:
-- Add a new static public method called `multiply()` to the Calc class that takes in two integers as arguments and returns the result of multiplying the two integers
-- Test the method using some sample inputs
-- Test the `testMultiplication()` method again and observe that it now passes
-Refactoring: None
-Test 3: Division
-- Create a test method called `testDivision()` in the test class CalcTest
-- In the test method, create two integers, `a` and `b`, and call the `divide()` method on the Calc class, passing in `a` and `b` as arguments
-- Assert that the result of the divide method is equal to the expected result (`a / b`)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'm sorry, I'm an AI language model and I am not able to run code. I can provide you guidance on how to use Test Driven Development (TDD) to add additional functionality to your class Calc.
-1. Create a new test method that tests the subtraction functionality by calling the subtract method and passing in two integers. Assert that the result is correct by comparing it to the expected value.
-2. Run the test and observe that it fails because the subtract method does not yet exist in the Calc class.
-3. Add the subtract method to the Calc class, which takes two integers as parameters and returns the result of subtracting the second parameter from the first.
-4. Run the test again and observe that it now passes.
-5. Create a new test method that tests the multiplication functionality by calling the multiply method and passing in two integers. Assert that the result is correct by comparing it to the expected value.
-6. Run the test and observe that it fails because the multiply method does not yet exist in the Calc class.
-7. Add the multiply method to the Calc class, which takes two integers as parameters and returns the result of multiplying them together.
-8. Run the test again and observe that it now passes.
-9. Create a new test method that tests the division functionality by calling the divide method and passing in two integers. Assert that the result is correct by comparing it to the expected value.
-10. Run the test and observe that it fails because the divide method does not yet exist in the Calc class.
-11. Add the divide method to the Calc class, which takes two integers as parameters and returns the result of dividing the first parameter by the second.
-12. Run the test again and observe that it now passes.
-13. Refactor the code as needed to improve readability and maintainability, such as by adding comments or renaming variables to be more descriptive.
-14. Re-run all the tests to ensure that they still pass after the refactoring.
-It's important to remember that TDD is an iterative process, so you may need to repeat some of these steps if new requirements arise or bugs are discovered.
-</t>
-  </si>
-  <si>
-    <t>Test 1: Subtraction
-- Create a new test method called "testSubtract()" in the CalcTest class
-- In the testSubtract() method, create two integers, a = 5 and b = 3
-- Call the subtract() method in the Calc class, passing in the values of a and b
-- Assert that the result is equal to 2
-Changes Made:
-- Created a new static method called "subtract()" in the Calc class
-- Implemented the subtraction logic in the subtract() method, using the formula "a - b"
-- Called the subtract() method in the testSubtract() method, passing in the values of a and b
-Refactoring: None
-Test 2: Multiplication
-- Create a new test method called "testMultiply()" in the CalcTest class
-- In the testMultiply() method, create two integers, a = 5 and b = 3
-- Call the multiply() method in the Calc class, passing in the values of a and b
-- Assert that the result is equal to 15
-Changes Made:
-- Created a new static method called "multiply()" in the Calc class
-- Implemented the multiplication logic in the multiply() method, using the formula "a * b"
-- Called the multiply() method in the testMultiply() method, passing in the values of a and b
-Refactoring: None
-Test 3: Division
-- Create a new test method called "testDivide()" in the CalcTest class
-- In the testDivide() method, create two integers, a = 6 and b = 3
-- Call the divide() method in the Calc class, passing in the values of a and b
-- Assert that the result is equal to 2
-Changes Made:
-- Created a new static method called "divide()" in the Calc class
-- Implemented the division logic in the divide() method, using the formula "a / b"
-- Called the divide() method in the testDivide() method, passing in the values of a and b
-Refactoring: None
-Final Version of Calc:
-```
-public class Calc {
-   static public int add (int a, int b) {
-      return a + b;
-   }
-   static public int subtract (int a, int b) {
-      return a - b;
-   }
-   static public int multiply (int a, int b) {
-      return a * b;
-   }
-   static public int divide (int a, int b) {
-      return a / b;
-   }
-}
-```
-Screenshot of all tests passing:
-[Insert Screenshot of All tests passing]
-Narrative:
-In this example, I used the Test-Driven Development (TDD) approach to add additional functionality to the Calc class. First, I created a failing test for one of the new functionalities (subtraction), then I modified the Calc class until the test passed. After that, I performed any refactoring needed and repeated the process for the remaining functionalities (multiplication and division). Finally, I submitted printouts of all tests, my final version of Calc, and a screenshot showing that all tests passed.</t>
   </si>
   <si>
     <t>Test 1: Subtraction
@@ -2390,28 +2245,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">To set up a continuous integration (CI) server, you will need to choose a CI tool and configure it to integrate with your version control system (VCS). Popular CI tools include Jenkins, Travis CI, and CircleCI. 
-Assuming you are using Git as your VCS, you can start by creating a new repository on a hosting service such as GitHub or GitLab. Next, you can connect your CI tool to the repository by providing it with the necessary access credentials.
-Once the CI server is set up, you can begin adding your source code and tests to the repository. A simple example of source code could be a "Hello World" program written in a programming language such as Python or JavaScript. A simple test case could be a unit test that checks that the "Hello World" program returns the expected output.
-To experiment with "breaking the build," you can introduce a fault into the source code by, for example, removing a necessary line of code or introducing a syntax error. Or add a test case that fails by for example, testing for an unexpected output.
-To restore the build, you will need to fix the issue in the source code or test case that caused the build to fail. Once the fix is made, you can commit the changes and push them to the repository. The CI server will then automatically trigger a new build, which should pass if the issue has been resolved.
-</t>
-  </si>
-  <si>
-    <t>Setting up a continuous integration (CI) server can vary depending on the specific tools and technologies you are using, but generally, the process would involve the following steps:
-1. Select a CI server platform, such as Jenkins, Travis CI, or CircleCI.
-2. Connect the CI server to your version control system (VCS), such as Git or Mercurial.
-3. Create a build pipeline that pulls the latest code from the VCS, compiles it, and runs tests.
-4. Add a simple example of source code and tests to your VCS repository.
-5. Configure the CI server to automatically build and test the code whenever changes are pushed to the VCS.
-To experiment with "breaking the build," you can introduce a fault into the source code or add a failing test case:
-1. Introduce a syntax error or logical error into the source code, and push the changes to the VCS.
-2. Add a failing test case to the test suite and push the changes to the VCS.
-In both cases, the CI server should detect the error and fail the build.
-To restore the build, you would need to fix the error in the source code or test case, and then push the changes to the VCS. The CI server should then detect the fix and pass the build.
-It is important to note that depending on the CI server platform you are using, the specific steps and configuration may vary.</t>
-  </si>
-  <si>
     <t>To set up a continuous integration (CI) server, you will need to first choose a CI tool to use, such as Jenkins, Travis CI, or CircleCI. Once you have chosen a tool, you will need to set up a version control system (VCS) to manage your source code and tests. Examples of VCS include Git and Mercurial.
 Next, you will need to create a simple example of your source code and tests. For example, you could create a simple "Hello, World!" program in a language of your choice, along with a test case that checks that the program outputs the correct message.
 Once you have your source code and tests in your VCS, you can then set up your CI server to automatically build and test your code whenever changes are made.
@@ -2443,41 +2276,6 @@
 Note: This is a simple example and there are many other possibilities when setting up a CI server, like using different languages, different CI servers, and different version control systems, but the general process is similar.</t>
   </si>
   <si>
-    <t xml:space="preserve">To set up a continuous integration (CI) server, you can use a tool like Jenkins, Travis CI, or CircleCI. These tools integrate with popular version control systems like Git and automatically build and test your code every time a change is pushed to the repository.
-1. First, create a Git repository for your source code and another for your tests.
-2. Next, set up the CI server to automatically build and test your code whenever changes are pushed to the repository. This typically involves configuring a file called `.travis.yml` (if you're using Travis CI) or `.circleci/config.yml` (if you're using CircleCI) to specify the commands that should be run to build and test your code.
-3. To populate the repository with a simple example, you can create a simple "Hello, World!" program in your source code repository and a few test cases in your test repository.
-4. To experiment with "breaking the build," you can introduce a syntax error into the source code or add a failing test case to the test repository. The CI server will then detect the error and mark the build as failed.
-5. To restore the build, you can fix the error in the source code or update the test case so that it passes. The CI server will then automatically rebuild and retest the code, and the build will be marked as passing.
-Please note that the above steps are high-level instructions and the specific steps and commands may vary depending on the specific CI tool you are using.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To set up a continuous integration (CI) server, you will need to choose a CI tool such as Jenkins, Travis CI, or CircleCI. Once you have chosen a tool, you will need to:
-1. Connect the CI server to your version control system (VCS) such as Git or SVN.
-2. Create a build script that the CI server will use to build and test your code. This script should include commands to:
-   - Check out the source code from the VCS
-   - Run any necessary test cases
-3. Set up the CI server to automatically run the build script every time changes are pushed to the VCS.
-To add version control for both source code and tests, you will need to set up two separate repositories in your VCS, one for the source code and one for the tests. Make sure to connect both repositories to your CI server so that they are built and tested together.
-To populate both repositories with a simple example:
-- Create a simple “Hello World” program in your source code repository
-- Create a test case that asserts the program’s output is “Hello World” in your test repository
-To experiment with "breaking the build" you can:
-- Introduce a syntax error in the source code
-- Add a failing test case
-To restore the build, you will need to fix the error or test case that caused the build to fail.
-Note: Above is a high level overview of the process, actual steps and commands may vary depending on the CI tool you are using.
-</t>
-  </si>
-  <si>
-    <t>To set up a continuous integration (CI) server, you will need to first choose a CI tool such as Jenkins, Travis CI, or CircleCI. 
-Once you have chosen a CI tool, you will need to set up a version control system (VCS) such as Git. You can then connect your CI tool to your VCS so that it can automatically build and test your code whenever changes are pushed to the VCS. 
-To populate your VCS with a simple example, you can create a simple "Hello, World!" program in a language of your choice, and add both the source code and any accompanying test cases to the VCS.
-To experiment with "breaking the build," you can introduce a syntax error into the source code or add a failing test case. This will cause the build to fail when the CI tool attempts to run the tests. 
-To restore the build, you will need to fix the error or update the test case so that it passes. Once the error is fixed, you can push the changes to the VCS, and the CI tool will automatically re-run the build and tests, and should now show that the build is successful.</t>
-  </si>
-  <si>
     <t>Here is a basic setup for a continuous integration (CI) server using Git as the version control system and Jenkins as the CI tool:
 1. Set up a Git repository for your source code and another for your tests.
 2. Install Jenkins on a server and configure it to pull from the source code and test repositories.
@@ -2508,29 +2306,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">To refactor a large, existing system, the first step is to identify the specific part of the system that needs to be refactored. This can be done by reviewing the codebase and identifying areas that are complex, difficult to understand, or have a high number of bugs.
-Once the specific part of the system has been identified, the next step is to build tests that capture the behavior relevant to that part of the system. This can be done by creating unit tests that test the various functionalities of the code, as well as integration tests that test how the code interacts with other parts of the system.
-Once the tests have been created, the next step is to refactor the code. This can be done by making changes to the code to improve its design, making it more maintainable, and reducing the number of bugs. 
-Finally, after refactoring, the tests should be run again to make sure that the refactored code still behaves as expected, and that the tests still pass. This step is important to ensure that the refactoring has not introduced any new bugs or issues into the system.
-</t>
-  </si>
-  <si>
-    <t>To refactor a large, existing system, you can follow these general steps:
-1. Identify the part of the system that you want to refactor. This could be a specific module, class, or function that you want to improve or make more efficient.
-2. Build tests that capture the behavior relevant to that part of the system. This could include unit tests, integration tests, or functional tests, depending on the complexity and scope of the system. These tests should cover all of the different scenarios that the system can encounter and should be comprehensive enough to ensure that the refactored code still behaves as expected.
-3. Refactor the code. This could include making changes to the code's structure, organization, or design, as well as making performance improvements or fixing bugs.
-4. Check that the tests still pass. Once you have refactored the code, run the tests again to ensure that the refactored code still behaves as expected. If any of the tests fail, you will need to investigate and fix the problem before committing the changes.
-5. Repeat the steps as needed, until the desired level of refactoring is achieved.
-It's important to mention that refactoring is a continuous process and it should be integrated in the development cycle, it's also important to keep track of the code changes and the history of the refactorings, also to have a plan for testing and rolling back if needed.</t>
-  </si>
-  <si>
-    <t>To refactor a large, existing system, the first step would be to identify the specific part of the system that needs to be refactored. This can be done by reviewing the codebase and identifying areas that are complex, difficult to understand, or have a high number of bugs.
-Once the specific area to be refactored has been identified, the next step would be to build tests that capture the behavior relevant to that part of the system. These tests should cover the different scenarios and edge cases that the system is expected to handle, and should be designed to fail if the refactoring changes the behavior of the system in an unintended way.
-Next, the refactoring should be performed, making sure to keep the behavior of the system as close as possible to the original. This can involve simplifying the code, improving its structure, or even replacing parts of it with more efficient or better-designed code.
-Finally, the tests should be run again to ensure that the system still behaves as expected. If any of the tests fail, the refactoring should be reviewed to understand why, and any necessary adjustments should be made to ensure that the system behaves correctly.
-It's important to document the changes made during the refactoring process, so that other developers can understand the changes and why they were made.</t>
-  </si>
-  <si>
     <t>1. Identify a specific area of the large, existing system that needs refactoring. This may be due to poor performance, lack of maintainability, or other issues.
 2. Build tests that capture the behavior of the system relevant to that part of the code. These tests should cover the expected inputs, outputs, and any side effects of the code.
 3. Refactor the code, making changes that improve its performance, maintainability, or other desired properties.
@@ -2552,34 +2327,6 @@
 4. After that, I would need to repair the fault in the code by making the necessary changes and ensuring that the code is still functional and efficient.
 5. Finally, I would need to run all of the tests again to ensure that the fault has been successfully repaired and that the system is now working as intended. All tests should now pass.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. First, identify the area of the code where the fault is likely to occur by analyzing error logs, reviewing recent code changes, or tracing through the code execution.
-2. Once the area of the code is identified, create test cases that specifically target the suspected area of the fault. These test cases should include both expected and unexpected inputs and outputs to ensure that the code behaves correctly in all scenarios.
-3. Run the test cases and observe which ones fail. This will indicate the presence of the fault.
-4. Repair the fault by modifying the relevant code, ensuring that the changes do not introduce any new issues or errors.
-5. Re-run the test cases and confirm that all of them pass.
-6. Finally, conduct additional testing to ensure that the repair does not negatively impact the rest of the system.
-7. Commit the code changes and update documentation if needed.
-</t>
-  </si>
-  <si>
-    <t>To repair a fault in an existing system, the first step would be to identify the source of the problem by analyzing the code, reviewing log files, and reproducing the error. Once the problem has been identified, it is important to capture the current behavior with tests in order to ensure that the system is functioning as intended and to have a way to verify that the fix has been successful.
-One way to capture the current behavior is to use test-driven development (TDD) approach, where you write a test that fails because of the current fault, then make changes to the code to fix the issue and run the test again to ensure it passes.
-Here is an example of how this process might work:
-1. Identify the problem: A button on the website is not working as expected and no action is performed when it is clicked.
-2. Capture the current behavior with tests: Write a test that simulates a user clicking the button and checks that the expected action is performed. The test should fail because the button is not working.
-3. Repair the fault: Analyze the code and identify the issue that is causing the button to not work. Make changes to the code to fix the problem.
-4. Check that all of your tests now pass: Run the test again and verify that it passes, indicating that the fix has been successful and the button is now working as expected.
-It's also important to consider the full scope of the changes made and how it might effect other parts of the system, it may be necessary to run additional test cases to ensure that no new bugs are introduced as part of the fix.</t>
-  </si>
-  <si>
-    <t>1. First, identify the specific area of the code where the fault is believed to be located. This can be done through debugging, reviewing error logs, or asking other team members for input.
-2. Once the suspected area of the fault is identified, create test cases to capture the current behavior of the system in that area. These tests should be written in a way that ensures they will pass if the system is functioning correctly.
-3. Run the tests and ensure that at least one of them fails. This failure indicates that the fault has been found.
-4. Make the necessary changes to the code in order to repair the fault. This may involve adding, modifying, or removing lines of code.
-5. Run all of the tests again to ensure that they all pass. This verifies that the fault has been successfully repaired and that the system is functioning correctly.
-6. After all the test passed, do a final verification and testing with the real-world scenario and push the code to production if everything looks good.</t>
   </si>
   <si>
     <t>1. Locate the code that is causing the fault:
@@ -2653,9 +2400,6 @@
 </t>
   </si>
   <si>
-    <t>Shows where to add screen prinouts</t>
-  </si>
-  <si>
     <t>Just says screenshot is not available.</t>
   </si>
   <si>
@@ -2703,9 +2447,6 @@
     <t>Does not demonstrate any faulty code or any failed test</t>
   </si>
   <si>
-    <t>Acknowleges inability to run/print code</t>
-  </si>
-  <si>
     <t>Understands what subsume means. But makes logical error in decision.</t>
   </si>
   <si>
@@ -2758,9 +2499,6 @@
   </si>
   <si>
     <t>1.7.3</t>
-  </si>
-  <si>
-    <t>Confidence</t>
   </si>
   <si>
     <t>Very confident</t>
@@ -3616,20 +3354,6 @@
 It's important to test the code with additional test cases and also verify that the new implementation does not break any other functionality in the code.</t>
   </si>
   <si>
-    <t xml:space="preserve">Faults, also known as bugs or defects, are the source of failures in software. Testing and debugging are both used to detect and correct faults in software. Testing is the process of evaluating a system or its component(s) with the intent to find defects. Debugging is the process of identifying and resolving defects or problems in a computer program. Together, testing and debugging help to ensure that software is functioning correctly and is free of defects before it is released to users.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To delete the explicit throw of NullPointerException in the Min program, you would need to remove the following line:
-if (result == null) throw new NullPointerException ("Min.min");
-After removing this line, the JUnit test for a list with a single null element would likely fail because the program would not have any way of handling a null element in the list. Without this line, the program would continue to run and compare the null element to the other elements in the list, resulting in a NullPointerException being thrown at runtime.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The non-syntactic flaw in this test method is that it does not set up the proper initial state for the test. Specifically, it does not initialize the names object or give it any values before calling the sort() method. This means that the test is not repeatable and will not be able to detect any bugs in the sort() method. Additionally, the test does not verify that the sort() method has any effect on the order of the elements in the names object. It only checks that the first element is "Alex" after the sort() method has been called, which might not be the expected outcome.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Here is an example of how the problem with the Point class from Chapter 1 can be demonstrated using a HashSet:
 ```
 import java.util.HashSet;
@@ -3794,37 +3518,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">It depends on the specific implementation of the theory and the methods being used. In general, replacing a set with a list in the theory would likely result in the theory being invalid, as the behavior of sets and lists are different in Java. Sets are designed to not allow duplicate elements, while lists can have duplicate elements. This would change the behavior of the methods being tested and could cause the theory to fail.
-As for the number of tests that pass the precondition and also pass the postcondition, it would depend on the specific implementation of the theory and the methods being used. Without more information, it is not possible to determine how many tests would pass both the precondition and postcondition.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Step by step answer.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Better than book solution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Step by step answer.
 Better than book solution  </t>
   </si>
@@ -3844,13 +3537,19 @@
   <si>
     <t xml:space="preserve">(b) No, T2 does not necessarily satisfy C1. The fact that T2 satisfies C2, which is subsumed by C1, means that T2 meets the requirements of C2 but it does not mean that T2 meets all the requirements of C1. T2 may not include test cases that are necessary to satisfy C1, and it may include test cases that are not necessary to satisfy C1. Therefore, additional test cases may be needed to confirm that T2 also satisfies C1.
 </t>
+  </si>
+  <si>
+    <t>Confidence.1</t>
+  </si>
+  <si>
+    <t>Confidence.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3886,13 +3585,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4336,10 +4028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4364,20 +4056,20 @@
     <col min="18" max="18" width="60.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="14.1640625" style="1" customWidth="1"/>
     <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.83203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="71.33203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="78.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" style="1" customWidth="1"/>
-    <col min="30" max="32" width="8.83203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="8.83203125" style="1"/>
+    <col min="21" max="22" width="12.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="71.33203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="78.83203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.83203125" style="1" customWidth="1"/>
+    <col min="31" max="33" width="8.83203125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4403,7 +4095,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
@@ -4441,34 +4133,37 @@
       <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="W1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -4480,7 +4175,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -4489,10 +4184,10 @@
         <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -4504,7 +4199,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -4521,28 +4216,28 @@
       <c r="T2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -4554,7 +4249,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -4566,7 +4261,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -4578,7 +4273,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -4595,28 +4290,28 @@
       <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -4628,7 +4323,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -4637,7 +4332,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -4649,7 +4344,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -4666,28 +4361,28 @@
       <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AB4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -4699,7 +4394,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
@@ -4708,10 +4403,10 @@
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
@@ -4726,7 +4421,7 @@
         <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>43</v>
@@ -4743,28 +4438,28 @@
       <c r="T5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -4776,7 +4471,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -4785,10 +4480,10 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -4800,7 +4495,7 @@
         <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>40</v>
@@ -4817,28 +4512,28 @@
       <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="X6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4850,7 +4545,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -4859,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -4871,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>46</v>
@@ -4891,28 +4586,28 @@
       <c r="U7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -4924,7 +4619,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>40</v>
@@ -4933,10 +4628,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>76</v>
@@ -4948,7 +4643,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
@@ -4968,28 +4663,28 @@
       <c r="U8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="X8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -5001,7 +4696,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -5010,10 +4705,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>80</v>
@@ -5025,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>40</v>
@@ -5045,28 +4740,28 @@
       <c r="U9" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="X9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -5078,19 +4773,19 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>323</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>85</v>
@@ -5102,7 +4797,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>341</v>
+        <v>315</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -5119,28 +4814,28 @@
       <c r="T10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AA10" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AB10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -5152,7 +4847,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>43</v>
@@ -5161,10 +4856,10 @@
         <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>89</v>
@@ -5176,7 +4871,7 @@
         <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>342</v>
+        <v>316</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>40</v>
@@ -5193,28 +4888,28 @@
       <c r="T11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="1" t="s">
+      <c r="W11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="X11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -5226,7 +4921,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -5235,10 +4930,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>94</v>
@@ -5253,7 +4948,7 @@
         <v>93</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>40</v>
@@ -5276,34 +4971,34 @@
       <c r="U12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="X12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -5315,7 +5010,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -5324,10 +5019,10 @@
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>98</v>
@@ -5342,7 +5037,7 @@
         <v>93</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -5365,34 +5060,34 @@
       <c r="U13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="X13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA13" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -5404,7 +5099,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -5413,10 +5108,10 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>109</v>
@@ -5428,7 +5123,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -5445,28 +5140,28 @@
       <c r="T14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AA14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -5478,7 +5173,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
@@ -5487,10 +5182,10 @@
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>113</v>
@@ -5502,7 +5197,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>43</v>
@@ -5519,28 +5214,28 @@
       <c r="T15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="X15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -5552,7 +5247,7 @@
         <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
@@ -5561,10 +5256,10 @@
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>117</v>
@@ -5576,7 +5271,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>347</v>
+        <v>321</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>40</v>
@@ -5593,28 +5288,28 @@
       <c r="T16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AA16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -5626,7 +5321,7 @@
         <v>121</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>46</v>
@@ -5635,22 +5330,22 @@
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>348</v>
+        <v>322</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>46</v>
@@ -5659,45 +5354,45 @@
         <v>44</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="V17" s="1" t="s">
+      <c r="X17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="W17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AA17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC17" s="1" t="s">
-        <v>128</v>
-      </c>
     </row>
-    <row r="18" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -5709,7 +5404,7 @@
         <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>46</v>
@@ -5718,75 +5413,75 @@
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="V18" s="1" t="s">
+      <c r="X18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AB18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>130</v>
+        <v>40</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
@@ -5798,7 +5493,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
@@ -5807,87 +5502,87 @@
         <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="V19" s="1" t="s">
+      <c r="X19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="W19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>134</v>
+        <v>44</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>46</v>
@@ -5896,13 +5591,13 @@
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>43</v>
@@ -5911,10 +5606,10 @@
         <v>69</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>43</v>
@@ -5923,131 +5618,137 @@
         <v>69</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="X20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="W20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC20" s="1" t="s">
-        <v>142</v>
+      <c r="AD20" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>312</v>
+        <v>286</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V21" s="1" t="s">
+      <c r="X21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
@@ -6056,72 +5757,72 @@
         <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V22" s="1" t="s">
+      <c r="X22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="AB22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC22" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
@@ -6130,31 +5831,31 @@
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>46</v>
@@ -6162,117 +5863,117 @@
       <c r="T23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="AB23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC23" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V24" s="1" t="s">
+      <c r="X24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="W24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>166</v>
-      </c>
     </row>
-    <row r="25" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -6281,175 +5982,119 @@
         <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V25" s="1" t="s">
+      <c r="X25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="W25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>170</v>
+      <c r="AD25" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>2.1</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="R26" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="V26" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="W26" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="X26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V26" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="AB26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3.4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="M27"/>
-      <c r="N27" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>43</v>
@@ -6457,102 +6102,80 @@
       <c r="T27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U27"/>
-      <c r="V27" s="1" t="s">
-        <v>181</v>
+      <c r="V27" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y27"/>
-      <c r="Z27" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z27"/>
       <c r="AA27" s="1" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC27"/>
+        <v>43</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD27"/>
     </row>
-    <row r="28" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>3.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
       <c r="M28"/>
-      <c r="N28" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
       <c r="Q28"/>
       <c r="R28" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U28"/>
-      <c r="V28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y28"/>
-      <c r="Z28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA28" s="3" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z28"/>
+      <c r="AA28" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC28"/>
+        <v>43</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD28"/>
     </row>
-    <row r="29" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>3.9</v>
       </c>
@@ -6560,13 +6183,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>43</v>
@@ -6575,10 +6198,10 @@
         <v>44</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>43</v>
@@ -6588,7 +6211,7 @@
       </c>
       <c r="M29"/>
       <c r="N29" s="1" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>43</v>
@@ -6598,7 +6221,7 @@
       </c>
       <c r="Q29"/>
       <c r="R29" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>43</v>
@@ -6607,28 +6230,29 @@
         <v>44</v>
       </c>
       <c r="U29"/>
-      <c r="V29" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>43</v>
+      <c r="V29"/>
+      <c r="W29" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y29"/>
-      <c r="Z29" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29"/>
+      <c r="AA29" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC29"/>
+        <v>43</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD29"/>
     </row>
-    <row r="30" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>3.9</v>
       </c>
@@ -6636,25 +6260,25 @@
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>43</v>
@@ -6664,7 +6288,7 @@
       </c>
       <c r="M30"/>
       <c r="N30" s="1" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>43</v>
@@ -6674,7 +6298,7 @@
       </c>
       <c r="Q30"/>
       <c r="R30" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>43</v>
@@ -6683,28 +6307,29 @@
         <v>44</v>
       </c>
       <c r="U30"/>
-      <c r="V30" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="V30"/>
       <c r="W30" s="1" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="X30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y30"/>
-      <c r="Z30" s="1" t="s">
-        <v>200</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z30"/>
       <c r="AA30" s="1" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC30"/>
+        <v>43</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD30"/>
     </row>
-    <row r="31" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>3.9</v>
       </c>
@@ -6712,13 +6337,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>43</v>
@@ -6727,10 +6352,10 @@
         <v>44</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>43</v>
@@ -6740,7 +6365,7 @@
       </c>
       <c r="M31"/>
       <c r="N31" s="1" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>43</v>
@@ -6750,7 +6375,7 @@
       </c>
       <c r="Q31"/>
       <c r="R31" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>43</v>
@@ -6759,28 +6384,29 @@
         <v>44</v>
       </c>
       <c r="U31"/>
-      <c r="V31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>43</v>
+      <c r="V31"/>
+      <c r="W31" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="X31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y31"/>
-      <c r="Z31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA31" s="3" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z31"/>
+      <c r="AA31" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="AB31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC31"/>
+        <v>43</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD31"/>
     </row>
-    <row r="32" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>3.9</v>
       </c>
@@ -6788,13 +6414,13 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>43</v>
@@ -6803,10 +6429,10 @@
         <v>44</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>43</v>
@@ -6816,7 +6442,7 @@
       </c>
       <c r="M32"/>
       <c r="N32" s="1" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>43</v>
@@ -6826,7 +6452,7 @@
       </c>
       <c r="Q32"/>
       <c r="R32" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>43</v>
@@ -6835,28 +6461,29 @@
         <v>44</v>
       </c>
       <c r="U32"/>
-      <c r="V32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="W32" s="3" t="s">
-        <v>43</v>
+      <c r="V32"/>
+      <c r="W32" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y32"/>
-      <c r="Z32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z32"/>
+      <c r="AA32" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="AB32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC32"/>
+        <v>43</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD32"/>
     </row>
-    <row r="33" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>3.9</v>
       </c>
@@ -6864,13 +6491,13 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
@@ -6879,13 +6506,13 @@
         <v>69</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>46</v>
@@ -6894,10 +6521,10 @@
         <v>69</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>46</v>
@@ -6906,10 +6533,10 @@
         <v>69</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>46</v>
@@ -6918,161 +6545,95 @@
         <v>69</v>
       </c>
       <c r="U33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="X33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+      <c r="R34" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U34" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V34" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="W34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC33" s="3" t="s">
-        <v>212</v>
+      <c r="X34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD34" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>276</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="I35" s="6"/>
       <c r="R35" s="1" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>43</v>
@@ -7080,79 +6641,48 @@
       <c r="T35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U35" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>279</v>
+      <c r="V35" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="X35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>270</v>
+        <v>44</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="AA35" s="1" t="s">
-        <v>43</v>
+        <v>217</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC35" s="1" t="s">
-        <v>269</v>
+        <v>44</v>
+      </c>
+      <c r="AD35" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="408" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="408" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>4.2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
       <c r="R36" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>43</v>
@@ -7160,159 +6690,94 @@
       <c r="T36" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>234</v>
+      <c r="U36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="X36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AA36" s="3" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="AB36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC36" s="1" t="s">
-        <v>271</v>
+        <v>43</v>
+      </c>
+      <c r="AC36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD36" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>4.3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K37" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="R37" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="V37" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="O37" s="3" t="s">
+      <c r="Y37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA37" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="T37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AA37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>272</v>
+      <c r="AC37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="I38" s="6"/>
       <c r="R38" s="1" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>40</v>
@@ -7321,117 +6786,85 @@
         <v>41</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>40</v>
+        <v>250</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z38" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA38" s="1" t="s">
+        <v>227</v>
       </c>
       <c r="AB38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>274</v>
+        <v>41</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="404" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>4.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="N39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="R39" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="O39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="R39" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="V39" s="1" t="s">
-        <v>253</v>
+      <c r="V39" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>40</v>
+        <v>251</v>
+      </c>
+      <c r="AA39" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="AB39" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC39" s="3" t="s">
-        <v>275</v>
+        <v>41</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -7439,13 +6872,13 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
@@ -7454,13 +6887,13 @@
         <v>41</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>46</v>
@@ -7469,10 +6902,10 @@
         <v>41</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>46</v>
@@ -7481,10 +6914,10 @@
         <v>41</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
@@ -7493,34 +6926,34 @@
         <v>41</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="V40" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="W40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="X40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="X40" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="Y40" s="1" t="s">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AA40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AB40" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="AC40" s="1" t="s">
-        <v>277</v>
+        <v>41</v>
+      </c>
+      <c r="AD40" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>5.0999999999999996</v>
       </c>
@@ -7528,13 +6961,13 @@
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
@@ -7543,10 +6976,10 @@
         <v>44</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>46</v>
@@ -7555,10 +6988,10 @@
         <v>44</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>43</v>
@@ -7567,7 +7000,7 @@
         <v>44</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>43</v>
@@ -7575,27 +7008,28 @@
       <c r="T41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="W41" s="1" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="X41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>267</v>
+        <v>43</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>43</v>
+        <v>244</v>
       </c>
       <c r="AB41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A608AEB-A8A4-0D41-BE78-F68EEB4566E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7B339-46E6-BC4C-A21E-11A72115E7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32680" yWindow="-5860" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$F$1:$G$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$O$1:$P$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="344">
   <si>
     <t>id</t>
   </si>
@@ -1005,9 +1005,6 @@
 As for why this test case would not result in a failure, is because it's just a test case that check if the size of the TreeSet is 2, but the program is still running as expected and the program counter is not affected by it.</t>
   </si>
   <si>
-    <t>Explanation correct from the prespective that assumption about equality is not corrent to the tester</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 The first error state in the given code occurs when the `x` and `y` objects are added to the `BigDecimalTree` set. 
 The state of the program at this point is:
@@ -2450,9 +2447,6 @@
     <t>Understands what subsume means. But makes logical error in decision.</t>
   </si>
   <si>
-    <t>Does not say that C1 is stronger than C2</t>
-  </si>
-  <si>
     <t>I'm sorry, I am unable to submit printouts or screenshots as I am a text-based AI. However, I can guide you through the process of Test-Driven Development (TDD) for the Calc class.
 1. Create a failing test for subtraction: 
 ```
@@ -2531,14 +2525,6 @@
     <t>The test case x = [1, 2, 3, 4, 5, 0, 6, 7, 8, 9] will execute the fault of the original code, because the array contains a 0 at the last index, but the function will return the first 0 which is at index 0, so it will return 0 instead of 5.
 The reason why it will execute the fault is that the original code will always return the first occurrence of 0 in the array, regardless of whether or not there are additional occurrences of 0 later in the array. Since the last zero is not the first zero, the original code will return the wrong index.
 It will not result in an error state because the code doesn't throw any exceptions, it just returns the wrong index, so it will not crash the program, but it will produce incorrect results.</t>
-  </si>
-  <si>
-    <t>A test case that results in an error, but not a failure is passing a null value to the function as an argument, for example:
-Copy code
-lastZero(null);
-This will throw a NullPointerException because the code checks for a null value and throws an exception if the input array is null. This is an error because it indicates that something unexpected happened in the program, but it's not a failure because the program will not crash or halt, it will just throw an exception and the program can continue executing other lines of code after catching the exception.
-In this scenario, the program counter will point to the line where the exception is thrown and the execution of the program will be interrupted until the exception is handled or the program exits.
-It is worth noting that this error case is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.</t>
   </si>
   <si>
     <t>Treats error as exception/crash</t>
@@ -3543,6 +3529,23 @@
   </si>
   <si>
     <t>Confidence.2</t>
+  </si>
+  <si>
+    <t>A test case that results in an error, but not a failure is passing a null value to the function as an argument, for example:
+lastZero(null);
+This will throw a NullPointerException because the code checks for a null value and throws an exception if the input array is null. This is an error because it indicates that something unexpected happened in the program, but it's not a failure because the program will not crash or halt, it will just throw an exception and the program can continue executing other lines of code after catching the exception.
+In this scenario, the program counter will point to the line where the exception is thrown and the execution of the program will be interrupted until the exception is handled or the program exits.
+It is worth noting that this error case is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.</t>
+  </si>
+  <si>
+    <t>Explanation correct from the prespective that assumption about equality is not correct to the tester</t>
+  </si>
+  <si>
+    <t>Solution code is faulty.
+Detects test from the commented code</t>
+  </si>
+  <si>
+    <t>Solution code is faulty.</t>
   </si>
 </sst>
 </file>
@@ -4030,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4095,7 +4098,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>8</v>
@@ -4134,7 +4137,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>20</v>
@@ -4163,7 +4166,7 @@
     </row>
     <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -4175,19 +4178,19 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -4199,7 +4202,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -4214,7 +4217,10 @@
         <v>46</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>47</v>
@@ -4237,7 +4243,7 @@
     </row>
     <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -4249,7 +4255,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -4261,7 +4267,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -4273,7 +4279,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -4311,7 +4317,7 @@
     </row>
     <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -4323,7 +4329,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -4332,7 +4338,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -4344,7 +4350,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -4382,7 +4388,7 @@
     </row>
     <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -4394,19 +4400,19 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>265</v>
+        <v>340</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
@@ -4421,7 +4427,7 @@
         <v>60</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>43</v>
@@ -4459,7 +4465,7 @@
     </row>
     <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -4471,7 +4477,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -4480,10 +4486,10 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>64</v>
@@ -4495,7 +4501,7 @@
         <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>40</v>
@@ -4533,7 +4539,7 @@
     </row>
     <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4545,7 +4551,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>43</v>
@@ -4554,7 +4560,7 @@
         <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>68</v>
@@ -4566,7 +4572,7 @@
         <v>44</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>46</v>
@@ -4607,7 +4613,7 @@
     </row>
     <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -4619,7 +4625,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>40</v>
@@ -4628,10 +4634,10 @@
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>76</v>
@@ -4643,7 +4649,7 @@
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>40</v>
@@ -4684,7 +4690,7 @@
     </row>
     <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
@@ -4696,7 +4702,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -4705,10 +4711,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>80</v>
@@ -4720,7 +4726,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>40</v>
@@ -4761,7 +4767,7 @@
     </row>
     <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -4773,7 +4779,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>40</v>
@@ -4782,10 +4788,10 @@
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>85</v>
@@ -4797,7 +4803,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -4835,7 +4841,7 @@
     </row>
     <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -4847,19 +4853,19 @@
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>89</v>
@@ -4868,16 +4874,16 @@
         <v>40</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>90</v>
@@ -4909,7 +4915,7 @@
     </row>
     <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -4921,7 +4927,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -4930,10 +4936,10 @@
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>94</v>
@@ -4948,7 +4954,7 @@
         <v>93</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>40</v>
@@ -4998,7 +5004,7 @@
     </row>
     <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
@@ -5010,7 +5016,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -5019,10 +5025,10 @@
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>98</v>
@@ -5037,7 +5043,7 @@
         <v>93</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -5087,7 +5093,7 @@
     </row>
     <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -5099,7 +5105,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -5108,10 +5114,10 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>109</v>
@@ -5123,7 +5129,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
@@ -5173,7 +5179,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>43</v>
@@ -5182,10 +5188,10 @@
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>113</v>
@@ -5197,7 +5203,7 @@
         <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>43</v>
@@ -5235,7 +5241,7 @@
     </row>
     <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
@@ -5247,7 +5253,7 @@
         <v>104</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
@@ -5256,10 +5262,10 @@
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>117</v>
@@ -5271,7 +5277,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>40</v>
@@ -5295,7 +5301,7 @@
         <v>46</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>120</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
@@ -5321,19 +5327,19 @@
         <v>121</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>122</v>
@@ -5342,10 +5348,10 @@
         <v>40</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>46</v>
@@ -5363,7 +5369,7 @@
         <v>40</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>125</v>
@@ -5384,15 +5390,15 @@
         <v>43</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>127</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
@@ -5404,7 +5410,7 @@
         <v>106</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>46</v>
@@ -5413,62 +5419,62 @@
         <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="W18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA18" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="AB18" s="3" t="s">
         <v>40</v>
       </c>
@@ -5476,12 +5482,12 @@
         <v>41</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
@@ -5493,7 +5499,7 @@
         <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
@@ -5502,62 +5508,62 @@
         <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="X19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AB19" s="1" t="s">
         <v>43</v>
       </c>
@@ -5565,24 +5571,24 @@
         <v>44</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>46</v>
@@ -5591,13 +5597,13 @@
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>43</v>
@@ -5606,10 +5612,10 @@
         <v>69</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>43</v>
@@ -5618,22 +5624,22 @@
         <v>69</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>43</v>
@@ -5642,10 +5648,10 @@
         <v>69</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>43</v>
@@ -5654,24 +5660,24 @@
         <v>69</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -5680,40 +5686,40 @@
         <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W21" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>46</v>
@@ -5722,10 +5728,10 @@
         <v>41</v>
       </c>
       <c r="Z21" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA21" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>43</v>
@@ -5736,19 +5742,19 @@
     </row>
     <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
@@ -5757,49 +5763,49 @@
         <v>41</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>40</v>
@@ -5810,19 +5816,19 @@
     </row>
     <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
@@ -5831,31 +5837,31 @@
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>46</v>
@@ -5864,16 +5870,16 @@
         <v>41</v>
       </c>
       <c r="W23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -5884,96 +5890,96 @@
     </row>
     <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -5982,40 +5988,40 @@
         <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W25" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W25" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>46</v>
@@ -6024,10 +6030,10 @@
         <v>69</v>
       </c>
       <c r="Z25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>43</v>
@@ -6036,7 +6042,7 @@
         <v>69</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6044,11 +6050,11 @@
         <v>2.1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I26" s="6"/>
       <c r="R26" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>43</v>
@@ -6057,22 +6063,22 @@
         <v>44</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="W26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA26" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>43</v>
@@ -6086,15 +6092,15 @@
         <v>3.4</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="M27"/>
       <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>43</v>
@@ -6103,10 +6109,10 @@
         <v>44</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>43</v>
@@ -6116,7 +6122,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>43</v>
@@ -6131,10 +6137,10 @@
         <v>3.5</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -6143,19 +6149,19 @@
       <c r="P28" s="3"/>
       <c r="Q28"/>
       <c r="R28" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V28" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="W28" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V28" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="X28" s="3" t="s">
         <v>43</v>
@@ -6165,7 +6171,7 @@
       </c>
       <c r="Z28"/>
       <c r="AA28" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AB28" s="3" t="s">
         <v>43</v>
@@ -6183,25 +6189,25 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>43</v>
@@ -6211,7 +6217,7 @@
       </c>
       <c r="M29"/>
       <c r="N29" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>43</v>
@@ -6221,7 +6227,7 @@
       </c>
       <c r="Q29"/>
       <c r="R29" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>43</v>
@@ -6232,7 +6238,7 @@
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>43</v>
@@ -6242,7 +6248,7 @@
       </c>
       <c r="Z29"/>
       <c r="AA29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>43</v>
@@ -6260,25 +6266,25 @@
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>43</v>
@@ -6288,7 +6294,7 @@
       </c>
       <c r="M30"/>
       <c r="N30" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>43</v>
@@ -6298,7 +6304,7 @@
       </c>
       <c r="Q30"/>
       <c r="R30" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>43</v>
@@ -6309,7 +6315,7 @@
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>43</v>
@@ -6319,7 +6325,7 @@
       </c>
       <c r="Z30"/>
       <c r="AA30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>43</v>
@@ -6337,25 +6343,25 @@
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>43</v>
@@ -6365,7 +6371,7 @@
       </c>
       <c r="M31"/>
       <c r="N31" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>43</v>
@@ -6375,7 +6381,7 @@
       </c>
       <c r="Q31"/>
       <c r="R31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>43</v>
@@ -6386,7 +6392,7 @@
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X31" s="3" t="s">
         <v>43</v>
@@ -6396,7 +6402,7 @@
       </c>
       <c r="Z31"/>
       <c r="AA31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AB31" s="3" t="s">
         <v>43</v>
@@ -6414,25 +6420,25 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>43</v>
@@ -6442,7 +6448,7 @@
       </c>
       <c r="M32"/>
       <c r="N32" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>43</v>
@@ -6452,7 +6458,7 @@
       </c>
       <c r="Q32"/>
       <c r="R32" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>43</v>
@@ -6463,7 +6469,7 @@
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X32" s="3" t="s">
         <v>43</v>
@@ -6473,7 +6479,7 @@
       </c>
       <c r="Z32"/>
       <c r="AA32" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AB32" s="3" t="s">
         <v>43</v>
@@ -6491,13 +6497,13 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
@@ -6506,13 +6512,13 @@
         <v>69</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>46</v>
@@ -6521,10 +6527,10 @@
         <v>69</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>46</v>
@@ -6533,10 +6539,10 @@
         <v>69</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>46</v>
@@ -6545,10 +6551,10 @@
         <v>69</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X33" s="3" t="s">
         <v>46</v>
@@ -6557,10 +6563,10 @@
         <v>69</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB33" s="3" t="s">
         <v>46</v>
@@ -6569,20 +6575,20 @@
         <v>69</v>
       </c>
       <c r="AD33" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="R34" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>43</v>
@@ -6591,26 +6597,26 @@
         <v>44</v>
       </c>
       <c r="U34" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="X34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="AB34" s="1" t="s">
         <v>43</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>44</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
@@ -6626,39 +6632,39 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="I35" s="6"/>
       <c r="R35" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V35" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA35" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V35" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z35" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="AB35" s="1" t="s">
         <v>43</v>
       </c>
@@ -6666,7 +6672,7 @@
         <v>44</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="408" customHeight="1" x14ac:dyDescent="0.2">
@@ -6674,7 +6680,7 @@
         <v>4.2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="3"/>
@@ -6682,32 +6688,32 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="R36" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="V36" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="W36" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="S36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="W36" s="1" t="s">
+      <c r="X36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA36" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="X36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="AB36" s="3" t="s">
         <v>43</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>44</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
@@ -6723,13 +6729,13 @@
         <v>4.3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I37" s="6"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="R37" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
@@ -6738,13 +6744,13 @@
         <v>44</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>46</v>
@@ -6753,10 +6759,10 @@
         <v>41</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB37" s="3" t="s">
         <v>46</v>
@@ -6765,7 +6771,7 @@
         <v>41</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
@@ -6773,39 +6779,39 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I38" s="6"/>
       <c r="R38" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="V38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="W38" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="S38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U38" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="W38" s="1" t="s">
+      <c r="X38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA38" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="X38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA38" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="AB38" s="3" t="s">
         <v>40</v>
       </c>
@@ -6813,7 +6819,7 @@
         <v>41</v>
       </c>
       <c r="AD38" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="404" x14ac:dyDescent="0.2">
@@ -6821,39 +6827,39 @@
         <v>4.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I39" s="6"/>
       <c r="R39" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="V39" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="W39" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="S39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="W39" s="1" t="s">
+      <c r="X39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA39" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="X39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z39" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="AB39" s="3" t="s">
         <v>40</v>
       </c>
@@ -6861,7 +6867,7 @@
         <v>41</v>
       </c>
       <c r="AD39" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
@@ -6872,13 +6878,13 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
@@ -6887,13 +6893,13 @@
         <v>41</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>46</v>
@@ -6902,10 +6908,10 @@
         <v>41</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>46</v>
@@ -6914,10 +6920,10 @@
         <v>41</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
@@ -6926,10 +6932,10 @@
         <v>41</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>46</v>
@@ -6938,10 +6944,10 @@
         <v>41</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AA40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>46</v>
@@ -6950,7 +6956,7 @@
         <v>41</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
@@ -6961,64 +6967,61 @@
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="1" t="s">
+      <c r="S41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W41" s="1" t="s">
+      <c r="X41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA41" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>43</v>

--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A7B339-46E6-BC4C-A21E-11A72115E7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D7A3E3-AED6-2A45-84ED-EB975042F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="3" r:id="rId1"/>
+    <sheet name="confidence re-run" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$O$1:$P$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$T$1:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'confidence re-run'!$I$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="370">
   <si>
     <t>id</t>
   </si>
@@ -364,9 +364,6 @@
 </t>
   </si>
   <si>
-    <t>Could not find the case where every element occurs once</t>
-  </si>
-  <si>
     <t>This method does not have any potential test cases that would result in an error, but not a failure. The only exception thrown by the method is a `NullPointerException` which is thrown when the input array `x` is null. This exception is thrown before the program counter reaches any other lines of code in the method, so it would be considered a failure.
 Additionally, the implementation of the function is simple and doesn't have any logical error that could prevent it from returning the expected value. It will always return the last index of zero in the array or -1 if the zero is not present. If a test case is passed to this function it will successfully complete its execution by returning the value.
 It is possible that if the array is not of int type then the function would throw an exception but in the given implementation it is clearly mentioned that the input to the function is int array which eliminates this case as well.</t>
@@ -461,9 +458,6 @@
 ```
 Expected Output: `Last zero index: 6`
 If the output match the expectation, you can say that the solution is working fine and also can capture the output in some image and that can be your evidence of the solution working.</t>
-  </si>
-  <si>
-    <t>Although correct, It did not executed the commented test</t>
   </si>
   <si>
     <t>Here is the corrected version of the code that finds the last index of zero in the array:
@@ -525,9 +519,6 @@
 // test: x = [-3, -2, 0, 1, 4]; Expected = 3</t>
   </si>
   <si>
-    <t>Finds the correct issue but fails to give a fix for the code</t>
-  </si>
-  <si>
     <t xml:space="preserve">The given code correctly counts the number of elements in the input array that are either odd or positive. However, it does not properly handle the case where the input array is null, as it will throw a NullPointerException. To fix this, a null check should be added before the for loop to ensure that the input array is not null. Here is one possible modification:
 ```
 public static int oddOrPos (int[] x)
@@ -647,9 +638,6 @@
 It's worth noting that the function has a null check and throws NullPointerException if the input array is null, meaning that passing a null array will result in the fault in this case, which is desirable and expected.</t>
   </si>
   <si>
-    <t>Talks about the empty cases but misses the null case</t>
-  </si>
-  <si>
     <t>A test case that does not execute the fault would be an input array of all even and non-positive integers, such as [0, -2, -4, -6]. The method would return 0 as the count of elements in the array that are either odd or positive is 0.</t>
   </si>
   <si>
@@ -698,9 +686,6 @@
   </si>
   <si>
     <t>A test case that results in an error would be passing a null value for the parameter x, as the method throws a NullPointerException in this case. This is not a failure as the method is correctly handling the error condition by throwing an exception.</t>
-  </si>
-  <si>
-    <t>Did not talk about the commented test case</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -764,9 +749,6 @@
 ```if (x[i] % 2 != 0 || x[i] &gt; 0)``` 
 The current if statement check for x[i] &gt; 0 but in case the element is negative and even it will be considered as not odd or positive. But if we use above if statement it will take care of even positive numbers too.
 Please verify the output for the given test cases and consider it as a evidence for the new program working.</t>
-  </si>
-  <si>
-    <t>Finds a solution that the writer did not talk about</t>
   </si>
   <si>
     <t>I'm sorry, I am an AI language model and do not have the capability to execute code or take screenshots. However, based on the provided code, it looks like the function "oddOrPos" is counting the number of elements in the input array "x" that are either odd or positive. The given test case, where x = [-3, -2, 0, 1, 4], should return 3 as there are 3 elements (1, -2 and 4) that are either odd or positive in the array x. If this test case returns the expected output, then the function should be working correctly.</t>
@@ -959,11 +941,6 @@
 This test case demonstrates the inconsistency between equals() and compareTo() in the BigDecimal class, but it does not result in an error state as the program runs successfully.</t>
   </si>
   <si>
-    <t>In the given example, the problem is that the BigDecimal class's equals() and compareTo() methods are inconsistent. The code creates two BigDecimal objects, x and y, with the values "1.0" and "1.00" respectively. Even though x and y are not equal according to the equals() method (!x.equals(y)), the compareTo() method returns 0, indicating that they are equal.
-When these objects are added to a TreeSet, the set uses the compareTo() method to determine equality, so only one element is added to the set. However, when added to a HashSet, the set uses the equals() method, so both x and y are added to the set.
-A test case that executes this fault but does not result in an error state would be to create two BigDecimal objects with slightly different values, and add them to both a TreeSet and a HashSet. The output of the test would show that the TreeSet only has one element, while the HashSet has two elements, which would demonstrate the inconsistency between the equals() and compareTo() methods in the BigDecimal class.</t>
-  </si>
-  <si>
     <t>If possible, give a test case that results in an error, but not a failure. If not, briefly explain why not. Hint: Don’t forget about the program counter.</t>
   </si>
   <si>
@@ -986,9 +963,6 @@
 </t>
   </si>
   <si>
-    <t>Treats error equavalent to exception</t>
-  </si>
-  <si>
     <t>The code you've provided is an example of a class that demonstrates a problem with the `BigDecimal` class, specifically the inconsistency between its `equals()` and `compareTo()` methods. In this example, `x` and `y` are two `BigDecimal` objects that have the same value but are not considered equal by the `equals()` method. 
 The code creates two sets, `BigDecimalTree` and `BigDecimalHash`, both of which are initialized with the `x` and `y` values. However, because `TreeSet` uses the `compareTo()` method for ordering elements and determining uniqueness, and `HashSet` uses the `equals()` method, the two sets end up with different numbers of elements. 
 In order to demonstrate a case which result in an error, but not a failure one can try use BigDecimal to write a program that performs some computation and compares the results of the computation to an expected value. 
@@ -1015,9 +989,6 @@
 </t>
   </si>
   <si>
-    <t>Wrong assumption by chatGPT</t>
-  </si>
-  <si>
     <t>The first error state in the given code is that the `BigDecimalTree` Set only contains one element (1.0) instead of two (1.0 and 1.00) as expected. This is because the `TreeSet` class uses the `compareTo()` method to determine equality of elements, whereas the `BigDecimal` class has an inconsistent implementation of `compareTo()` and `equals()`, such that `x.compareTo(y) == 0` but `!x.equals(y)`. Since `x` and `y` are not considered equal according to `equals()`, they are both added to the `BigDecimalTree` Set, resulting in only one element in the set.</t>
   </si>
   <si>
@@ -1025,9 +996,6 @@
   </si>
   <si>
     <t>The first error state in the given code occurs when the elements x and y, which are instances of the BigDecimal class with the values "1.0" and "1.00" respectively, are added to the BigDecimalTree Set. Since the TreeSet uses the compareTo() method for comparison, the element y is considered equal to the element x and is not added to the set, resulting in the BigDecimalTree Set having only 1 element. This is an error state as the expected behavior is that the BigDecimalTree Set should have 2 elements, x and y, as they have different values.</t>
-  </si>
-  <si>
-    <t>Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1191,9 +1159,6 @@
 </t>
   </si>
   <si>
-    <t>There will be no valid code solution</t>
-  </si>
-  <si>
     <t>The class `ColorPoint` is a subclass of `Point`, and it extends the state of the `Point` class by adding a color field. However, the implementation of the `equals` method in the `ColorPoint` class fails to take this into account.
 In the `equals` method at Location B, it first checks if the object passed in is an instance of `ColorPoint` using the `instanceof` operator. If it is not, it immediately returns `false`. This means that a `Point` object and a `ColorPoint` object with the same x and y coordinates will be considered not equal, even though they should be.
 To fix this, the check at Location B should be modified to check if the passed in object is an instance of `Point` instead of `ColorPoint`. This way, a `Point` object and a `ColorPoint` object with the same x and y coordinates will be considered equal. Additionally, `ColorPoint` should override `hashCode` method if it also overrode `equals` to be compliant with general contract for `hashCode()` and `equals()`
@@ -1225,9 +1190,6 @@
 By doing this, `equals` would now correctly handle the case where it is passed an object of a superclass, and the above test cases would produce the expected results.</t>
   </si>
   <si>
-    <t>Talks about hashcode which the author missed</t>
-  </si>
-  <si>
     <t>The given code contains a fault in the implementation of the equals method in the ColorPoint class. The problem is that the subclass, ColorPoint, extends the state of the superclass, Point, by adding a color field, but it does not override the equals method of the superclass to take this additional state into account.
 To fix this fault, the equals method in the ColorPoint class should be modified to check if the objects being compared are instances of the same class, and then check the color field in addition to the x and y fields inherited from the Point class.
 A possible modification to the code would be:
@@ -1278,9 +1240,6 @@
 p1.equals(p2); // Result = true
 ```
 As you can see, this test case does not execute the fault because it does not involve any instances of the `ColorPoint` class.</t>
-  </si>
-  <si>
-    <t>Talks about the problem in both equals()</t>
   </si>
   <si>
     <t>The class ColorPoint extends Point, and adds the additional state of 'color'. The class overrides the equals method, but the implementation is faulty as it only compares the color state of the ColorPoint class, it does not consider the Point class' state of x and y. In the test cases, p.equals(cp1) returns true, but cp1.equals(p) returns false, and cp1.equals(cp2) also returns false, while they are expected to return true.
@@ -1382,9 +1341,6 @@
   <si>
     <t>The first error state in the given code is in the implementation of the `equals` method in the `ColorPoint` class. The implementation overrides the `equals` method inherited from the `Point` class, but it only returns `true` if the passed-in object is an instance of `ColorPoint` and if the color of the two objects match. This means that if an instance of `Point` is passed to the `equals` method of an instance of `ColorPoint`, the method will always return `false`, even if the x and y coordinates of the two points are the same. This violates the symmetric and transitive requirements of the `equals` method, as described in the `Object` class.
 Another error state in the given code is the class hierarchy, `ColorPoint` extends `Point` and `Point` is instantiable and the subclass state is extended by adding `color` attribute. This design decision can lead to many issues like tests 1 and 2 returning different results, whereas they should return the same results.</t>
-  </si>
-  <si>
-    <t>Also talks about design perspective</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1483,9 +1439,6 @@
 I hope this helps!</t>
   </si>
   <si>
-    <t>Talks about composition indirectly</t>
-  </si>
-  <si>
     <t>The class Point defines a simple class that represents a point in 2D space. It has two private instance variables, x and y, that represent the x and y coordinates of the point. The class has a constructor that initializes these variables and an equals method that compares the x and y coordinates of this point with another point object.
 The class ColorPoint is a subclass of Point. It extends the state of the Point class by adding a private instance variable, color, that represents the color of the point. The class has a constructor that calls the constructor of the superclass and initializes the color variable. It also overrides the equals method of the superclass to include a comparison of the color instance variable in addition to the x and y coordinates.
 The fault in this class hierarchy is that the equals method in the ColorPoint class does not properly handle the case when it is passed a Point object instead of a ColorPoint object. The current implementation returns false in that case, which is incorrect. The expected behavior is that the equals method should return true when a Point object and a ColorPoint object have the same x and y coordinates, regardless of the color of the ColorPoint object.
@@ -1943,9 +1896,6 @@
     <t>Rewrite your JUnit test as an appropriate JUnit theory. Evaluate it with suitable DataPoints.</t>
   </si>
   <si>
-    <t>Does not consider null points, non-point objects</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Here is an example of the JUnit test from (c) rewritten as a JUnit theory using appropriate DataPoints:
 ```java
@@ -2069,9 +2019,6 @@
     <t>Replace each occurrence of a set with a list in the JUnit theory removeThenAddDoesNotChangeSet. Is the resulting theory valid or invalid? How many of the tests that pass the precondition also pass the postcondition? Explain.</t>
   </si>
   <si>
-    <t>Question does not provide enough context to answer</t>
-  </si>
-  <si>
     <t>It is not possible to determine if the resulting theory is valid or invalid without more information on the specific implementation of the JUnit theory "removeThenAddDoesNotChangeSet." 
 In order to determine if the tests pass the precondition and postcondition, one would need to see the specific test cases being run and the expected results.
 In general, replacing a set with a list in a JUnit theory could change the behavior of the tests, as sets and lists have different characteristics and methods. Sets do not allow duplicate elements and have no defined order, while lists do allow duplicate elements and have a defined order. This means that the tests would have to be re-written or adapted to account for these differences, and it's possible that the original tests would no longer pass the precondition or postcondition.</t>
@@ -2397,53 +2344,6 @@
 </t>
   </si>
   <si>
-    <t>Just says screenshot is not available.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Handles division by zero
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Book Solution do not say anything about division by zero</t>
-    </r>
-  </si>
-  <si>
-    <t>Detailed instruction for travis CI</t>
-  </si>
-  <si>
-    <t>Partially correct because it explains the necessary steps to build the CI sever first.
-Does not talk about static analysis or code coverage</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Partially correct because it explains the necessary steps to build the CI sever first.
-Does not talk about static analysis or code coverage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Incomplete response</t>
-    </r>
-  </si>
-  <si>
-    <t>Did not find any project.
-Just talked about the general steps.
-Expected code</t>
-  </si>
-  <si>
-    <t>Does not demonstrate any faulty code or any failed test</t>
-  </si>
-  <si>
     <t>Understands what subsume means. But makes logical error in decision.</t>
   </si>
   <si>
@@ -2528,19 +2428,6 @@
   </si>
   <si>
     <t>Treats error as exception/crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first error state for the test case where a null value is passed to the function as an argument, for example:
-Copy code
-lastZero(null);
-The error state is a NullPointerException being thrown. This error state occurs when the code attempts to access elements of the input array, but the array is null, so the program throws an exception.
-The complete state of the error would be:
-The program counter is pointing at the line where the exception is thrown
-The exception message is "null"
-The stack trace will show the method lastZero(int[] x) as the location where the exception occurred
-The program continues to execute other lines of code after catching the exception, if it is handled properly.
-It is worth noting that this error state is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.
-</t>
   </si>
   <si>
     <t xml:space="preserve">As I mentioned previously, there are multiple ways to fix the original code and make it work as expected. But, I will show one possible way to fix the original code and make it return the last index of zero.
@@ -2599,90 +2486,8 @@
 In this case, the program will stop execution when the exception is thrown, hence it is not possible to have a test case that results in an error but not a failure.</t>
   </si>
   <si>
-    <t>The given test case is:
-Copy code
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-assert result == 3;
-In this test case, the first error state would not occur because the input array x is non-null. The method implementation includes a null check to check if the input array is null or not, if it is null it will throw a NullPointerException. Since the input array is non-null, the method will execute as expected and the first error state will not occur.
-It is worth noting that the test case also includes an assertion that compares the returned result from the method with the expected value of 3, if the returned value is not 3 it will result in an assertion error and the program will stop execution.</t>
-  </si>
-  <si>
     <t>Treats error as exception/crash
 Detects test from the commented code</t>
-  </si>
-  <si>
-    <t>Here is an implementation of the repaired code that includes a null check for the input array:
-Copy code
-public static int oddOrPos (int[] x) {
-      if (x == null) {
-         throw new NullPointerException("Input array cannot be null");
-      }
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++) {
-         if (x[i]%2 == 1 || x[i] &gt; 0) {
-            count++;
-         }
-      }
-      return count;
-   }
-And here is the test case that verifies that the given test now produces the expected output:
-Copy code
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-assert result == 3;
-As you can see, the method now includes a null check for the input array, which will ensure that the method will throw a NullPointerException if a null array is passed as an input. The test case that is provided will pass as the input array is non-null and the expected output is 3 which is being asserted against the returned result.
-In addition, if you are running this code on a Java development environment such as eclipse, it will give you a message that the test passed and you can see it on the console.</t>
-  </si>
-  <si>
-    <t>The given code uses the BigDecimal class, which has an inconsistency between its equals() and compareTo() methods. Specifically, x.equals(y) returns false, but x.compareTo(y) returns 0, indicating that they are equal. This inconsistency causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
-In the given code, a TreeSet is created and both x and y are added to it. Since TreeSet uses the compareTo() method for ordering and comparison, the two BigDecimal objects are considered equal and only one element is added to the set. On the other hand, a HashSet is created and both x and y are added to it. Since HashSet uses the equals() method for comparison, the two BigDecimal objects are considered different and both are added to the set.
-To fix this fault, one approach would be to override the equals() method in the BigDecimal class to use the compareTo() method instead. Alternatively, a custom comparator that uses the compareTo() method could be provided when creating the TreeSet and HashSet collections.
-For example:
-Copy code
-public class BigDecimalTest {
-    BigDecimal x = new BigDecimal ("1.0");
-    BigDecimal y = new BigDecimal ("1.00");
-    //override equals method
-    @Override
-    public boolean equals(Object obj) {
-        if(obj instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) obj) == 0;
-        }
-        return false;
-    }
-    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
-    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-    BigDecimalTree.add (x);
-    BigDecimalTree.add (y);
-    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
-    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-    BigDecimalHash.add (x);
-    BigDecimalHash.add (y);
-    // HashSet uses equals(), so BigDecimalHash will now have 1 element
-    }
-    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
-    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
-    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
-    // See Java Doc for add() in Set Interface
-This modification will ensure that the equals() method will return true when comparing x and y and fix the inconsistency between equals() and compareTo() methods in the BigDecimal class.</t>
-  </si>
-  <si>
-    <t>It is not possible to give a test case that does not execute the fault because the fault is inherent in the way that the BigDecimal class is implemented. The equals() and compareTo() methods in the BigDecimal class return different results for certain values, which causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
-However, once the equals method is overriden as described in (a) with the compareTo method, the test case will be successful.
-For example:
-Copy code
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-BigDecimalTree.add (x);
-BigDecimalTree.add (y);
-assertEquals(1,BigDecimalTree.size());
-Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-BigDecimalHash.add (x);
-BigDecimalHash.add (y);
-assertEquals(1,BigDecimalHash.size());
-In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.</t>
   </si>
   <si>
     <t>It is possible to give a test case that executes the fault, but does not result in an error state.
@@ -2714,53 +2519,6 @@
 The program runs without crashing, but the output is not what is expected. This is a failure but not an error.</t>
   </si>
   <si>
-    <t>Did not talk about the exact line
-Treats error as exception/crash</t>
-  </si>
-  <si>
-    <t>As I mentioned before, one approach to repair the fault in the code is to override the equals() method in the BigDecimal class to use the compareTo() method instead.
-Here is the modified code:
-Copy code
-public class BigDecimalTest {
-    BigDecimal x = new BigDecimal ("1.0");
-    BigDecimal y = new BigDecimal ("1.00");
-    //override equals method
-    @Override
-    public boolean equals(Object obj) {
-        if(obj instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) obj) == 0;
-        }
-        return false;
-    }
-    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
-    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-    BigDecimalTree.add (x);
-    BigDecimalTree.add (y);
-    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
-    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-    BigDecimalHash.add (x);
-    BigDecimalHash.add (y);
-    // HashSet uses equals(), so BigDecimalHash will now have 1 element
-    }
-    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
-    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
-    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
-With this modification, the test case that was provided will now produce the expected output.
-Copy code
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-BigDecimalTree.add (x);
-BigDecimalTree.add (y);
-assertEquals(1,BigDecimalTree.size());
-Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-BigDecimalHash.add (x);
-BigDecimalHash.add (y);
-assertEquals(1,BigDecimalHash.size());
-In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.
-I apologize but as a language model AI I am not able to provide you with a screenshot or any other evidence, but you can run the code and see that it works as expected.</t>
-  </si>
-  <si>
     <t>Detects test from the commented code
 Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
   </si>
@@ -2786,19 +2544,6 @@
 ColorPoint cp1 = new ColorPoint (1,2,RED);
 p.equals (cp1);
 the fault will still be executed since the equals method in ColorPoint class does not check for equality of color field and it will return false.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is possible to give a test case that executes the fault but does not result in an error state.
-For example, the following test case:
-Copy code
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-This test case will execute the fault because the equals method in the ColorPoint class does not properly check for equality of all relevant fields, including the color field, when comparing ColorPoint objects. However, it does not result in an error state because the result of the comparison is true.
-This is because the equals method of Point class is being used to compare the Point and ColorPoint object, it checks for equality of x and y fields and hence the comparison returns true.
-Even though this test case does not result in an error state, it is still problematic because it can lead to unexpected behavior and bugs in the program, as it is returning true when it should be false.
-</t>
   </si>
   <si>
     <t>Detects test from the commented code
@@ -2842,9 +2587,6 @@
   <si>
     <t xml:space="preserve">Detects test from the commented code
 </t>
-  </si>
-  <si>
-    <t>As a language model, I do not have the ability to have personal experience or emotions, so I can not assign confidence levels. However, My answer is based on the information that I have been trained on and the information provided is considered accurate and reliable.</t>
   </si>
   <si>
     <t>Reliable</t>
@@ -2969,45 +2711,9 @@
 It's important to remember that this is just one way to test the contract between equals() and hashCode() using JUnit theory and different scenarios might require different test cases.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Did not check null points or points with similar values</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Lacks testing knowledge</t>
-    </r>
-  </si>
-  <si>
     <t>It depends on the specific implementation of the JUnit theory "removeThenAddDoesNotChangeSet" and how it handles sets and lists. If the theory is written in a way that only uses the basic properties of sets (i.e. unique elements and no order) and does not rely on the specific implementation of sets, then replacing each occurrence of a set with a list should not affect the validity of the theory. However, if the theory is written in a way that relies on the specific implementation of sets (for example, if it uses set-specific methods like set.size()), then replacing each occurrence of a set with a list would likely make the theory invalid.
 As for the number of tests that pass the precondition and postcondition, it would also depend on the specific implementation of the theory and the specific sets and lists being used in the tests. If the precondition and postcondition only depend on the basic properties of sets, then the number of tests that pass should not be affected by the replacement of sets with lists. However, if the precondition and postcondition depend on the specific implementation of sets, then the number of tests that pass may be affected.
 In summary, it is not possible to say whether the resulting theory is valid or invalid and how many of the tests that pass the precondition also pass the postcondition without more information about the specific implementation of the theory and the specific sets and lists being used in the tests.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Not enough context was given.
-Still provides a generalized process
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Says could be more confident if additional context were given</t>
-    </r>
   </si>
   <si>
     <t>3.10'</t>
@@ -3504,10 +3210,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Step by step answer.
-Better than book solution  </t>
-  </si>
-  <si>
     <t xml:space="preserve">To extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool, you would need to integrate these tools into the continuous integration pipeline. This can typically be done by configuring the CI server to run the tools as part of the build process, or by using a plugin or extension that integrates the tools directly into the CI server.
 For example, to add code coverage, you would need to configure the CI server to run a code coverage tool such as JaCoCo or Cobertura during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the code coverage tool enabled.
 To add static analysis, you would need to configure the CI server to run a static analysis tool such as SonarQube or Checkstyle during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the static analysis tool enabled.
@@ -3515,9 +3217,6 @@
 </t>
   </si>
   <si>
-    <t>Suggests specific tools for code coverage &amp; static analysis</t>
-  </si>
-  <si>
     <t>(a) T1 may or may not satisfy C2. The fact that T1 satisfies C1, which subsumes C2, means that C1 is a more comprehensive criterion that includes all of the requirements of C2. However, it does not guarantee that T1 will also satisfy C2. T1 may include test cases that are not necessary to satisfy C2, and it may not include test cases that are necessary to satisfy C2. Therefore, additional test cases may be needed to confirm that T1 also satisfies C2.</t>
   </si>
   <si>
@@ -3538,21 +3237,1034 @@
 It is worth noting that this error case is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.</t>
   </si>
   <si>
-    <t>Explanation correct from the prespective that assumption about equality is not correct to the tester</t>
-  </si>
-  <si>
     <t>Solution code is faulty.
 Detects test from the commented code</t>
   </si>
   <si>
-    <t>Solution code is faulty.</t>
+    <t>APC sounds more appropriate here. The chatgpt solution looks correct except for the Point vs. Object parameter type. The solution is correct that Object is likely better but JUnit theory test and DataPoints otherwise look okay in ChatGPT's answer. (ChatGPT's answer should have perhaps included null too though)</t>
+  </si>
+  <si>
+    <t>APC or AIC?
+Did not talk about the exact line
+Treats error as exception/crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given code is expected to find the index of the last occurrence of 0 in the input array 'x'. However, it always returns the index of the first occurrence of 0 in the array because the loop terminates as soon as it finds the first occurrence of 0 and returns its index.
+To fix the code, we need to modify the loop to continue searching for 0 until the end of the array and keep track of the last index of 0 found. Here's one way to modify the code:
+public static int lastZero(int[] x) {
+    int lastIndex = -1;
+    for (int i = 0; i &lt; x.length; i++) {
+        if (x[i] == 0) {
+            lastIndex = i;
+        }
+    }
+    return lastIndex;
+}
+In the modified code, we initialize 'lastIndex' to -1 and update it every time we encounter a 0 in the array. Finally, we return the 'lastIndex' as the index of the last occurrence of 0 in the array. If no 0 is found in the array, the function returns -1.
+</t>
+  </si>
+  <si>
+    <t>logically correct</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that does not execute the fault in the original code because it always returns the index of the first occurrence of 0 in the array, even if there are multiple zeros present in the array. The only case where the original code works correctly is when there is only one 0 in the array, and it is the last element in the array.
+However, the modified code that I proposed in the previous answer should work correctly for all test cases, including cases with multiple zeros and zeros that appear in the middle of the array. For example, consider the following test case:
+int[] x = {1, 0, 2, 0, 3, 0};
+int expected = 5;
+int actual = lastZero(x);
+assertEquals(expected, actual);
+This test case has three zeros in the input array, with the last 0 appearing at index 5. The modified code should correctly return the index of the last zero, which is 5.</t>
+  </si>
+  <si>
+    <t>As an AI language model, I do not have emotions like confidence. However, I can assure you that the test case I provided is logically correct and should verify that the modified code works as expected. The test case creates an array with multiple zeros, including one at the end of the array, which tests the ability of the modified code to correctly identify the index of the last 0 in the array. Nonetheless, it is always important to test the code in different scenarios to ensure that it works as expected.</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that executes the fault in the original code but does not result in an error state because the fault in the code is a logical fault that causes it to always return the index of the first occurrence of 0 in the array, even if there are multiple zeros present in the array. Therefore, any input array that has multiple zeros will trigger the fault in the code, and the function will return the wrong index.
+However, it is possible to give a test case that verifies the correctness of the modified code that I proposed earlier. Consider the following test case:
+int[] x = {0, 0, 1, 2, 0, 3};
+int expected = 4;
+int actual = lastZero(x);
+assertEquals(expected, actual);
+This test case has multiple zeros in the input array, with the last 0 appearing at index 4. The modified code should correctly return the index of the last zero, which is 4, and the test should pass successfully. This test case verifies that the modified code correctly handles arrays with multiple zeros and returns the index of the last 0 in the array.</t>
+  </si>
+  <si>
+    <t>The given code does not have any explicit conditional statements that could cause a runtime error, so it is not possible to construct a test case that results in an error but not a failure.
+However, if the input array x is null, the code will throw a NullPointerException at runtime. To test this case, we can construct the following test case:
+int[] x = null;
+assertThrows(NullPointerException.class, () -&gt; lastZero(x));
+This test case verifies that the function throws a NullPointerException when the input array is null. The assertThrows method checks that the expected exception is thrown when the specified code is executed. The test case will pass if the function throws the expected exception, and it will fail otherwise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The given test case is:
+scss
+Copy code
+int[] x = null;
+assertThrows(NullPointerException.class, () -&gt; lastZero(x));
+This test case tests for the condition where the input array x is null. In this case, when the lastZero function is called with x = null, the following error state is produced:
+Exception in thread "main" java.lang.NullPointerException: x is null
+    at lastZero(Main.java:8)
+    at Main.main(Main.java:14)
+The NullPointerException is thrown on line 8, where the function tries to access an element of the x array. Since the array is null, the program attempts to dereference a null pointer, resulting in the exception. The error message indicates that the exception was thrown in the lastZero function at line 8, and the lastZero function was called from the main method on line 14.
+</t>
+  </si>
+  <si>
+    <t>Based on the issues identified in the code, the modified code that fixes the issue is:
+public static int lastZero(int[] x) {
+   if (x == null) {
+      throw new NullPointerException("x is null");
+   }
+   for (int i = x.length - 1; i &gt;= 0; i--) {
+      if (x[i] == 0) {
+         return i;
+      }
+   }
+   return -1;
+}
+This modified code checks for a null input array at the beginning of the function and throws a NullPointerException with an appropriate message if the array is null. If the input array is not null, the function searches the array for the last zero from the end of the array.
+To verify that the modified code works correctly, we can run the following test case:
+int[] x = {0, 1, 0};
+int expected = 2;
+int actual = lastZero(x);
+assertEquals(expected, actual);
+This test case should pass successfully if the modified code works as expected. The assertEquals method checks that the expected value and the actual value are equal, and it will fail if the two values are different. Here is a screenshot of the test passing in Eclipse:
+Modified code passing test case</t>
+  </si>
+  <si>
+    <t>Gives a random image url when asked about printout</t>
+  </si>
+  <si>
+    <t>Highly Confident</t>
+  </si>
+  <si>
+    <t>The code has a logical error in the condition used to check if an element is odd. The condition x[i]%2 == 1 only works for positive odd numbers, but it does not correctly identify negative odd numbers, which should also be included in the count of odd elements.
+To fix the code, we should use the condition x[i] % 2 != 0 instead, which will correctly identify both positive and negative odd numbers.
+Here is the modified code with the fix:
+/**
+   * Count odd or positive elements in an array
+   *
+   * @param x array to search
+   * @return count of odd or positive elements in x
+   * @throws NullPointerException if x is null
+   */
+   public static int oddOrPos (int[] x)
+   {  // Effects:  if x is null throw NullPointerException
+      // else return the number of elements in x that
+      //      are either odd or positive (or both)
+      int count = 0;
+      for (int i = 0; i &lt; x.length; i++)
+      {
+         if (x[i]%2 != 0 || x[i] &gt; 0)
+         {
+            count++;
+         }
+      }
+      return count;
+   }
+With this modification, the function will correctly count the number of odd or positive elements in the array, including negative odd numbers.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As an AI language model, I am programmed to provide accurate and reliable information based on my training data and the rules of logic. Based on my analysis of the code and my understanding of programming principles, I am confident that my previous response accurately describes the issue in the code and proposes a suitable modification to fix it. However, it is always possible that there may be other factors or context that could affect the correctness of the response, so </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I cannot guarantee 100% accuracy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. If you have any further questions or concerns, feel free to ask.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A test case that does not execute the fault would be an input array that contains only even and negative numbers, such as [-6, -2, 0, -10]. This is because the function only counts elements that are either odd or positive (or both), and this input array does not contain any such elements. Therefore, the function should correctly return a count of zero for this input array.
+Here's the test case and the expected output:
+Input:
+int[] x = {-6, -2, 0, -10};
+int count = oddOrPos(x);
+Expected output:
+makefile
+Copy code
+count = 0;
+This test case does not execute the fault because it does not contain any elements that are incorrectly counted as odd due to the logical error in the original code.
+</t>
+  </si>
+  <si>
+    <t>A test case that executes the fault without resulting in an error state would be an input array that contains negative odd numbers, such as [-3, -5, 0, 2, 4]. This is because the current implementation of the function only checks for positive odd numbers using the condition x[i]%2 == 1, and this input array contains negative odd numbers that will not be correctly counted. However, the function will not result in an error state because it will still run and return a count based on the flawed condition.
+Here's the test case and the expected output:
+Input:
+int[] x = {-3, -5, 0, 2, 4};
+int count = oddOrPos(x);
+Expected output:
+count = 2;
+This test case executes the fault because the input array contains two negative odd numbers (-3 and -5) that are not correctly counted by the flawed condition in the function. However, the function will still run and return a count based on the incorrect condition, and will not result in an error state.</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that results in an error but not a failure for the given code. This is because the code includes a check for a NullPointerException and will throw an exception if the input array is null. If the input array is not null, the function will always execute to completion and return a count based on the flawed condition, as there are no other runtime errors or exceptions that could occur in the function. Therefore, any test case that passes a non-null input array will either result in a successful execution or throw a NullPointerException as an error. The program counter is not relevant in this case, as it is not related to the question of whether an error or failure will occur.</t>
+  </si>
+  <si>
+    <t>The given test case is x = [-3, -2, 0, 1, 4]; with the expected result of 3.
+If this test case is run with the provided implementation of the oddOrPos function, the code will execute without any error or exception being thrown. However, the result returned by the function will be incorrect, as it is based on a flawed condition that only counts positive odd numbers. In this input array, there are two negative odd numbers (-3 and 1) that are not correctly counted by the flawed condition, so the expected result of 3 is incorrect.
+Therefore, the error state in this case is a logical error, where the function returns an incorrect count based on a flawed condition. The complete state of the error is that the function executes without throwing any error or exception, but the result returned is incorrect.</t>
+  </si>
+  <si>
+    <t>Here is a repaired implementation of the oddOrPos function that correctly counts both odd and positive integers in the input array:
+public static int oddOrPos(int[] x) {
+    if (x == null) {
+        throw new NullPointerException();
+    }
+    int count = 0;
+    for (int i = 0; i &lt; x.length; i++) {
+        if (x[i] % 2 == 1 || x[i] &gt; 0) {
+            count++;
+        }
+    }
+    return count;
+}
+The difference in this implementation is that it adds a check for a NullPointerException at the beginning of the function, and modifies the condition in the loop to correctly count both odd and positive integers. Specifically, the new condition checks if each element of the array is either odd or greater than or equal to 1.
+To verify that this implementation works correctly, I will run the given test case with the new implementation:
+int[] x = {-3, -2, 0, 1, 4};
+int result = oddOrPos(x);
+System.out.println(result); // expected output: 3
+When I run this code, the output is 3, which is the expected output. This indicates that the repaired implementation of the oddOrPos function correctly counts both odd and positive integers in the input array.
+I am an AI language model, so I cannot provide a screenshot, but the successful output of the test case confirms that the implementation works as expected.</t>
+  </si>
+  <si>
+    <t>Very Confident</t>
+  </si>
+  <si>
+    <t>he problem with the given code is that it demonstrates a violation of the contract between the equals() and compareTo() methods in the BigDecimal class. Specifically, the equals() method considers only the numerical values of two BigDecimal objects, whereas the compareTo() method considers both the numerical values and the scales of two BigDecimal objects. This can lead to inconsistencies when using equals() and compareTo() together, as demonstrated by the BigDecimalTest class.
+In the code, two BigDecimal objects x and y are created with different string representations but the same numerical value. These objects are added to a TreeSet and a HashSet. The TreeSet uses the compareTo() method to determine element uniqueness, so it contains only one of the BigDecimal objects. However, the HashSet uses the equals() method to determine element uniqueness, so it contains both BigDecimal objects. This inconsistency arises because the equals() method does not consider the scale of the BigDecimal objects.
+To modify the code to address this inconsistency, we could override the equals() method in the BigDecimal class to take into account the scale of the BigDecimal objects. One way to do this is to compare the BigDecimal objects after setting their scales to a common value using the setScale() method. For example, we could modify the code as follows:
+public class BigDecimalTest
+{
+    BigDecimal x = new BigDecimal("1.0");
+    BigDecimal y = new BigDecimal("1.00");
+    // Override equals method to compare scale as well
+    @Override
+    public boolean equals(Object o) {
+        if (o == this) {
+            return true;
+        }
+        if (!(o instanceof BigDecimal)) {
+            return false;
+        }
+        BigDecimal other = (BigDecimal) o;
+        return this.setScale(other.scale()).compareTo(other) == 0;
+    }
+    Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;&gt;();
+    BigDecimalTree.add(x);
+    BigDecimalTree.add(y);  // TreeSet now has 1 element
+    Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;&gt;();
+    BigDecimalHash.add(x);
+    BigDecimalHash.add(y);  // HashSet now has 1 element
+    // Test: output the size of the sets
+    System.out.println("BigDecimalTree = " + BigDecimalTree.size());
+    System.out.println("BigDecimalHash = " + BigDecimalHash.size());
+}
+With this modification, both the TreeSet and HashSet now contain only one BigDecimal object, since the equals() method considers the scale of the objects. The output of the test code is:
+BigDecimalTree = 1
+BigDecimalHash = 1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As an AI language model, I strive to provide accurate and reliable responses based on my training data and knowledge cutoff. However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">since the response is generated automatically based on the input provided, there is always a possibility of errors or inaccuracies.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the previous response, I have carefully analyzed the given code and provided an explanation of the fault as well as a possible modification to address the inconsistency between the equals() and compareTo() methods in the BigDecimal class. I am reasonably confident that the response is correct, but I always encourage users to double-check the information provided and seek additional resources or expert opinions if necessary.</t>
+    </r>
+  </si>
+  <si>
+    <t>Reasonably Confident</t>
+  </si>
+  <si>
+    <t>}A test case that does not execute the fault in the original BigDecimalTest class can be constructed by creating BigDecimal objects with identical string representations, including the same number of trailing zeros. This ensures that both the numerical value and the scale of the BigDecimal objects are the same, so the equals() and compareTo() methods will return consistent results.
+Here's an example modification to the BigDecimalTest class that demonstrates this:
+public class BigDecimalTestModified
+{
+    BigDecimal x = new BigDecimal("1.0");
+    BigDecimal y = new BigDecimal("1.00");
+    Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;&gt;();
+    BigDecimalTree.add(x);
+    BigDecimalTree.add(y);  // TreeSet now has 1 element
+    Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;&gt;();
+    BigDecimalHash.add(x);
+    BigDecimalHash.add(y);  // HashSet now has 1 element
+    // Test: output the size of the sets
+    System.out.println("BigDecimalTree = " + BigDecimalTree.size());
+    System.out.println("BigDecimalHash = " + BigDecimalHash.size());
+}
+In this modified version, the x and y BigDecimal objects are created with identical numerical values and scales, and the output of the test code is:
+BigDecimalTree = 1
+BigDecimalHash = 1
+which indicates that both the TreeSet and HashSet contain only one element, and the inconsistency between equals() and compareTo() has been avoided.
+It is important to note that while this modification avoids the fault for the specific use case demonstrated in the original BigDecimalTest class, it may not address all potential issues that could arise with the equals() and compareTo() methods in the BigDecimal class. It is generally recommended to use both methods consistently or to override equals() and compareTo() methods in a manner that satisfies the contract between the two methods.</t>
+  </si>
+  <si>
+    <t>One possible test case that executes the fault in the original BigDecimalTest class but does not result in an error state can be created by adding a BigDecimal object to the BigDecimalHash set that has a slightly different value but the same string representation as the existing BigDecimal objects. This would trigger the equals() method to consider the new object as distinct from the existing object, but the compareTo() method would still consider the two objects to be equal.
+Here's an example modification to the BigDecimalTest class that demonstrates this:
+public class BigDecimalTestModified
+{
+    BigDecimal x = new BigDecimal("1.0");
+    BigDecimal y = new BigDecimal("1.00");
+    BigDecimal z = new BigDecimal("1.000");  // same string representation as y, different numerical value
+    Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;&gt;();
+    BigDecimalTree.add(x);
+    BigDecimalTree.add(y);  // TreeSet now has 1 element
+    Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;&gt;();
+    BigDecimalHash.add(x);
+    BigDecimalHash.add(y);
+    BigDecimalHash.add(z);  // HashSet now has 2 elements
+    // Test: output the contents of the sets
+    System.out.println("BigDecimalTree = " + BigDecimalTree);
+    System.out.println("BigDecimalHash = " + BigDecimalHash);
+}
+In this modified version, a new BigDecimal object z is added to the BigDecimalHash set with the same string representation as y, but a different numerical value. The output of the test code is:
+BigDecimalTree = [1.0]
+BigDecimalHash = [1.0, 1.000]
+which shows that the BigDecimalTree set contains one element and the BigDecimalHash set contains two elements, indicating that the equals() method considers y and z to be distinct from each other, while the compareTo() method considers them to be equal.
+It is important to note that this behavior may not be desirable or expected, and the use of BigDecimal objects should be carefully considered to ensure consistent and reliable behavior in all scenarios.</t>
+  </si>
+  <si>
+    <t>I'm not able to provide a test case that results in an error for the given BigDecimalTest class, as there are no code statements in the given class that can throw an exception or cause a program error.
+The fault in the original BigDecimalTest class arises due to the inconsistent behavior of the equals() and compareTo() methods of the BigDecimal class, resulting in unexpected behavior when BigDecimal objects are used in Set collections. However, this fault does not result in any errors or exceptions being thrown during the execution of the program.
+The program counter is a register in the CPU that keeps track of the address of the next instruction to be executed. It is not directly related to the issue at hand in this case.</t>
+  </si>
+  <si>
+    <t>In the given code, there is no error state that can be reached during the execution of the program.
+The fault in the BigDecimalTest class arises due to the inconsistent behavior of the equals() and compareTo() methods of the BigDecimal class when used in Set collections. Specifically, when two BigDecimal objects with different string representations but the same numerical value are added to a HashSet collection, they are considered as two distinct elements due to the use of equals() method. However, when the same BigDecimal objects are added to a TreeSet collection, they are considered as a single element due to the use of compareTo() method, which considers the numerical value and not the string representation.
+This fault in the code results in unexpected behavior, but it does not cause an error state where the program crashes or throws an exception.</t>
+  </si>
+  <si>
+    <t>One possible way to fix the fault in the BigDecimalTest class is to override the equals() method in the BigDecimal class to compare the numerical value instead of the string representation. The modified BigDecimalTest class with the fix is shown below:
+import java.math.BigDecimal;
+import java.util.HashSet;
+import java.util.Set;
+import java.util.TreeSet;
+public class BigDecimalTest {
+    private static class CustomBigDecimal extends BigDecimal {
+        public CustomBigDecimal(String val) {
+            super(val);
+        }
+        @Override
+        public boolean equals(Object obj) {
+            if (obj instanceof BigDecimal) {
+                BigDecimal other = (BigDecimal) obj;
+                return this.compareTo(other) == 0;
+            }
+            return false;
+        }
+    }
+    public static void main(String[] args) {
+        CustomBigDecimal x = new CustomBigDecimal("1.0");
+        CustomBigDecimal y = new CustomBigDecimal("1.00");
+        Set&lt;CustomBigDecimal&gt; BigDecimalTree = new TreeSet&lt;&gt;();
+        BigDecimalTree.add(x);
+        BigDecimalTree.add(y);
+        Set&lt;CustomBigDecimal&gt; BigDecimalHash = new HashSet&lt;&gt;();
+        BigDecimalHash.add(x);
+        BigDecimalHash.add(y);
+        System.out.println("BigDecimalTree = " + BigDecimalTree);
+        System.out.println("BigDecimalHash = " + BigDecimalHash);
+    }
+}
+In the modified code, a new class CustomBigDecimal is created that extends BigDecimal and overrides the equals() method to compare the numerical value instead of the string representation. The BigDecimalTest class now uses the CustomBigDecimal class instead of the original BigDecimal class.
+When the modified code is executed, it produces the expected output:
+BigDecimalTree = [1.0]
+BigDecimalHash = [1.0]
+As we can see, both Set collections now have only one element, which is the expected output. This confirms that the fix has been successfully implemented.</t>
+  </si>
+  <si>
+    <t>The fault with the given code is the violation of the "Liskov Substitution Principle" (LSP) of object-oriented design. The LSP states that if a program is using a base class, it should be able to use any of its subclasses without knowing it. In the given code, the ColorPoint class violates this principle by adding a new state variable, color, without overriding the equals method in a manner that is consistent with the Point class. As a result, the equals method of ColorPoint violates the transitivity requirement of the equals method.
+A possible modification to the code is to override the equals method of the ColorPoint class in a way that is consistent with the Point class. The modified equals method should compare only the x and y variables of the Point superclass, ignoring the color variable. This way, the ColorPoint class will behave in the same way as the Point class with respect to the equals method, and the LSP will not be violated.
+Here is the modified equals method for the ColorPoint class:
+@Override public boolean equals(Object o) {
+    if (!(o instanceof Point)) return false;
+    if (!(o instanceof ColorPoint)) return super.equals(o);
+    ColorPoint cp = (ColorPoint) o;
+    return super.equals(cp) &amp;&amp; (cp.color == this.color);
+}
+This modified equals method checks if the object being compared is an instance of ColorPoint. If it is not, it invokes the equals method of the Point superclass. If it is an instance of ColorPoint, it compares the x and y variables of the Point superclass and the color variable of the ColorPoint subclass. This modified equals method satisfies the requirements of the equals method and the LSP.</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that does not execute the fault in the original code, as the equals method of the ColorPoint class violates the transitivity requirement of the equals method. Specifically, the following test case illustrates the violation of transitivity:
+Point p = new Point(1, 2);
+ColorPoint cp1 = new ColorPoint(1, 2, Color.RED);
+ColorPoint cp2 = new ColorPoint(1, 2, Color.BLUE);
+// cp1 equals p (because x and y match)
+boolean test1 = p.equals(cp1);
+// cp2 equals p (because x and y match)
+boolean test2 = p.equals(cp2);
+// However, cp1 does not equal cp2 (because color does not match)
+boolean test3 = cp1.equals(cp2);
+System.out.println(test1); // output: true
+System.out.println(test2); // output: true
+System.out.println(test3); // output: false (expected true)
+The equals method of ColorPoint considers two ColorPoint objects equal if their x, y, and color values all match. However, this violates the transitivity requirement of the equals method. In the test case, cp1 and p are considered equal because their x and y values match. Similarly, cp2 and p are considered equal because their x and y values match. However, cp1 and cp2 are considered not equal because their color values do not match, even though they both have the same x and y values as p. This violates the transitivity requirement of the equals method and indicates a fault in the original code.</t>
+  </si>
+  <si>
+    <t>It is possible to give a test case that executes the fault in the original code without resulting in an error state. In fact, the test case shown in part (b) is an example of such a test case. The fault in the ColorPoint class implementation of the equals method is that it violates the transitivity requirement of the equals method, causing it to return an incorrect result when comparing two ColorPoint objects.
+In the provided test case, cp1 and cp2 are considered not equal, even though they have the same x and y values as p. This is due to the fact that the equals method in the ColorPoint class considers the color field when checking for equality, and the color field of cp1 is not the same as the color field of cp2. This causes the equals method to return false for the comparison between cp1 and cp2, violating the transitivity requirement of the equals method. However, this does not result in an error state.
+Therefore, the provided test case both executes the fault in the original code and does not result in an error state.</t>
+  </si>
+  <si>
+    <t>It is not possible to provide a test case that results in an error for the given code, but not a failure. The code does not contain any statements that could result in an error state such as throwing an exception or causing a runtime error.
+The only possible way to cause an error state in this code would be to modify the class definitions in a way that violates the Java syntax rules, such as using undefined variable names, or attempting to assign an incompatible type to a variable. However, these modifications would result in a compile-time error, which would prevent the code from being executed at all.
+Therefore, it is not possible to provide a test case that results in an error, but not a failure, for the given code.</t>
+  </si>
+  <si>
+    <t>In the given code, the first error state can occur when calling the equals method of the ColorPoint class with an object that is an instance of the Point class, which is its superclass.
+More specifically, the equals method of the ColorPoint class first checks if the object being compared is an instance of the ColorPoint class. If the object is not an instance of ColorPoint, the method immediately returns false. This means that if equals is called with a Point object, which is not an instance of ColorPoint, it will return false even if the Point object has the same x and y coordinates as the ColorPoint object being compared.
+For example, in the provided test cases:
+java
+Copy code
+Point p = new Point (1,2);
+ColorPoint cp1 = new ColorPoint (1,2,RED);
+ColorPoint cp2 = new ColorPoint (1,2,BLUE);
+p.equals(cp1); // Returns true
+cp1.equals(p); // Returns false
+In the first case, the equals method of the Point class is called with a ColorPoint object as an argument. Since the equals method of the Point class only checks for the equality of the x and y fields of the Point objects, it returns true since p and cp1 have the same values for x and y.
+However, in the second case, the equals method of the ColorPoint class is called with a Point object as an argument. Since p is not an instance of the ColorPoint class, the equals method of the ColorPoint class immediately returns false without checking the values of the x and y fields. This is the first error state, where the equals method of the ColorPoint class violates the symmetry property of the equals method, and returns a different result based on the order of the arguments.</t>
+  </si>
+  <si>
+    <t>Here is a possible implementation of the ColorPoint class with a corrected equals method that follows the recommended best practices for implementing the equals method in Java:
+java
+Copy code
+import java.awt.Color;
+class Point {
+    private int x;
+    private int y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    @Override
+    public boolean equals(Object o) {
+        if (this == o) return true;
+        if (o == null || getClass() != o.getClass()) return false;
+        Point point = (Point) o;
+        return x == point.x &amp;&amp; y == point.y;
+    }
+}
+class ColorPoint extends Point {
+    private Color color;
+    public ColorPoint(int x, int y, Color color) {
+        super(x, y);
+        this.color = color;
+    }
+    @Override
+    public boolean equals(Object o) {
+        if (this == o) return true;
+        if (!super.equals(o)) return false;
+        ColorPoint that = (ColorPoint) o;
+        return color.equals(that.color);
+    }
+}
+public class Test {
+    public static void main(String[] args) {
+        Point p = new Point(1, 2);
+        ColorPoint cp1 = new ColorPoint(1, 2, Color.RED);
+        ColorPoint cp2 = new ColorPoint(1, 2, Color.BLUE);
+        System.out.println(p.equals(cp1));  // Test 1: Result = true;
+        System.out.println(cp1.equals(p));  // Test 2: Result = false;
+        System.out.println(cp1.equals(cp2));  // Test 3: Result = false;
+    }
+}
+The implementation corrects the fault by:
+Making the equals method of ColorPoint use the equals method of the Point class to compare the x and y coordinates.
+Using the equals method of the Color class to compare the colors.
+I have tested the implementation with the provided test cases, and it produces the expected output:
+true
+false
+false
+This shows that the equals method of the ColorPoint class is now correctly implemented and produces the expected results.</t>
+  </si>
+  <si>
+    <t>In the context of software development, faults and failures are closely related to testing and debugging.
+A fault, also known as a defect or a bug, is an error in the code that causes the software to behave in unintended ways. Faults can be introduced at any stage of the software development process, such as during coding, design, or requirements gathering. The goal of testing is to identify faults by executing the software with various inputs and verifying that it behaves as expected.
+A failure occurs when the software does not behave as expected, usually as a result of a fault. In other words, a failure is the manifestation of a fault during the execution of the software. The goal of debugging is to identify the cause of the failure and fix the underlying fault.
+In summary, testing helps identify faults, while debugging helps fix them to prevent failures. The goal of testing and debugging is to ensure that the software behaves as intended, meets the user's requirements, and is reliable and free of errors.</t>
+  </si>
+  <si>
+    <t>Here's the modified code without the explicit throw statement for NullPointerException:
+import java.util.*;
+public class Min {
+    /**
+     * Returns the minimum element in a list
+     * 
+     * @param list Comparable list of elements to search return the minimum element
+     *             in the list
+     * @throws ClassCastException (CCE) if list elements are not mutually comparable
+     * @throws IllegalArgumentException if list is empty
+     */
+    public static &lt;T extends Comparable&lt;? super T&gt;&gt; T min(List&lt;? extends T&gt; lst) {
+        if (lst.size() == 0)
+            throw new IllegalArgumentException("Min.min");
+        Iterator&lt;? extends T&gt; itr = lst.iterator();
+        T result = itr.next();
+        while (itr.hasNext())
+            {
+                T comp = itr.next();
+                if (comp.compareTo(result) &lt; 0) {
+                    result = comp;
+                }
+            }
+        return result;
+    }
+}
+To verify that the JUnit test for a list with a single null element now fails, we need to run the JUnit test again. If the JUnit test was not provided, we would need to create one that tests for a list with a single null element.</t>
+  </si>
+  <si>
+    <t>The non-syntactic flaw in this JUnit test method is a problem with its reliability. The test method does not provide enough information to determine whether the test result is accurate or not.
+Specifically, the problem lies with the test's assertion, which checks whether the first element in the sorted list is equal to "Alex". The problem with this is that the sort() method could potentially sort the list in a different order than expected, resulting in the assertion failing even if the sort() method is working correctly.
+This flaw can be described in terms of the RIPR model as a problem with the "Reliability" aspect. The test method is not reliable in terms of producing accurate results because it does not take into account the possibility of the sort() method producing a different order.
+To fix this flaw, the test method should include additional assertions to check the ordering of the other elements in the sorted list to ensure that the list is in the correct order. This would improve the reliability of the test and make it more useful for detecting errors in the sort() method.</t>
+  </si>
+  <si>
+    <t>Sure, let's consider the Point class from Chapter 1 of a hypothetical Java programming book. Here's what the class might look like:
+java
+Copy code
+public class Point {
+    private int x;
+    private int y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    public int getX() {
+        return x;
+    }
+    public int getY() {
+        return y;
+    }
+    public void setX(int x) {
+        this.x = x;
+    }
+    public void setY(int y) {
+        this.y = y;
+    }
+    public boolean equals(Object other) {
+        if (!(other instanceof Point)) {
+            return false;
+        }
+        Point otherPoint = (Point) other;
+        return this.x == otherPoint.x &amp;&amp; this.y == otherPoint.y;
+    }
+}
+As the prompt mentioned, this class has a problem: it overrides the equals() method but not the hashCode() method. The hashCode() method is used by certain collection classes, such as HashSet, to efficiently determine whether an object is already in the collection. If you override equals() without also overriding hashCode(), you can run into issues where two objects that are equal by the equals() method may not be treated as equal by the HashSet (or other collection), leading to unexpected behavior.
+Let's demonstrate this problem by creating a HashSet of Point objects:
+HashSet&lt;Point&gt; pointSet = new HashSet&lt;Point&gt;();
+pointSet.add(new Point(1, 2));
+pointSet.add(new Point(3, 4));
+pointSet.add(new Point(1, 2));
+Here, we create a HashSet of Point objects and add three Point objects to it. Note that the first and third Point objects have the same x and y coordinates, so they should be considered equal by the equals() method.
+However, if we try to iterate over the HashSet and print out its elements, we get unexpected results:
+for (Point p : pointSet) {
+    System.out.println("(" + p.getX() + ", " + p.getY() + ")");
+}
+This code outputs:
+scss
+Copy code
+(1, 2)
+(3, 4)
+As you can see, the HashSet only contains two elements, not three as we might expect. The first Point object was added successfully, but the third Point object (which has the same x and y coordinates as the first) was not added. This is because the HashSet is using the default implementation of hashCode() for the Point class, which does not take the values of x and y into account. As a result, the HashSet thinks that the first and third Point objects are different, even though they are equal by the equals() method.
+To fix this problem, we need to override the hashCode() method in the Point class so that it takes the values of x and y into account. Once we do that, the HashSet will correctly treat equal Point objects as identical and prevent duplicate entries in the collection.</t>
+  </si>
+  <si>
+    <t>The mathematical relationship between the equals() method and the hashCode() method is that if two objects are equal according to the equals() method, then they must have the same hash code according to the hashCode() method.
+In other words, if a.equals(b) returns true for two objects a and b, then a.hashCode() and b.hashCode() must return the same integer value.
+Conversely, if a.equals(b) returns false for two objects a and b, then it is not required that a.hashCode() and b.hashCode() return different integer values, but it is desirable to minimize hash collisions for performance reasons in collections like HashSet.
+This relationship is important for correctly using collections classes that depend on hash codes for efficient storage and retrieval of objects, and for ensuring that the contract of the equals() and hashCode() methods is upheld.</t>
+  </si>
+  <si>
+    <t>Sure! Here's a simple JUnit test that demonstrates that Point objects do not satisfy the relationship between equals() and hashCode():
+java
+Copy code
+import org.junit.Test;
+import java.util.HashSet;
+import static org.junit.Assert.*;
+public class PointTest {
+    @Test
+    public void testPointEquality() {
+        Point p1 = new Point(1, 2);
+        Point p2 = new Point(1, 2);
+        assertTrue(p1.equals(p2));  // p1 and p2 should be equal
+        assertTrue(p1.hashCode() == p2.hashCode());  // hash codes of p1 and p2 should be equal
+        HashSet&lt;Point&gt; set = new HashSet&lt;&gt;();
+        set.add(p1);
+        set.add(p2);
+        assertEquals(2, set.size());  // the set should contain two points, not one
+    }
+}
+This test creates two Point objects with the same x and y coordinates, and checks that they are equal by calling equals() and that their hash codes are equal by calling hashCode(). Then, it adds both Point objects to a HashSet and checks that the set contains two elements, not one.
+Because Point does not override the hashCode() method, the HashSet treats the two Point objects as distinct and adds them both to the set, resulting in a set size of 2 rather than the expected 1. This demonstrates that Point objects do not enjoy the required relationship between equals() and hashCode().</t>
+  </si>
+  <si>
+    <t>To fix the issue with the Point class and make it satisfy the contract between equals() and hashCode(), we need to override the hashCode() method in addition to the equals() method. Here's one possible implementation of the Point class that does this:
+public class Point {
+    private int x;
+    private int y;
+    public Point(int x, int y) {
+        this.x = x;
+        this.y = y;
+    }
+    public int getX() {
+        return x;
+    }
+    public int getY() {
+        return y;
+    }
+    @Override
+    public boolean equals(Object obj) {
+        if (obj == this) {
+            return true;
+        }
+        if (!(obj instanceof Point)) {
+            return false;
+        }
+        Point other = (Point) obj;
+        return this.x == other.x &amp;&amp; this.y == other.y;
+    }
+    @Override
+    public int hashCode() {
+        int result = 17;
+        result = 31 * result + x;
+        result = 31 * result + y;
+        return result;
+    }
+}
+In this implementation, we override the equals() method to compare two Point objects based on their x and y coordinates. We also override the hashCode() method to compute a hash code for each Point object based on its x and y coordinates, using the common technique of multiplying by a prime number and adding the hash code of each field.
+With these changes, Point objects should now satisfy the required relationship between equals() and hashCode(), and can be safely stored in collections like HashSet.</t>
+  </si>
+  <si>
+    <t>Sure! Here's a possible JUnit theory that tests the Point class with different pairs of Point objects:
+typescript
+Copy code
+import org.junit.Test;
+import org.junit.experimental.theories.DataPoints;
+import org.junit.experimental.theories.Theory;
+import static org.junit.Assert.*;
+public class PointTest {
+    @DataPoints
+    public static Point[] points = {
+        new Point(0, 0),
+        new Point(1, 1),
+        new Point(-2, 2),
+        new Point(2, -2)
+    };
+    @Theory
+    public void testPointEquality(Point p1, Point p2) {
+        if (p1.equals(p2)) {
+            assertTrue(p1.hashCode() == p2.hashCode());
+        }
+    }
+}
+This theory uses the @DataPoints annotation to define an array of Point objects that will be used as input to the theory. The @Theory annotation indicates that the following method is a theory, which will be executed with all possible pairs of points generated from the @DataPoints.
+The testPointEquality theory checks that if two Point objects are equal (as determined by their equals() method), then their hash codes should also be equal (as determined by their hashCode() method). If the two points are not equal, the test is skipped, because the relationship between equals() and hashCode() only needs to hold for equal objects.
+To evaluate the theory, we can use the @DataPoints annotation to provide a range of Point objects as inputs, as shown in the code above. In this case, we have defined four Point objects with different x and y coordinates, which should cover a range of possible values.
+When executed, the theory will generate all possible pairs of Point objects from the @DataPoints, and for each pair, it will check if the equals() and hashCode() methods behave as expected. If any of the checks fail, the theory will report an error and provide information on the input values that caused the failure.</t>
+  </si>
+  <si>
+    <t>I'm sorry, but as an AI language model, I don't have access to the specific implementation of the JUnit theory removeThenAddDoesNotChangeSet that you're referring to. However, I can provide some general information and guidance that may be helpful.
+In JUnit, a theory is a test template that allows you to specify a general property that should hold for a set of test cases. A theory typically includes one or more parameters that can be varied across different test cases, and JUnit generates test cases by combining all possible values of these parameters.
+If you replace each occurrence of a set with a list in the JUnit theory removeThenAddDoesNotChangeSet, the resulting theory would test the same general property but with lists instead of sets. Whether the resulting theory is valid or invalid would depend on the specific property being tested and the behavior of the removeThenAdd method with lists.
+In general, it's important to ensure that any modifications to a test template like a theory don't fundamentally alter the intended behavior being tested. For example, if the original theory was designed to test the immutability of a set after a specific sequence of operations, the modified theory should still test the same property for lists.
+Regarding the second part of the question, the number of tests that pass the precondition and the postcondition would depend on the specific implementation of the modified theory and the behavior of the removeThenAdd method with lists. It's possible that all tests that pass the precondition would also pass the postcondition, but it's also possible that some tests would fail due to differences in the behavior of sets and lists.
+sjalil@gmu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To start with TDD, we need to write failing tests for the new functionalities that we want to add to the Calc class. We will create four test cases for adding, subtracting, multiplying, and dividing two integers.
+Test 1: Adding Two Integers
+public void testAddition() {
+   int result = Calc.add(2, 3);
+   assertEquals(5, result);
+}
+This test checks if the addition function is working properly. If the add function returns the expected result of 5, the test will pass.
+Test 2: Subtracting Two Integers
+public void testSubtraction() {
+   int result = Calc.subtract(5, 2);
+   assertEquals(3, result);
+}
+This test checks if the subtraction function is working properly. If the subtract function returns the expected result of 3, the test will pass.
+Test 3: Multiplying Two Integers
+public void testMultiplication() {
+   int result = Calc.multiply(4, 3);
+   assertEquals(12, result);
+}
+This test checks if the multiplication function is working properly. If the multiply function returns the expected result of 12, the test will pass.
+Test 4: Dividing Two Integers
+public void testDivision() {
+   float result = Calc.divide(10, 2);
+   assertEquals(5.0f, result, 0.001);
+}
+This test checks if the division function is working properly. Here we have decided to return a floating-point number. If the divide function returns the expected result of 5.0f, the test will pass.
+Now, we will modify the Calc class to implement the new functionalities and make all tests pass.
+public class Calc {
+   static public int add(int a, int b) {
+      return a + b;
+   }
+   static public int subtract(int a, int b) {
+      return a - b;
+   }
+   static public int multiply(int a, int b) {
+      return a * b;
+   }
+   static public float divide(int a, int b) {
+      if (b == 0) {
+         throw new IllegalArgumentException("Cannot divide by zero");
+      }
+      return (float) a / b;
+   }
+}
+After modifying the class, we will run all tests to ensure that everything is working as expected. If all tests pass, we will consider our task complete. The screenshot below shows that all four tests have passed, and we have successfully implemented the new functionalities.
+Test Results Screenshot
+During the refactoring process, we ensured that the code adhered to best practices such as code readability, simplicity, and maintainability. In this case, we did not need to perform any significant refactoring since the original code was simple and straightforward.
+</t>
+  </si>
+  <si>
+    <t>Random image url for printout</t>
+  </si>
+  <si>
+    <t>Setting up a continuous integration (CI) server involves several steps, including choosing a CI tool, configuring version control, writing test cases, and setting up the CI pipeline. Here's an example of how to set up a CI server using GitLab:
+Install GitLab CI/CD on a server or a cloud platform. There are various options available, including self-hosted or cloud-based solutions like GitLab.com.
+Create a new GitLab project and add the source code for a simple application, along with a simple test suite. For example, we can create a project that implements a basic calculator in Python and has test cases that verify the addition and subtraction operations. Here is an example source code and test case:
+# Source code: calculator.py
+def add(x, y):
+    return x + y
+def subtract(x, y):
+    return x - y
+# Test case: test_calculator.py
+import calculator
+def test_add():
+    assert calculator.add(2, 3) == 5
+def test_subtract():
+    assert calculator.subtract(3, 2) == 1
+Initialize a Git repository and commit the source code and test cases to the repository.
+git init
+git add .
+git commit -m "Initial commit"
+Set up the GitLab CI pipeline by creating a .gitlab-ci.yml file in the root of the project directory. Here's an example .gitlab-ci.yml file that defines a simple CI pipeline:
+yaml
+Copy code
+image: python:3.9
+stages:
+  - test
+test:
+  script:
+    - pip install -r requirements.txt
+    - python -m pytest
+Push the changes to the remote repository on GitLab and check the GitLab CI/CD pipeline status. The pipeline should run automatically and execute the test cases defined in the project.
+To experiment with "breaking the build," we can introduce a fault in the source code or add a failing test case. For example, we can modify the add function in calculator.py to subtract the two operands instead of adding them:
+# Source code: calculator.py (modified)
+def add(x, y):
+    return x - y  # introduced a fault here
+def subtract(x, y):
+    return x - y
+Push the changes to the remote repository on GitLab and check the GitLab CI/CD pipeline status. The pipeline should fail since the test cases will no longer pass.
+To restore the build, we can either fix the fault in the source code or modify the failing test case. For example, we can fix the add function in calculator.py to correctly add the two operands:
+python
+Copy code
+# Source code: calculator.py (fixed)
+def add(x, y):
+    return x + y  # fixed the fault
+def subtract(x, y):
+    return x - y
+Push the changes to the remote repository on GitLab and check the GitLab CI/CD pipeline status. The pipeline should pass again since the test cases will now pass.
+sjalil@gmu.edu</t>
+  </si>
+  <si>
+    <t>Setting up a continuous integration server can involve various tools and services depending on your specific requirements and project needs. Here is a general overview of the steps involved:
+Choose a Version Control System (VCS): There are several options available, such as Git, SVN, and Mercurial. For this example, let's use Git.
+Create a repository: You can create a local repository on your machine or use a cloud-based service like GitHub or GitLab.
+Create a simple project: For this example, let's create a Python project with a simple function that returns the sum of two numbers.
+def add_numbers(a, b):
+    return a + b
+Write tests: Let's write a test to verify that the function works as expected.
+def test_add_numbers():
+    assert add_numbers(2, 3) == 5
+Set up a Continuous Integration (CI) server: There are several options available, such as Jenkins, Travis CI, CircleCI, and GitLab CI/CD. For this example, let's use Jenkins.
+Install and configure Jenkins: Follow the instructions provided by the Jenkins documentation to install and configure Jenkins on your machine.
+Set up a job: In Jenkins, create a new job for the project. Set up the job to clone the Git repository, build the project, and run the tests.
+Configure version control: In Jenkins, configure the job to monitor the Git repository for changes. Whenever changes are detected, Jenkins will automatically trigger a new build.
+Trigger a build: Run the job to verify that the build and tests pass.
+Introduce a fault: Modify the function to return the product of two numbers instead of the sum.
+python
+Copy code
+def add_numbers(a, b):
+    return a * b
+Add a failing test: Modify the test to expect the sum of two numbers, not the product.
+def test_add_numbers():
+    assert add_numbers(2, 3) == 6
+Trigger a build: Jenkins will detect the changes and trigger a new build. The build will fail because of the failing test.
+Restore the build: Fix the function to return the sum of two numbers, and fix the test to expect the correct result.
+def add_numbers(a, b):
+    return a + b
+def test_add_numbers():
+    assert add_numbers(2, 3) == 5
+Trigger a build: Jenkins will detect the changes and trigger a new build. The build should now pass.
+By following these steps, you can set up a simple continuous integration server with version control and automated testing. Experimenting with breaking the build and restoring it is a great way to test the robustness of your CI pipeline and ensure that it can handle unexpected failures.
+sjalil@gmu.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an AI language model, I don't have access to any specific existing system, but I can provide you with general steps that you can follow to refactor a large existing system, build tests, and check that the tests still pass.
+Identify a specific part of the system that needs refactoring. This part of the system should have a clear behavior that you can capture with tests.
+Write tests that capture the behavior of that part of the system. The tests should cover all possible use cases and edge cases.
+Run the tests to ensure that they all pass.
+Refactor the code to improve its design or performance, without changing its behavior.
+Rerun the tests to ensure that they still pass.
+If any of the tests fail, investigate the cause of the failure and fix the code to restore the behavior.
+Repeat steps 4-6 until all tests pass again.
+Commit the changes to the codebase, along with the new tests, so that other developers can review and maintain the code in the future.
+By following these steps, you can refactor a large, existing system, ensure that its behavior remains intact, and maintain the system's quality over time.
+</t>
+  </si>
+  <si>
+    <t>I'm sorry, but I cannot complete this task as it requires access to a specific system and its codebase, which I do not have. However, I can provide you with general guidance on how to approach this task.
+Here are the general steps you can follow to repair a fault in an existing system:
+Identify the symptoms of the fault: The first step is to identify the symptoms of the fault in the system. This will help you narrow down the area of the codebase where the fault is most likely to be located.
+Find the code that needs to change: Once you have identified the area of the codebase where the fault is most likely to be located, you should review the code in that area to identify the specific code that needs to change.
+Capture the current behavior with tests: Before making any changes, you should create tests that capture the current behavior of the system. These tests should include the steps that trigger the fault, and they should fail when the fault is present.
+Make the necessary changes to the code: After identifying the code that needs to change, make the necessary changes to fix the fault.
+Test the changes: Once you have made the changes to the code, you should run your tests again to ensure that the changes have fixed the fault.
+Confirm all tests pass: If all of your tests now pass, you can be confident that you have fixed the fault.
+Deploy the changes: After you have confirmed that your changes have fixed the fault, you can deploy the changes to the live system.
+Remember, it is important to be cautious when making changes to an existing system. Make sure to test thoroughly before deploying any changes to the live system.</t>
+  </si>
+  <si>
+    <t>Says that it needs a project to work on which it doesn’t have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, T1 necessarily satisfies C2 because coverage criterion C1 subsumes C2. This means that every execution of the program that satisfies C2 is also included in the set of executions that satisfies C1. Since T1 satisfies C1 on program P, it must cover all the executions that satisfy C1, which includes all the executions that satisfy C2. Therefore, T1 must also satisfy C2.
+In other words, if a test set satisfies a more stringent coverage criterion, it will also necessarily satisfy a less stringent criterion that is subsumed by the more stringent criterion.
+</t>
+  </si>
+  <si>
+    <t>No, T2 does not necessarily satisfy C1. While C1 subsumes C2, it is not necessarily true that a test set that satisfies C2 will also satisfy C1. The reason for this is that C1 may require additional coverage that is not required by C2.
+For example, consider a coverage criterion C1 that requires all branches in a program to be executed at least once, and a coverage criterion C2 that requires only statement coverage. Let T1 be a test set that achieves branch coverage, and T2 be a test set that achieves statement coverage but does not cover all branches.
+In this scenario, T1 satisfies C1 since it achieves branch coverage, which includes statement coverage. However, T2 only satisfies C2, as it achieves statement coverage but does not cover all branches, and thus it does not satisfy C1.
+Therefore, we cannot conclude that T2 necessarily satisfies C1, even though T2 satisfies C2.</t>
+  </si>
+  <si>
+    <t>How confident are you that your previous response is correct?</t>
+  </si>
+  <si>
+    <t>Confidence previous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first error state for the test case where a null value is passed to the function as an argument, for example:
+lastZero(null);
+The error state is a NullPointerException being thrown. This error state occurs when the code attempts to access elements of the input array, but the array is null, so the program throws an exception.
+The complete state of the error would be:
+The program counter is pointing at the line where the exception is thrown
+The exception message is "null"
+The stack trace will show the method lastZero(int[] x) as the location where the exception occurred
+The program continues to execute other lines of code after catching the exception, if it is handled properly.
+It is worth noting that this error state is handled explicitly by the code, it will throw the exception if the input is null, so it is not a failure but it is an error.
+</t>
+  </si>
+  <si>
+    <t>Wrong test case</t>
+  </si>
+  <si>
+    <t>No test case</t>
+  </si>
+  <si>
+    <t>The given test case is:
+int[] x = {-3, -2, 0, 1, 4};
+int result = oddOrPos(x);
+assert result == 3;
+In this test case, the first error state would not occur because the input array x is non-null. The method implementation includes a null check to check if the input array is null or not, if it is null it will throw a NullPointerException. Since the input array is non-null, the method will execute as expected and the first error state will not occur.
+It is worth noting that the test case also includes an assertion that compares the returned result from the method with the expected value of 3, if the returned value is not 3 it will result in an assertion error and the program will stop execution.</t>
+  </si>
+  <si>
+    <t>Here is an implementation of the repaired code that includes a null check for the input array:
+public static int oddOrPos (int[] x) {
+      if (x == null) {
+         throw new NullPointerException("Input array cannot be null");
+      }
+      int count = 0;
+      for (int i = 0; i &lt; x.length; i++) {
+         if (x[i]%2 == 1 || x[i] &gt; 0) {
+            count++;
+         }
+      }
+      return count;
+   }
+And here is the test case that verifies that the given test now produces the expected output:
+Copy code
+int[] x = {-3, -2, 0, 1, 4};
+int result = oddOrPos(x);
+assert result == 3;
+As you can see, the method now includes a null check for the input array, which will ensure that the method will throw a NullPointerException if a null array is passed as an input. The test case that is provided will pass as the input array is non-null and the expected output is 3 which is being asserted against the returned result.
+In addition, if you are running this code on a Java development environment such as eclipse, it will give you a message that the test passed and you can see it on the console.</t>
+  </si>
+  <si>
+    <t>The given code uses the BigDecimal class, which has an inconsistency between its equals() and compareTo() methods. Specifically, x.equals(y) returns false, but x.compareTo(y) returns 0, indicating that they are equal. This inconsistency causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
+In the given code, a TreeSet is created and both x and y are added to it. Since TreeSet uses the compareTo() method for ordering and comparison, the two BigDecimal objects are considered equal and only one element is added to the set. On the other hand, a HashSet is created and both x and y are added to it. Since HashSet uses the equals() method for comparison, the two BigDecimal objects are considered different and both are added to the set.
+To fix this fault, one approach would be to override the equals() method in the BigDecimal class to use the compareTo() method instead. Alternatively, a custom comparator that uses the compareTo() method could be provided when creating the TreeSet and HashSet collections.
+For example:
+public class BigDecimalTest {
+    BigDecimal x = new BigDecimal ("1.0");
+    BigDecimal y = new BigDecimal ("1.00");
+    //override equals method
+    @Override
+    public boolean equals(Object obj) {
+        if(obj instanceof BigDecimal) {
+            return this.compareTo((BigDecimal) obj) == 0;
+        }
+        return false;
+    }
+    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
+    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+    BigDecimalTree.add (x);
+    BigDecimalTree.add (y);
+    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
+    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+    BigDecimalHash.add (x);
+    BigDecimalHash.add (y);
+    // HashSet uses equals(), so BigDecimalHash will now have 1 element
+    }
+    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
+    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
+    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
+    // See Java Doc for add() in Set Interface
+This modification will ensure that the equals() method will return true when comparing x and y and fix the inconsistency between equals() and compareTo() methods in the BigDecimal class.</t>
+  </si>
+  <si>
+    <t>It is not possible to give a test case that does not execute the fault because the fault is inherent in the way that the BigDecimal class is implemented. The equals() and compareTo() methods in the BigDecimal class return different results for certain values, which causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
+However, once the equals method is overriden as described in (a) with the compareTo method, the test case will be successful.
+For example:
+BigDecimal x = new BigDecimal ("1.0");
+BigDecimal y = new BigDecimal ("1.00");
+Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+BigDecimalTree.add (x);
+BigDecimalTree.add (y);
+assertEquals(1,BigDecimalTree.size());
+Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+BigDecimalHash.add (x);
+BigDecimalHash.add (y);
+assertEquals(1,BigDecimalHash.size());
+In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the given example, the problem is that the BigDecimal class's equals() and compareTo() methods are inconsistent. The code creates two BigDecimal objects, x and y, with the values "1.0" and "1.00" respectively. Even though x and y are not equal according to the equals() method (!x.equals(y)), the compareTo() method returns 0, indicating that they are equal.
+When these objects are added to a TreeSet, the set uses the compareTo() method to determine equality, so only one element is added to the set. However, when added to a HashSet, the set uses the equals() method, so both x and y are added to the set.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>A test case that executes this fault but does not result in an error state would be to create two BigDecimal objects with slightly different values,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and add them to both a TreeSet and a HashSet. The output of the test would show that the TreeSet only has one element, while the HashSet has two elements, which would demonstrate the inconsistency between the equals() and compareTo() methods in the BigDecimal class.</t>
+    </r>
+  </si>
+  <si>
+    <t>As I mentioned before, one approach to repair the fault in the code is to override the equals() method in the BigDecimal class to use the compareTo() method instead.
+Here is the modified code:
+public class BigDecimalTest {
+    BigDecimal x = new BigDecimal ("1.0");
+    BigDecimal y = new BigDecimal ("1.00");
+    //override equals method
+    @Override
+    public boolean equals(Object obj) {
+        if(obj instanceof BigDecimal) {
+            return this.compareTo((BigDecimal) obj) == 0;
+        }
+        return false;
+    }
+    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
+    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+    BigDecimalTree.add (x);
+    BigDecimalTree.add (y);
+    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
+    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+    BigDecimalHash.add (x);
+    BigDecimalHash.add (y);
+    // HashSet uses equals(), so BigDecimalHash will now have 1 element
+    }
+    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
+    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
+    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
+With this modification, the test case that was provided will now produce the expected output.
+BigDecimal x = new BigDecimal ("1.0");
+BigDecimal y = new BigDecimal ("1.00");
+Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
+BigDecimalTree.add (x);
+BigDecimalTree.add (y);
+assertEquals(1,BigDecimalTree.size());
+Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
+BigDecimalHash.add (x);
+BigDecimalHash.add (y);
+assertEquals(1,BigDecimalHash.size());
+In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.
+I apologize but as a language model AI I am not able to provide you with a screenshot or any other evidence, but you can run the code and see that it works as expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is possible to give a test case that executes the fault but does not result in an error state.
+For example, the following test case:
+Point p = new Point (1,2);
+ColorPoint cp1 = new ColorPoint (1,2,RED);
+ColorPoint cp2 = new ColorPoint (1,2,BLUE);
+p.equals (cp1); // Test 1: Result = true;
+This test case will execute the fault because the equals method in the ColorPoint class does not properly check for equality of all relevant fields, including the color field, when comparing ColorPoint objects. However, it does not result in an error state because the result of the comparison is true.
+This is because the equals method of Point class is being used to compare the Point and ColorPoint object, it checks for equality of x and y fields and hence the comparison returns true.
+Even though this test case does not result in an error state, it is still problematic because it can lead to unexpected behavior and bugs in the program, as it is returning true when it should be false.
+</t>
+  </si>
+  <si>
+    <t>Most continuous integration systems offer far more than automated test execution. Extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3587,13 +4299,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3609,12 +4333,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3676,7 +4394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3693,17 +4411,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3714,8 +4432,14 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4030,16 +4754,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01564EF9-5124-C249-B954-263F7E963FB7}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="W33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB34" sqref="AB34:AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
@@ -4068,24 +4792,26 @@
     <col min="28" max="28" width="14.1640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
     <col min="30" max="30" width="12.83203125" style="1" customWidth="1"/>
-    <col min="31" max="33" width="8.83203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20" style="1" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" style="1" customWidth="1"/>
     <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4098,9 +4824,9 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="J1" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -4112,7 +4838,7 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -4124,7 +4850,7 @@
       <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
@@ -4137,9 +4863,9 @@
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="W1" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="W1" s="11" t="s">
         <v>20</v>
       </c>
       <c r="X1" s="2" t="s">
@@ -4151,7 +4877,7 @@
       <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="AB1" s="2" t="s">
@@ -4165,8 +4891,8 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>253</v>
+      <c r="A2" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -4178,19 +4904,19 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>294</v>
+        <v>304</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -4202,7 +4928,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -4214,13 +4940,10 @@
         <v>45</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>343</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>47</v>
@@ -4242,8 +4965,8 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>253</v>
+      <c r="A3" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -4255,7 +4978,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -4266,8 +4989,8 @@
       <c r="H3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>294</v>
+      <c r="I3" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -4279,7 +5002,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -4316,8 +5039,8 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>253</v>
+      <c r="A4" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -4329,7 +5052,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -4337,8 +5060,8 @@
       <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>294</v>
+      <c r="I4" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -4350,7 +5073,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -4387,8 +5110,8 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>253</v>
+      <c r="A5" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -4400,72 +5123,69 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>253</v>
+      <c r="A6" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -4477,7 +5197,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>264</v>
+        <v>359</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -4486,49 +5206,49 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>40</v>
@@ -4538,8 +5258,8 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>253</v>
+      <c r="A7" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -4551,81 +5271,84 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>294</v>
+        <v>41</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="N7" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="W7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="X7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>254</v>
+      <c r="A8" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>40</v>
@@ -4634,167 +5357,161 @@
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>254</v>
+      <c r="A9" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AB9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>254</v>
+      <c r="A10" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>40</v>
@@ -4803,7 +5520,7 @@
         <v>41</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>40</v>
@@ -4812,7 +5529,7 @@
         <v>41</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>40</v>
@@ -4821,7 +5538,7 @@
         <v>41</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>40</v>
@@ -4830,7 +5547,7 @@
         <v>41</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>40</v>
@@ -4840,20 +5557,20 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>254</v>
+      <c r="A11" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
@@ -4862,13 +5579,13 @@
         <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>294</v>
+        <v>239</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>40</v>
@@ -4877,7 +5594,7 @@
         <v>44</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>40</v>
@@ -4886,152 +5603,137 @@
         <v>44</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>254</v>
+      <c r="A12" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>294</v>
+        <v>245</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>93</v>
+        <v>279</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>254</v>
+      <c r="A13" s="6" t="s">
+        <v>230</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>294</v>
+        <v>245</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>40</v>
@@ -5039,11 +5741,9 @@
       <c r="L13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="M13" s="3"/>
       <c r="N13" s="1" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>40</v>
@@ -5051,23 +5751,18 @@
       <c r="P13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>40</v>
@@ -5075,37 +5770,32 @@
       <c r="Y13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z13" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>255</v>
+      <c r="A14" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -5114,13 +5804,13 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>257</v>
+        <v>236</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>43</v>
@@ -5129,7 +5819,7 @@
         <v>44</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>43</v>
@@ -5138,7 +5828,7 @@
         <v>44</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>43</v>
@@ -5147,7 +5837,7 @@
         <v>44</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>43</v>
@@ -5156,7 +5846,7 @@
         <v>44</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>43</v>
@@ -5166,109 +5856,109 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>255</v>
+      <c r="A15" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P15" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="X15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>255</v>
+      <c r="A16" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>257</v>
+        <v>239</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>40</v>
@@ -5277,57 +5967,57 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>120</v>
+        <v>366</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>255</v>
+      <c r="A17" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>43</v>
@@ -5336,13 +6026,13 @@
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>257</v>
+        <v>239</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>40</v>
@@ -5351,19 +6041,16 @@
         <v>41</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>123</v>
+      <c r="P17" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>40</v>
@@ -5372,7 +6059,7 @@
         <v>41</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>40</v>
@@ -5380,52 +6067,46 @@
       <c r="Y17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="AA17" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD17" s="1" t="s">
-        <v>341</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>255</v>
+      <c r="A18" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>248</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>257</v>
+        <v>306</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>40</v>
@@ -5433,11 +6114,8 @@
       <c r="L18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="N18" s="1" t="s">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>40</v>
@@ -5445,11 +6123,8 @@
       <c r="P18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="R18" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>40</v>
@@ -5457,11 +6132,8 @@
       <c r="T18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="W18" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="X18" s="3" t="s">
         <v>40</v>
@@ -5469,126 +6141,105 @@
       <c r="Y18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="AA18" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AB18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="AD18" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>255</v>
+      <c r="A19" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD19" s="1" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>256</v>
+      <c r="A20" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>46</v>
@@ -5597,87 +6248,72 @@
         <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>258</v>
+        <v>251</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD20" s="1" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>256</v>
+      <c r="A21" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -5686,31 +6322,31 @@
         <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>258</v>
+        <v>236</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>40</v>
@@ -5719,19 +6355,16 @@
         <v>41</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="AA21" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>43</v>
@@ -5741,62 +6374,62 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>256</v>
+      <c r="A22" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="1" t="s">
+      <c r="K22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>40</v>
@@ -5805,7 +6438,7 @@
         <v>41</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>40</v>
@@ -5815,71 +6448,71 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>256</v>
+      <c r="A23" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>258</v>
+        <v>239</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -5889,20 +6522,20 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>256</v>
+      <c r="A24" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>43</v>
@@ -5911,13 +6544,13 @@
         <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>258</v>
+        <v>146</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>43</v>
@@ -5926,7 +6559,7 @@
         <v>44</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>43</v>
@@ -5935,7 +6568,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>43</v>
@@ -5944,7 +6577,7 @@
         <v>44</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>43</v>
@@ -5953,33 +6586,30 @@
         <v>44</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AD24" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>256</v>
+      <c r="A25" s="6" t="s">
+        <v>232</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -5988,13 +6618,13 @@
         <v>41</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>40</v>
@@ -6003,7 +6633,7 @@
         <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>40</v>
@@ -6012,7 +6642,7 @@
         <v>41</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>40</v>
@@ -6021,40 +6651,34 @@
         <v>41</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z25" s="1" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="1" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>2.1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I26" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="I26" s="5"/>
       <c r="R26" s="1" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>43</v>
@@ -6062,14 +6686,11 @@
       <c r="T26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U26" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="V26" s="6" t="s">
-        <v>291</v>
+      <c r="V26" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>43</v>
@@ -6078,7 +6699,7 @@
         <v>44</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>43</v>
@@ -6088,19 +6709,19 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>3.4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M27"/>
       <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>43</v>
@@ -6108,11 +6729,11 @@
       <c r="T27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V27" s="6" t="s">
-        <v>258</v>
+      <c r="V27" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>43</v>
@@ -6122,7 +6743,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>43</v>
@@ -6133,14 +6754,14 @@
       <c r="AD27"/>
     </row>
     <row r="28" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>3.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -6149,7 +6770,7 @@
       <c r="P28" s="3"/>
       <c r="Q28"/>
       <c r="R28" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>43</v>
@@ -6157,122 +6778,122 @@
       <c r="T28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V28" s="6" t="s">
-        <v>294</v>
+      <c r="V28" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z28"/>
       <c r="AA28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC28" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD28"/>
     </row>
     <row r="29" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>3.9</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M29"/>
       <c r="N29" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q29"/>
       <c r="R29" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z29"/>
       <c r="AA29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC29" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD29"/>
     </row>
     <row r="30" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>3.9</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>43</v>
@@ -6280,11 +6901,11 @@
       <c r="G30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>294</v>
+      <c r="I30" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>43</v>
@@ -6294,7 +6915,7 @@
       </c>
       <c r="M30"/>
       <c r="N30" s="1" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>43</v>
@@ -6304,7 +6925,7 @@
       </c>
       <c r="Q30"/>
       <c r="R30" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>43</v>
@@ -6315,7 +6936,7 @@
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>43</v>
@@ -6325,7 +6946,7 @@
       </c>
       <c r="Z30"/>
       <c r="AA30" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>43</v>
@@ -6336,310 +6957,288 @@
       <c r="AD30"/>
     </row>
     <row r="31" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>3.9</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>294</v>
+        <v>264</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M31"/>
       <c r="N31" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q31"/>
       <c r="R31" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z31"/>
       <c r="AA31" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC31" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD31"/>
     </row>
     <row r="32" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>3.9</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>294</v>
+        <v>265</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M32"/>
       <c r="N32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Q32"/>
       <c r="R32" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="Z32"/>
       <c r="AA32" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AD32"/>
     </row>
     <row r="33" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>3.9</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>294</v>
+        <v>68</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="O33" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="P33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" s="3"/>
       <c r="R33" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>204</v>
+        <v>68</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="X33" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="X33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z33" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="Y33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="AC33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD33" s="3"/>
     </row>
     <row r="34" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>303</v>
+      <c r="A34" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+        <v>193</v>
+      </c>
+      <c r="I34" s="5"/>
       <c r="R34" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U34" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="V34" s="6" t="s">
-        <v>258</v>
+        <v>41</v>
+      </c>
+      <c r="V34" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="AA34" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="I35" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="I35" s="5"/>
       <c r="R35" s="1" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>43</v>
@@ -6647,11 +7246,11 @@
       <c r="T35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V35" s="6" t="s">
-        <v>294</v>
+      <c r="V35" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>43</v>
@@ -6659,83 +7258,71 @@
       <c r="Y35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z35" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="AA35" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC35" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AD35" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:30" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>4.2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="I36" s="5"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="R36" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="V36" s="6" t="s">
-        <v>294</v>
+        <v>201</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y36" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AA36" s="1" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="AB36" s="3" t="s">
         <v>43</v>
       </c>
       <c r="AC36" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>4.3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I37" s="6"/>
+        <v>369</v>
+      </c>
+      <c r="I37" s="5"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="R37" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
@@ -6743,47 +7330,39 @@
       <c r="T37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U37" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="V37" s="6" t="s">
-        <v>258</v>
+      <c r="V37" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>46</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z37" s="3" t="s">
-        <v>248</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="Z37" s="3"/>
       <c r="AA37" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB37" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD37" s="1" t="s">
-        <v>247</v>
+      <c r="AC37" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I38" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="I38" s="5"/>
       <c r="R38" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>40</v>
@@ -6791,47 +7370,40 @@
       <c r="T38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U38" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="V38" s="6" t="s">
-        <v>258</v>
+      <c r="V38" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" s="3"/>
       <c r="AA38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>249</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD38" s="3"/>
     </row>
     <row r="39" spans="1:30" ht="404" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>4.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I39" s="6"/>
+        <v>210</v>
+      </c>
+      <c r="I39" s="5"/>
       <c r="R39" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>40</v>
@@ -6839,14 +7411,11 @@
       <c r="T39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U39" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="V39" s="6" t="s">
-        <v>294</v>
+      <c r="V39" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>40</v>
@@ -6854,37 +7423,32 @@
       <c r="Y39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z39" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="AA39" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>250</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD39" s="3"/>
     </row>
     <row r="40" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>46</v>
@@ -6893,13 +7457,13 @@
         <v>41</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>257</v>
+        <v>227</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>46</v>
@@ -6907,11 +7471,8 @@
       <c r="L40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="N40" s="1" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="O40" s="1" t="s">
         <v>46</v>
@@ -6919,11 +7480,8 @@
       <c r="P40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="R40" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
@@ -6931,11 +7489,8 @@
       <c r="T40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U40" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="W40" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>46</v>
@@ -6943,11 +7498,8 @@
       <c r="Y40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z40" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="AA40" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>46</v>
@@ -6955,25 +7507,22 @@
       <c r="AC40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AD40" s="1" t="s">
-        <v>251</v>
-      </c>
     </row>
     <row r="41" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>5.0999999999999996</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
@@ -6981,11 +7530,11 @@
       <c r="G41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>257</v>
+      <c r="I41" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>43</v>
@@ -6994,7 +7543,7 @@
         <v>44</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O41" s="1" t="s">
         <v>43</v>
@@ -7003,7 +7552,7 @@
         <v>44</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>43</v>
@@ -7012,7 +7561,7 @@
         <v>44</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>43</v>
@@ -7021,7 +7570,7 @@
         <v>44</v>
       </c>
       <c r="AA41" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>43</v>
@@ -7031,8 +7580,1202 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B16344-5CD1-5B42-94BE-73784C9C8630}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49" customWidth="1"/>
+    <col min="8" max="8" width="35.5" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="86.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="356" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="404" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="323" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="388" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="388" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="388" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="404" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="404" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="356" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="272" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="356" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="I1:I41" xr:uid="{10B16344-5CD1-5B42-94BE-73784C9C8630}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D7A3E3-AED6-2A45-84ED-EB975042F217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F56147-EACB-DB4A-ACDA-84E25A2893D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="confidence re-run" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$T$1:$T$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$T$1:$T$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'confidence re-run'!$I$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -411,88 +411,7 @@
 - Return value: None (as it throws exception)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-My repair for the given code was to change the loop traversal direction to start from the end of the array and move towards the beginning, so that the first zero encountered would be the last zero in the array.
-```
-public static int lastZero (int[] x) {
-    if(x == null) return -1;
-    for (int i = x.length-1; i &gt;= 0; i--) {
-        if (x[i] == 0) {
-            return i;
-        }
-    }
-    return -1;
-}
-```
-The given test case:
-```
-int[] x = {0, 1, 0};
-int result = lastZero(x);
-System.out.println("Expected = 2, Result = " + result);
-```
-Will now produce the expected output of 2, as the method will start from the end of the array and return the first zero it encounters which is the last zero in the array.
-Also, I have added a check for the null input arrays so that it returns -1 if array is null.
-It's worth mentioning that this is a simulation and I don't have access to any system to run this code and show the output, however, you can run this code on your local machine and check the output.
-</t>
-  </si>
-  <si>
     <t>APC</t>
-  </si>
-  <si>
-    <t>To find the last index of zero in an array, you can iterate through the array in reverse order and check if the current element is equal to zero. If it is, return the index. If the loop completes without finding a zero, return -1. Here is an updated implementation of the `lastZero` method:
-```
-public static int lastZero (int[] x) {
-    for (int i = x.length - 1; i &gt;= 0; i--) {
-        if (x[i] == 0) {
-            return i;
-        }
-    }
-    return -1;
-}
-```
-You can test your implementation by creating an array of integers and calling the `lastZero` method on it, and comparing the result to what you expect it to be:
-```
-int[] testArray = {1, 2, 3, 0, 4, 5, 0};
-int lastZeroIndex = lastZero(testArray);
-System.out.println("Last zero index: " + lastZeroIndex);
-```
-Expected Output: `Last zero index: 6`
-If the output match the expectation, you can say that the solution is working fine and also can capture the output in some image and that can be your evidence of the solution working.</t>
-  </si>
-  <si>
-    <t>Here is the corrected version of the code that finds the last index of zero in the array:
-```
-public static int lastZero (int[] x)
-{
-   int lastIndex = -1;
-   for (int i = 0; i &lt; x.length; i++)
-   {
-      if (x[i] == 0)
-      {
-         lastIndex = i;
-      }
-   }
-   return lastIndex;
-}
-```
-In this version, I've added a variable `lastIndex` initialized to -1, to keep track of the last index of 0 that we come across in the loop. I've also changed the return statement inside the loop to update the `lastIndex` variable instead of returning the index immediately. This way, the loop will continue to iterate through the entire array, and the `lastIndex` variable will hold the last index of 0 that was found in the array.
-Testing the code with the input `x = [0, 1, 0]` will give the output `2`, which is the expected result.</t>
-  </si>
-  <si>
-    <t>I'm sorry, I am an AI language model and I am not able to take screenshots or execute code. However, I can help you implement the repair to the given function.
-The given function iterates through the array and returns the index of the first zero it finds. To make it return the index of the last zero, you need to update the loop to start at the end of the array and iterate backwards. Additionally, you should initialize a variable to store the last zero index found, and update it only if a zero is found at a higher index than the previously found index. Here is an example of how to implement this:
-```
-    public static int lastZero (int[] x) {
-        int lastZeroIndex = -1;
-        for (int i = x.length - 1; i &gt;= 0; i--) {
-            if (x[i] == 0) {
-                lastZeroIndex = i;
-            }
-        }
-        return lastZeroIndex;
-    }
-```
-You can then test the function with the given test case and verify that the expected output is produced.</t>
   </si>
   <si>
     <t>/**
@@ -713,69 +632,6 @@
     <t>The first error state in this test case would be if the input array 'x' is null, causing a NullPointerException to be thrown in the method. This would occur on the first line of the method before any logic is executed, as the method checks for a null value before counting the elements in the array. The complete state of the error would be that the input array 'x' is null and a NullPointerException is thrown.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-As I am a text-based AI model, I am not able to provide a screen printout or other evidence of the program running. However, I can tell you that the repair I proposed in my previous answer would fix the issue with the given code. The modification I proposed was to add a null check before the for loop to ensure that the input array is not null. If the input array is null then it throws an `IllegalArgumentException` with a message "Input array is null.".
-Here is the modified code:
-```
-public static int oddOrPos (int[] x)
-{
-    if (x == null) {
-        throw new IllegalArgumentException("Input array is null.");
-    }
-    int count = 0;
-    for (int i = 0; i &lt; x.length; i++)
-    {
-        if (x[i]%2 == 1 || x[i] &gt; 0)
-        {
-            count++;
-        }
-    }
-    return count;
-}
-```
-If you run the test case:
-```
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-System.out.println(result);
-```
-with this modified code, it will produce the expected output of 3, which is the number of elements in the array that are either odd or positive. If you pass a null value to this method, it will throw `IllegalArgumentException` with message "Input array is null."
-This modified code will handle the error state in a graceful way, it will not cause the program to terminate abruptly and it will allow the program to continue execution after the error is handled.
-</t>
-  </si>
-  <si>
-    <t>This code appears to be a Java method for counting the number of elements in an array that are either odd or positive (or both). The method first checks if the input array `x` is null, and throws a `NullPointerException` if it is. If the input array is not null, the method then iterates through each element of the array, and checks if the element is odd (by using the modulus operator to check if the element is not divisible by 2) or if the element is positive (greater than 0). If either of these conditions is true, the count variable is incremented. Finally, the method returns the count of elements that meet the criteria.
-It appears that the requirement is to fix the code to correctly count all elements of the array that are either odd or positive, and not just odd. To fix the code, we could change the if statement to check 
-```if (x[i] % 2 != 0 || x[i] &gt; 0)``` 
-The current if statement check for x[i] &gt; 0 but in case the element is negative and even it will be considered as not odd or positive. But if we use above if statement it will take care of even positive numbers too.
-Please verify the output for the given test cases and consider it as a evidence for the new program working.</t>
-  </si>
-  <si>
-    <t>I'm sorry, I am an AI language model and do not have the capability to execute code or take screenshots. However, based on the provided code, it looks like the function "oddOrPos" is counting the number of elements in the input array "x" that are either odd or positive. The given test case, where x = [-3, -2, 0, 1, 4], should return 3 as there are 3 elements (1, -2 and 4) that are either odd or positive in the array x. If this test case returns the expected output, then the function should be working correctly.</t>
-  </si>
-  <si>
-    <t>The given code appears to be a Java method that counts the number of elements in an array that are either odd or positive (or both). The method takes in an array of integers as its only parameter, and uses a for loop to iterate through the array and check if each element is odd or positive. If it is, the count variable is incremented. The method then returns the final count.
-To fix the issue that the test case x = [-3, -2, 0, 1, 4]  is not producing the expected output of 3. I would suggest changing the condition in the if statement from (x[i]%2 == 1 || x[i] &gt; 0)  to (x[i]%2 != 0 || x[i] &gt; 0). This would include both positive even numbers and negative numbers in the count, which would give us the expected output.
-The fixed code should look like this:
-```
-public static int oddOrPos (int[] x)
-   {  // Effects:  if x is null throw NullPointerException
-      // else return the number of elements in x that
-      //      are either odd or positive (or both)
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++)
-      {
-         if (x[i]%2 != 0 || x[i] &gt; 0)
-         {
-            count++;
-         }
-      }
-      return count;
-   }
-```
-After this implementation, the test case x = [-3, -2, 0, 1, 4]  should produce the expected output of 3.</t>
-  </si>
-  <si>
     <t>If possible, give a test case that does not execute the fault. If not, briefly explain why
 not.</t>
   </si>
@@ -998,104 +854,6 @@
     <t>The first error state in the given code occurs when the elements x and y, which are instances of the BigDecimal class with the values "1.0" and "1.00" respectively, are added to the BigDecimalTree Set. Since the TreeSet uses the compareTo() method for comparison, the element y is considered equal to the element x and is not added to the set, resulting in the BigDecimalTree Set having only 1 element. This is an error state as the expected behavior is that the BigDecimalTree Set should have 2 elements, x and y, as they have different values.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-As previously discussed, one way to fix this issue is to modify the `equals()` method in the `BigDecimal` class so that it is consistent with the `compareTo()` method.
-Here's the modified `BigDecimal` class:
-```
-public class BigDecimal {
-    private java.math.BigDecimal value;
-    public BigDecimal(String val) {
-        value = new java.math.BigDecimal(val);
-    }
-    @Override
-    public boolean equals(Object o) {
-        if (o instanceof BigDecimal) {
-            return value.compareTo(((BigDecimal) o).value) == 0;
-        }
-        return false;
-    }
-    public int compareTo(BigDecimal bd) {
-        return value.compareTo(bd.value);
-    }
-}
-```
-With this modification, we can run the test case
-```
-BigDecimal x = new BigDecimal("1.0");
-BigDecimal y = new BigDecimal("1.00");
-Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
-BigDecimalTree.add(x);
-BigDecimalTree.add(y);
-Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
-BigDecimalHash.add(x);
-BigDecimalHash.add(y);
-System.out.println("BigDecimalTree = " + BigDecimalTree);
-System.out.println("BigDecimalHash = " + BigDecimalHash);
-```
-The output will be 
-```
-BigDecimalTree = [1]
-BigDecimalHash = [1]
-```
-which is the expected output.
-It should be noted that this is a simplified version of the class, and in practice, the `BigDecimal` class has more methods and constructors that would also need to be modified to ensure consistency between `equals()` and `compareTo()` throughout the class.
-</t>
-  </si>
-  <si>
-    <t>The problem with the given code is that in BigDecimal, the equals() and compareTo() methods are inconsistent, which causes unexpected behavior when using the BigDecimal class in a Set. Specifically, when adding x and y to a TreeSet, only one element is added because TreeSet uses compareTo(), and x.compareTo(y) returns 0. However, when adding x and y to a HashSet, both elements are added because HashSet uses equals() and x.equals(y) returns false.
-One way to "repair" this problem would be to override the equals() method in BigDecimal to be consistent with compareTo(). A possible implementation would be to use the following in the BigDecimal class:
-```
-@Override
-public boolean equals(Object o) {
-    if (o instanceof BigDecimal) {
-        return compareTo((BigDecimal) o) == 0;
-    }
-    return false;
-}
-```
-This implementation of equals uses compareTo() to compare two BigDecimal objects and returns true only if they are equal according to compareTo() (i.e., when compareTo() returns 0). This ensures that the behavior of equals is consistent with the behavior of compareTo.
-The test case you mentioned in your question should now work as expected and will give the output:
-```
-BigDecimalTree = 1
-BigDecimalHash = 1,1
-```
-Please Note that this implementation is based on the assumption that, compareTo() implementation already correct, as you have mentioned "suppose we decide that compareTo() is correct, and that equals() is faulty"</t>
-  </si>
-  <si>
-    <t>The given code uses BigDecimal objects in a TreeSet and a HashSet. It is stated that the `equals()` method of BigDecimal is inconsistent with its `compareTo()` method. The TreeSet uses the `compareTo()` method for its elements, so the TreeSet only has one element, while the HashSet uses the `equals()` method, so it has two elements.
-To repair this issue, one solution would be to override the `equals()` method in the BigDecimal class to use the `compareTo()` method instead. This way, the `equals()` method would be consistent with the `compareTo()` method, and the HashSet would have the same behavior as the TreeSet.
-Here's an example of how the BigDecimal class could be modified to fix the issue:
-```
-public class BigDecimal {
-    // existing code ...
-    @Override
-    public boolean equals(Object o) {
-        if (o instanceof BigDecimal) {
-            return compareTo((BigDecimal) o) == 0;
-        }
-        return false;
-    }
-}
-```
-With this modification, the test code would produce the expected output of "BigDecimalTree = 1; BigDecimalHash = 1".
-It is better to use a wrapper class that wraps BigDecimal and override the equals method, rather than modifying BigDecimal class which is a final class.</t>
-  </si>
-  <si>
-    <t>The provided code demonstrates an issue with the implementation of the `equals()` and `compareTo()` methods in the `BigDecimal` class. The `equals()` method returns `false` when comparing `x` and `y`, even though `x.compareTo(y)` returns `0`, indicating that they are equal. As a result, when adding `x` and `y` to a `TreeSet`, only one element is added to the set (since `TreeSet` uses `compareTo()` for element ordering and comparison), while adding them to a `HashSet` results in both elements being added (since `HashSet` uses `equals()` for element comparison).
-To repair this issue, the `equals()` method in the `BigDecimal` class should be overridden to use the same comparison logic as the `compareTo()` method. This can be done by adding the following code to the `BigDecimal` class:
-```
-@Override
-public boolean equals(Object obj) {
-    if (!(obj instanceof BigDecimal)) {
-        return false;
-    }
-    return compareTo((BigDecimal) obj) == 0;
-}
-```
-With this modification, when adding `x` and `y` to a `TreeSet` and `HashSet`, both sets will have only one element. Thus, the test output will be "BigDecimalTree = 1; BigDecimalHash = 1" which is the expected output.
-It is advisable to also override the hashCode method as well to follow the contract of hashcode and equals.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consider the following three example classes. These are OO faults taken from Joshua Bloch’s
 Effective Java, Second Edition. Answer the following questions about each.
 class Point
@@ -1341,140 +1099,6 @@
   <si>
     <t>The first error state in the given code is in the implementation of the `equals` method in the `ColorPoint` class. The implementation overrides the `equals` method inherited from the `Point` class, but it only returns `true` if the passed-in object is an instance of `ColorPoint` and if the color of the two objects match. This means that if an instance of `Point` is passed to the `equals` method of an instance of `ColorPoint`, the method will always return `false`, even if the x and y coordinates of the two points are the same. This violates the symmetric and transitive requirements of the `equals` method, as described in the `Object` class.
 Another error state in the given code is the class hierarchy, `ColorPoint` extends `Point` and `Point` is instantiable and the subclass state is extended by adding `color` attribute. This design decision can lead to many issues like tests 1 and 2 returning different results, whereas they should return the same results.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-As I explained before, to correct this fault, the equals method in the ColorPoint class should be modified to first check if the object being compared to is an instance of Point, and if so, call the superclass's equals method and check if the colors are the same.
-```
-@Override public boolean equals (Object o) {
-    if (o == null || getClass() != o.getClass()) return false;
-    if (o instanceof Point) {
-        Point p = (Point) o;
-        return (p.x == this.x) &amp;&amp; (p.y == this.y);
-    }
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-}
-```
-With this modification, the test case that caused the error state before:
-```
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-p.equals (cp1); // Test: Result = false;
-```
-Now it should return true, indicating that the two instances of Point and ColorPoint are equal.
-I'm an AI language model, I can not run the code and give you a screen printout, but you can run the code with the modification and check the expected results.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The class Point defines a basic class for representing a point in a 2D space. It has two private fields x and y that represent the coordinates of the point, and a constructor that initializes them. It also overrides the equals method, so that two points are considered equal if their coordinates are the same.
-The ColorPoint class extends the Point class and adds an additional field color that represents the color of the point. It also overrides the equals method, but it has a fault, because it only considers two ColorPoint objects equal if their coordinates and color are the same. This is problematic because it breaks the symmetry of the equals contract, as it will return false for the following test: p.equals(cp1) and cp1.equals(p) even though both points have the same coordinates.
-To fix this issue, I would update the equals method of the ColorPoint class as follows:
-@Override public boolean equals (Object o) {
-    if (o == this) return true;
-    if (!(o instanceof Point)) return false;
-    if (o.getClass() != getClass()) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-}
-This way, it will first check if the two objects are the same and if not, it will check that the class of the object is the same as the class of the point being compared with.
-Then, it will call the equals method of super class, instead of only checking for coordinates in the same class.
-With this modification, the following tests will produce the expected results:
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-cp1.equals (p); // Test 2: Result = true;
-cp1.equals (cp2); // Test 3: Result = false;
-It's worth noting that in Java, It's recommended to also override the hashCode() method when we override the equals() method, so the two methods are consistent with each other.
-</t>
-  </si>
-  <si>
-    <t>The class Point has an equals method that correctly checks if two Point objects are equal by comparing their x and y coordinates. However, in the subclass ColorPoint, the equals method is overridden and only checks if two ColorPoint objects are equal by comparing their color in addition to their x and y coordinates. This causes the problem that if a Point object and a ColorPoint object with the same x and y coordinates are compared, the result will be false, which is not the expected behavior.
-To repair this issue, the equals method in the ColorPoint class should first check if the passed object is an instance of Point, and if so, call the equals method of the superclass (Point) and return the result. This way, if a Point object and a ColorPoint object with the same x and y coordinates are compared, the result will be true, as expected. Additionally, the equals method in the Point class should be updated to check if the passed object is an instance of ColorPoint, and if so, cast it to a ColorPoint and return the comparison of the color.
-The tests given in the example:
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-cp1.equals (p); // Test 2: Result = true;
-cp1.equals (cp2); // Test 3: Result = false;
-will now produce the expected output.
-Here is the modified code:
-class Point
-{
-private int x; private int y;
-public Point (int x, int y) { this.x=x; this.y=y; }
-@Override public boolean equals (Object o)
-{
-    if (o instanceof Point) {
-        Point p = (Point) o;
-        return (p.x == this.x) &amp;&amp; (p.y == this.y);
-    }
-    if (o instanceof ColorPoint) {
-        ColorPoint cp = (ColorPoint) o;
-        return (cp.x == this.x) &amp;&amp; (cp.y == this.y) &amp;&amp; (cp.color == this.color);
-    }
-    return false;
-}
-}
-class ColorPoint extends Point
-{
-private Color color;
-public ColorPoint (int x, int y, Color color)
-{
-super (x,y);
-this.color=color;
-}
-@Override public boolean equals (Object o)
-{
-    if (o instanceof Point) {
-        return super.equals(o);
-    }
-    if (!(o instanceof ColorPoint)) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-}
-}
-I hope this helps!</t>
-  </si>
-  <si>
-    <t>The class Point defines a simple class that represents a point in 2D space. It has two private instance variables, x and y, that represent the x and y coordinates of the point. The class has a constructor that initializes these variables and an equals method that compares the x and y coordinates of this point with another point object.
-The class ColorPoint is a subclass of Point. It extends the state of the Point class by adding a private instance variable, color, that represents the color of the point. The class has a constructor that calls the constructor of the superclass and initializes the color variable. It also overrides the equals method of the superclass to include a comparison of the color instance variable in addition to the x and y coordinates.
-The fault in this class hierarchy is that the equals method in the ColorPoint class does not properly handle the case when it is passed a Point object instead of a ColorPoint object. The current implementation returns false in that case, which is incorrect. The expected behavior is that the equals method should return true when a Point object and a ColorPoint object have the same x and y coordinates, regardless of the color of the ColorPoint object.
-To fix this issue, the equals method in the ColorPoint class should be modified to first check if the passed object is an instance of Point, and if so, call the equals method of the superclass to compare the x and y coordinates. If the passed object is not an instance of Point, then it should continue to check if it is an instance of ColorPoint and compare the color variable as well.
-Here's the fixed code:
-```
-class ColorPoint extends Point
-{
-private Color color;
-// Fault: Superclass instantiable; subclass state extended
-public ColorPoint (int x, int y, Color color)
-{
-super (x,y);
-this.color=color;
-}
-@Override public boolean equals (Object o)
-{
-if (!(o instanceof Point)) return false;
-if (o instanceof ColorPoint) {
-ColorPoint cp = (ColorPoint) o;
-return (super.equals(cp) &amp;&amp; (cp.color == this.color));
-} else {
-    return super.equals(o);
-}
-}
-```
-With above modification, the tests:
-```
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-p.equals (cp1); // Test 1: Result = true;
-cp1.equals (p); // Test 2: Result = true;
-cp1.equals (cp2); // Test 3: Result = false;
-```
-Will produce the expected output.</t>
   </si>
   <si>
     <t>How are faults and failures related to testing and debugging?</t>
@@ -2019,16 +1643,6 @@
     <t>Replace each occurrence of a set with a list in the JUnit theory removeThenAddDoesNotChangeSet. Is the resulting theory valid or invalid? How many of the tests that pass the precondition also pass the postcondition? Explain.</t>
   </si>
   <si>
-    <t>It is not possible to determine if the resulting theory is valid or invalid without more information on the specific implementation of the JUnit theory "removeThenAddDoesNotChangeSet." 
-In order to determine if the tests pass the precondition and postcondition, one would need to see the specific test cases being run and the expected results.
-In general, replacing a set with a list in a JUnit theory could change the behavior of the tests, as sets and lists have different characteristics and methods. Sets do not allow duplicate elements and have no defined order, while lists do allow duplicate elements and have a defined order. This means that the tests would have to be re-written or adapted to account for these differences, and it's possible that the original tests would no longer pass the precondition or postcondition.</t>
-  </si>
-  <si>
-    <t>It is not possible for me to determine whether the resulting theory is valid or invalid without more information about the specific JUnit theory in question, as well as the specific set and list implementations being used.
-However, in general, replacing a set with a list in a JUnit theory could potentially make the theory invalid. This is because sets and lists have different characteristics and behaviors. Sets do not allow duplicate elements, while lists do. Sets are typically unordered, while lists have a specific order. Therefore, replacing a set with a list in a JUnit theory could change the behavior of the theory and the results of the tests.
-Without more information, I cannot determine how many of the tests that pass the precondition also pass the postcondition. The tests that pass the precondition may fail the postcondition and vice versa.</t>
-  </si>
-  <si>
     <t>public class Calc
 {
    static public int add (int a, int b)
@@ -2165,139 +1779,10 @@
     <t>Set up a continuous integration server. Include version control for both source code and tests, and populate both with a simple example. Experiment with “breaking the build,” by either introducing a fault into the source code or adding a failing test case. Restore the build.</t>
   </si>
   <si>
-    <t xml:space="preserve">Here is an example of how to set up a continuous integration server using Jenkins, a popular open-source tool:
-1. Install Jenkins on a server or a local machine.
-2. Configure Jenkins to use a version control system such as Git for source code and tests. You will need to provide Jenkins with the repository URL and credentials.
-3. Create a Jenkins job to build and test your project. You can use a Jenkins plugin such as the "Pipeline" plugin to define your build pipeline.
-4. In the pipeline, you can include steps to check out the source code, compile it, and run tests. For example:
-```
-node {
-   stage('Checkout') {
-       git url: 'https://github.com/user/repo.git'
-   }
-   stage('Build') {
-       sh 'make'
-   }
-   stage('Test') {
-       sh 'make test'
-   }
-}
-```
-5. To "break the build," you can introduce a syntax error in the source code or write a failing test case. Then, commit and push these changes to the repository. Jenkins will detect the changes and execute the pipeline. The build will fail if there are any errors.
-6. To restore the build, you will need to fix the error in the source code or the test case, and then commit and push the changes. Jenkins will detect the changes and execute the pipeline again. The build should be successful this time.
-Please note that this is an example and the actual steps may vary based on your codebase and the CI server you are using.
-</t>
-  </si>
-  <si>
-    <t>To set up a continuous integration (CI) server, you will need to first choose a CI tool to use, such as Jenkins, Travis CI, or CircleCI. Once you have chosen a tool, you will need to set up a version control system (VCS) to manage your source code and tests. Examples of VCS include Git and Mercurial.
-Next, you will need to create a simple example of your source code and tests. For example, you could create a simple "Hello, World!" program in a language of your choice, along with a test case that checks that the program outputs the correct message.
-Once you have your source code and tests in your VCS, you can then set up your CI server to automatically build and test your code whenever changes are made.
-To experiment with "breaking the build," you can introduce a fault into the source code, such as a syntax error, or add a failing test case. The CI server will then detect the error and mark the build as failed.
-To restore the build, you will need to fix the error in the source code or the test case. Once the error is fixed and committed to the VCS, the CI server will automatically detect the changes and re-run the build. If the build passes, it will be marked as successful, otherwise, it will remain broken until the error is fixed.</t>
-  </si>
-  <si>
-    <t>Here's an example of setting up a continuous integration (CI) server using GitHub and Travis CI:
-1. Create a GitHub repository for your project and push your source code and test files to it.
-2. Sign up for a Travis CI account and link it to your GitHub repository.
-3. Create a `.travis.yml` file in the root of your repository to configure your build. An example configuration file might look like this:
-```
-language: python
-python:
-  - "3.8"
-install:
-  - pip install -r requirements.txt
-script:
-  - pytest
-```
-4. Commit and push the `.travis.yml` file to your GitHub repository. This will trigger a build on Travis CI.
-5. To "break the build," you can introduce a syntax error into your source code, or add a test case that expects a certain result but is designed to fail. For example, if you have a function called `add` that takes in two integers and returns their sum, you might add a test case like this:
-```
-def test_add_function():
-    assert add(2, 2) == 5
-```
-6. Push your changes to GitHub to trigger a new build on Travis CI. The build will fail because the test case is expecting the wrong result.
-7. To restore the build, fix the source code error or update the test case to expect the correct result. Then push the changes to GitHub and the build will pass again.
-Note: This is a simple example and there are many other possibilities when setting up a CI server, like using different languages, different CI servers, and different version control systems, but the general process is similar.</t>
-  </si>
-  <si>
-    <t>Here is a basic setup for a continuous integration (CI) server using Git as the version control system and Jenkins as the CI tool:
-1. Set up a Git repository for your source code and another for your tests.
-2. Install Jenkins on a server and configure it to pull from the source code and test repositories.
-3. Create a Jenkins job that runs your tests and builds the source code whenever there is a change to either repository.
-4. Add a simple example to both the source code and test repositories. For example, in the source code repository, you could add a "Hello World" program in the language of your choice, and in the test repository, you could add a test case that checks if the program prints "Hello World" when run.
-5. Commit and push the changes to both repositories. The Jenkins job should automatically run the tests and build the source code.
-6. To "</t>
-  </si>
-  <si>
-    <t>1. First, choose a continuous integration (CI) tool such as Jenkins, Travis CI, or CircleCI.
-2. Next, set up a version control system such as Git or Mercurial to track changes to both the source code and the test cases.
-3. Add a simple example of both source code and a test case to the repository.
-4. Configure the CI server to automatically build and test the code each time changes are pushed to the repository.
-5. To experiment with "breaking the build," intentionally introduce a bug into the source code or add a test case that is expected to fail.
-6. Observe the CI server's response to the broken build, such as sending notifications or failing the build.
-7. Finally, fix the issue and push the changes to the repository, which should restore the build.</t>
-  </si>
-  <si>
     <t>Find a refactoring in some large, existing system. Build tests that capture the behavior relevant to that part of the system. Refactor, and then check that the tests still pass.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Identify the part of the large existing system that needs refactoring. This could be a specific module, function, or class that has become too complex, difficult to maintain, or is causing performance issues.
-2. Build tests that capture the behavior of this part of the system. These tests should cover all the functionality of the module, function, or class, and should be independent of any other parts of the system. 
-3. Refactor the code, making sure to keep the behavior of the module, function, or class the same as before. This could involve breaking the code into smaller, more manageable pieces, or making changes to the data structures or algorithms used.
-4. Run the tests again to ensure that the refactoring did not introduce any bugs or changes to the behavior of the system.
-5. If all the tests pass, the refactoring is complete. If any tests fail, go back to step 3 and make any necessary adjustments to the refactored code.
-6. Finally, make sure to update any documentation, comments, and variable names to make the refactored code more readable and understandable for other developers.
-</t>
-  </si>
-  <si>
-    <t>1. Identify a specific area of the large, existing system that needs refactoring. This may be due to poor performance, lack of maintainability, or other issues.
-2. Build tests that capture the behavior of the system relevant to that part of the code. These tests should cover the expected inputs, outputs, and any side effects of the code.
-3. Refactor the code, making changes that improve its performance, maintainability, or other desired properties.
-4. Run the tests again to ensure that the refactoring did not break any existing functionality. If any tests fail, debug the code and make sure that the refactored code still behaves as expected.
-5. Once all tests pass, the refactoring can be considered a success and the changes can be committed to the codebase.</t>
-  </si>
-  <si>
-    <t>To refactor a large, existing system, the first step is to identify the specific part of the system that needs to be refactored. This can be done by reviewing the codebase and identifying areas that are complex, difficult to understand, or contain duplicated logic. Once the specific area has been identified, the next step is to build tests that capture the behavior relevant to that part of the system. This can be done by creating unit tests that test the individual functions or methods within the area, as well as any integration tests that test the interactions between the different components.
-Once the tests have been created, the next step is to refactor the code. This can involve making changes to the structure of the code, such as breaking down large functions into smaller ones, or refactoring the data structures used to represent the data. It's important to be mindful of the existing tests and not to make changes that would cause them to fail.
-After the refactoring is complete, the final step is to re-run the tests to ensure that the behavior of the system has not been affected. If any of the tests fail, the changes should be reviewed to determine the cause of the failure and corrected. If all tests pass, the refactoring can be considered a success, and the changes can be checked into the codebase.</t>
-  </si>
-  <si>
     <t>Repair a fault in an existing system. That is, find the code that needs to change and capture the current behavior with tests. At least one of these tests must fail, thus demonstrating that you found the fault. Repair the fault and check that all of your tests now pass.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. First, I would need to identify the specific area or function of the system where the fault is occurring. This can be done by reviewing error logs or by conducting manual testing.
-2. Once the area of the fault is identified, I would then need to locate the specific code that is causing the issue. This can be done by reviewing the code in that area and looking for any obvious errors or inconsistencies.
-3. Next, I would need to capture the current behavior of the system with tests. This can be done by writing unit tests that test the functionality of the code in question. At least one of these tests should fail, demonstrating that the fault has been found.
-4. After that, I would need to repair the fault in the code by making the necessary changes and ensuring that the code is still functional and efficient.
-5. Finally, I would need to run all of the tests again to ensure that the fault has been successfully repaired and that the system is now working as intended. All tests should now pass.
-</t>
-  </si>
-  <si>
-    <t>1. Locate the code that is causing the fault:
-- Review the error message or log to identify the file and line number where the error is occurring.
-- Inspect the code at that location to understand the problem and identify the specific lines of code that need to change.
-2. Capture the current behavior with tests:
-- Write unit tests that cover the functionality of the code that is causing the fault.
-- Run the tests to ensure that they pass.
-3. Find the fault:
-- Change the code in the identified location, causing one of the tests to fail.
-- This will demonstrate that you have found the fault.
-4. Repair the fault:
-- Modify the code to fix the problem, while ensuring that it still meets the requirements and passes all tests.
-5. Re-run the tests:
-- Re-run the tests to ensure that they all pass and the fault has been repaired.
-- Verify that the error message or log is no longer present.
-6. Deploy the fix:
-- Deploy the fixed code to the live system, and monitor for any issues or errors.</t>
-  </si>
-  <si>
-    <t>1. First, I would identify the area of the system that is causing the fault by using debugging tools and reviewing log files.
-2. Next, I would create tests that capture the current behavior of the system. These tests should cover the functionality that is affected by the fault.
-3. I would run these tests to confirm that at least one of them fails, indicating that the fault is present.
-4. I would then locate the specific code that needs to be changed to repair the fault by analyzing the code and identifying the cause of the problem.
-5. Once the code has been modified to fix the fault, I would re-run the tests to ensure that they all pass.
-6. I will make sure to document the issue and the solution as well as updating any related documentation.
-7. Finally, I would perform some additional testing on the system to ensure that the repair has not introduced any new issues.</t>
   </si>
   <si>
     <t>Suppose that coverage criterion C1 subsumes coverage criterion C2. Further suppose that test set T1 satisfies C1 on program P, and test set T2 satisfies C2, also on P.</t>
@@ -2428,28 +1913,6 @@
   </si>
   <si>
     <t>Treats error as exception/crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As I mentioned previously, there are multiple ways to fix the original code and make it work as expected. But, I will show one possible way to fix the original code and make it return the last index of zero.
-Copy code
-public static int lastZero (int[] x) {
-    int lastIndex = -1;
-    for (int i = x.length - 1; i &gt;= 0; i--) {
-        if (x[i] == 0) {
-            lastIndex = i;
-        }
-    }
-    return lastIndex;
-}
-This modification will iterate backwards through the array, starting at the last index and ending at the first index, so it will always return the last zero in the array.
-To verify that this modification works and produces the expected output, we can run the test case x = [0, 1, 0] and check that the output is 2.
-Copy code
-int[] x = new int[]{0, 1, 0};
-int lastZeroIndex = lastZero(x);
-System.out.println(lastZeroIndex);
-And the output will be 2 which is the expected output as it is the last index of zero.
-I am an AI and i don't have the capability to take a screen printout or other evidence, but you can run the above code snippet in your local environment to verify that it works as expected.
-</t>
   </si>
   <si>
     <t xml:space="preserve">The given code appears to be correctly counting the number of elements in the array x that are either odd or positive. However, the method signature states that it throws a NullPointerException if the input array x is null, but there is no null check implemented in the code. Therefore, if a null array is passed to the method, it will throw a NullPointerException when trying to access the length property of the array, rather than throwing the exception as stated in the method signature.
@@ -2519,10 +1982,6 @@
 The program runs without crashing, but the output is not what is expected. This is a failure but not an error.</t>
   </si>
   <si>
-    <t>Detects test from the commented code
-Writer differs in the sense that it is a part of JAVA API and cannot be modified without consequences in the client code all over the world. But chatGPT provides a fix that would be the soultion if it was written properly.</t>
-  </si>
-  <si>
     <t>The fault in the given code is that the subclass, ColorPoint, extends the state of the superclass, Point, but does not properly override the equals method to account for this additional state. This results in the equals method in the subclass returning incorrect results when comparing a ColorPoint object to a Point object or to another ColorPoint object with a different color.
 A proposed modification to the code to correct this fault would be to update the equals method in the ColorPoint class to properly check for equality of the color field in addition to the x and y fields inherited from the Point class. For example:
 Copy code
@@ -2563,29 +2022,6 @@
 the values of the x and y fields inherited from the Point class match between the two objects being compared
 the value of the color field in the ColorPoint object being compared is different from the color field in the object being compared against.
 This complete state will lead to the error state, where the program will return incorrect output.
-</t>
-  </si>
-  <si>
-    <t>As I am a language model AI and don't have the ability to run the program, I can't provide a screen printout or other evidence that the new program works. However, I can provide the corrected implementation of the equals method in the ColorPoint class as proposed earlier:
-Copy code
-@Override public boolean equals (Object o) {
-    if (!(o instanceof ColorPoint)) return false;
-    ColorPoint cp = (ColorPoint) o;
-    return (super.equals(cp) &amp;&amp; (cp.color.equals(this.color)));
-}
-This corrected implementation of the equals method in the ColorPoint class properly checks for equality of all relevant fields, including the color field, when comparing ColorPoint objects.
-This will ensure that the following test cases will produce the expected output:
-Copy code
-Point p = new Point (1,2);
-ColorPoint cp1 = new ColorPoint (1,2,RED);
-ColorPoint cp2 = new ColorPoint (1,2,BLUE);
-System.out.println(p.equals (cp1)); // prints true
-System.out.println(cp1.equals (p)); // prints true
-System.out.println(cp1.equals (cp2)); // prints false
-with this modification the equals method in the ColorPoint class will correctly check for equality of all relevant fields, including the color field, when comparing ColorPoint objects, and will return the expected output.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detects test from the commented code
 </t>
   </si>
   <si>
@@ -2711,11 +2147,6 @@
 It's important to remember that this is just one way to test the contract between equals() and hashCode() using JUnit theory and different scenarios might require different test cases.</t>
   </si>
   <si>
-    <t>It depends on the specific implementation of the JUnit theory "removeThenAddDoesNotChangeSet" and how it handles sets and lists. If the theory is written in a way that only uses the basic properties of sets (i.e. unique elements and no order) and does not rely on the specific implementation of sets, then replacing each occurrence of a set with a list should not affect the validity of the theory. However, if the theory is written in a way that relies on the specific implementation of sets (for example, if it uses set-specific methods like set.size()), then replacing each occurrence of a set with a list would likely make the theory invalid.
-As for the number of tests that pass the precondition and postcondition, it would also depend on the specific implementation of the theory and the specific sets and lists being used in the tests. If the precondition and postcondition only depend on the basic properties of sets, then the number of tests that pass should not be affected by the replacement of sets with lists. However, if the precondition and postcondition depend on the specific implementation of sets, then the number of tests that pass may be affected.
-In summary, it is not possible to say whether the resulting theory is valid or invalid and how many of the tests that pass the precondition also pass the postcondition without more information about the specific implementation of the theory and the specific sets and lists being used in the tests.</t>
-  </si>
-  <si>
     <t>3.10'</t>
   </si>
   <si>
@@ -2804,28 +2235,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-As I am a text-based AI model I can't provide a screen printout or other evidence that my new program works. However, I can provide the modified code to fix the error:
-```
-public static int lastZero (int[] x) {
-    if (x == null) {
-        throw new NullPointerException("Input array is null");
-    }
-    int lastZeroIndex = -1;
-    for (int i = 0; i &lt; x.length; i++) {
-        if (x[i] == 0) {
-            lastZeroIndex = i;
-        }
-    }
-    return lastZeroIndex;
-}
-```
-In this new version of the code, I've added a null check at the beginning of the function to check if the input array is null. If it is, it throws a `NullPointerException` with an appropriate error message.
-This modification will handle the case where the input array is null, and it will prevent the program from throwing a `NullPointerException` and also it will give a proper error message to handle it.
-This modification will work on all test cases including the one where the input array is null and will give the expected output.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">The code seems to be correctly counting the number of elements in the array that are either odd or positive, but it's not handling the case when the input array is null. The NullPointerException is thrown when trying to access x.length if x is null. To fix this, the code should check for a null input array before trying to access its elements, like this:
 ```
     if (x == null) {
@@ -2885,26 +2294,6 @@
 - The variable `i` has been initialized as 0 and is ready to be used in the loop.
 - The program counter is on the line of code where the exception is thrown.
 The program will stop executing after this error state and the NullPointerException will be thrown to the user.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-I am an AI model and I cannot create screen printout or other evidence. However, I can assure you that the repair  I proposed earlier  will solve the problem and the test case will now produce the expected output.
-As a reminder, the proposed fix was to check if the input array is null before trying to access its elements:
-```
-    if (x == null) {
-        throw new NullPointerException("Input array is null");
-    }
-    int count = 0;
-    for (int i = 0; i &lt; x.length; i++) {
-        if (x[i] % 2 == 1 || x[i] &gt; 0) {
-            count++;
-        }
-    }
-    return count;
-```
-With this modification, the code will check if the input array is null, and if it is, it will throw a NullPointerException with a message indicating that the input array is null. This way, the user of this method will know that the input array is null and the program will not try to access its elements, preventing the exception from being thrown.
-After this modification, the test case `int[] x = {-3, -2, 0, 1, 4}; int result = oddOrPos(x);` should produce the expected output of 3.
 </t>
   </si>
   <si>
@@ -2962,52 +2351,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
-As mentioned earlier, one possible way to fix the issue is to override the `equals()` method in the `BigDecimal` class to use `compareTo()` instead of its current implementation.
-Here is an example of how this could be done:
-```
-public class BigDecimal {
-    // existing implementation of BigDecimal
-    @Override
-    public boolean equals(Object o) {
-        if (o instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) o) == 0;
-        }
-        return false;
-    }
-}
-```
-Alternatively, we can also provide a custom comparator while creating TreeSet.
-```
-Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;(new Comparator&lt;BigDecimal&gt;() {
-    public int compare(BigDecimal bd1, BigDecimal bd2) {
-        return bd1.compareTo(bd2);
-    }
-});
-```
-With this modification,  the test case given earlier:
-```
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set&lt;BigDecimal&gt; BigDecimalTree = new TreeSet&lt;BigDecimal&gt;();
-BigDecimalTree.add(x);
-BigDecimalTree.add(y);
-Set&lt;BigDecimal&gt; BigDecimalHash = new HashSet&lt;BigDecimal&gt;();
-BigDecimalHash.add(x);
-BigDecimalHash.add(y);
-System.out.println("BigDecimalTree = " + BigDecimalTree);
-System.out.println("BigDecimalHash = " + BigDecimalHash);
-```
-will produce the expected output:
-```
-BigDecimalTree = [1.0]
-BigDecimalHash = [1.0, 1.00]
-```
-It is also worth noting that this modification will also make the `BigDecimal` class consistent with the `equals()` and `compareTo()` methods, which will prevent similar issues from occurring in the future.
-It would be great if you could provide the evidence of the program working, as I am a language model and I cannot execute the code.
-</t>
-  </si>
-  <si>
     <t>The fault in the given code is that the equals method in the ColorPoint subclass does not properly handle symmetry. Specifically, the equals method in the ColorPoint class only checks for equality when comparing a ColorPoint object to another ColorPoint object, and not when comparing a ColorPoint object to a Point object. This causes the equals method to return false when comparing a ColorPoint object to a Point object, even though they are equal in terms of their x and y coordinates.
 To fix this fault, the equals method in the ColorPoint class should be modified to check for equality when comparing a ColorPoint object to both a ColorPoint object and a Point object. One way to do this would be to add a check at the beginning of the method to see if the passed object is an instance of Point, and if so, call the equals method on the superclass and return the result. For example:
 @Override public boolean equals (Object o) {
@@ -3037,13 +2380,6 @@
   <si>
     <t>The first error state in the given code occurs when the equals method in the ColorPoint class is called and the passed object is an instance of Point. In this case, the method does not handle symmetry properly and returns false, even though the Point object and the ColorPoint object are equal in terms of their x and y coordinates.
 The complete state of the error is that the equals method in the ColorPoint class is not implemented correctly and does not handle symmetry when comparing to Point objects. As a result, it returns false when it should return true in certain cases. This causes the test cases p.equals(cp1) and cp1.equals(p) to return false, instead of true.</t>
-  </si>
-  <si>
-    <t>I am sorry, as a AI model, i don't have the capability to implement and test a repair on the specific code you provided. However, i already provided a possible solution on part (a) that handles symmetry when comparing a ColorPoint object to both a ColorPoint object and a Point object. To verify that the given test now produces the expected output, you can use the test cases i provided in part (a) and check that they now return the expected results, which are:
-p.equals(cp1) // returns true
-cp1.equals(p) // returns true
-cp1.equals(cp2) // returns false
-It's important to test the code with additional test cases and also verify that the new implementation does not break any other functionality in the code.</t>
   </si>
   <si>
     <t xml:space="preserve">Here is an example of how the problem with the Point class from Chapter 1 can be demonstrated using a HashSet:
@@ -3207,13 +2543,6 @@
 This test uses JUnit theories, which allow to test the same method with multiple sets of inputs. The `@DataPoints` annotation is used to define a set of input data. The `@Theory` annotation is used to specify that a method should be run as a theory. 
 In this case, the test uses the `points()` method, which returns an array of Point objects, as the DataPoints. The `testHashCode()` method is run for all possible combinations of the Point objects in the array, and it checks if the hashCode() method returns the same value for two Point objects if they are equals.
 This theory test is more robust than the previous one as it will test the hashCode() method for all the combinations of the Point objects in the array which ensures that the hashCode() method is working correctly for all possible inputs.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool, you would need to integrate these tools into the continuous integration pipeline. This can typically be done by configuring the CI server to run the tools as part of the build process, or by using a plugin or extension that integrates the tools directly into the CI server.
-For example, to add code coverage, you would need to configure the CI server to run a code coverage tool such as JaCoCo or Cobertura during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the code coverage tool enabled.
-To add static analysis, you would need to configure the CI server to run a static analysis tool such as SonarQube or Checkstyle during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the static analysis tool enabled.
-It's also worth to note that many CI servers, like Jenkins, Gitlab-CI, Travis-CI, etc, have built-in or widely supported plugin that already provide functionality of running code coverage and static analysis.
 </t>
   </si>
   <si>
@@ -4095,40 +3424,12 @@
 </t>
   </si>
   <si>
-    <t>Wrong test case</t>
-  </si>
-  <si>
-    <t>No test case</t>
-  </si>
-  <si>
     <t>The given test case is:
 int[] x = {-3, -2, 0, 1, 4};
 int result = oddOrPos(x);
 assert result == 3;
 In this test case, the first error state would not occur because the input array x is non-null. The method implementation includes a null check to check if the input array is null or not, if it is null it will throw a NullPointerException. Since the input array is non-null, the method will execute as expected and the first error state will not occur.
 It is worth noting that the test case also includes an assertion that compares the returned result from the method with the expected value of 3, if the returned value is not 3 it will result in an assertion error and the program will stop execution.</t>
-  </si>
-  <si>
-    <t>Here is an implementation of the repaired code that includes a null check for the input array:
-public static int oddOrPos (int[] x) {
-      if (x == null) {
-         throw new NullPointerException("Input array cannot be null");
-      }
-      int count = 0;
-      for (int i = 0; i &lt; x.length; i++) {
-         if (x[i]%2 == 1 || x[i] &gt; 0) {
-            count++;
-         }
-      }
-      return count;
-   }
-And here is the test case that verifies that the given test now produces the expected output:
-Copy code
-int[] x = {-3, -2, 0, 1, 4};
-int result = oddOrPos(x);
-assert result == 3;
-As you can see, the method now includes a null check for the input array, which will ensure that the method will throw a NullPointerException if a null array is passed as an input. The test case that is provided will pass as the input array is non-null and the expected output is 3 which is being asserted against the returned result.
-In addition, if you are running this code on a Java development environment such as eclipse, it will give you a message that the test passed and you can see it on the console.</t>
   </si>
   <si>
     <t>The given code uses the BigDecimal class, which has an inconsistency between its equals() and compareTo() methods. Specifically, x.equals(y) returns false, but x.compareTo(y) returns 0, indicating that they are equal. This inconsistency causes problems when using BigDecimal objects with certain types of collections, such as TreeSet and HashSet.
@@ -4204,47 +3505,6 @@
     </r>
   </si>
   <si>
-    <t>As I mentioned before, one approach to repair the fault in the code is to override the equals() method in the BigDecimal class to use the compareTo() method instead.
-Here is the modified code:
-public class BigDecimalTest {
-    BigDecimal x = new BigDecimal ("1.0");
-    BigDecimal y = new BigDecimal ("1.00");
-    //override equals method
-    @Override
-    public boolean equals(Object obj) {
-        if(obj instanceof BigDecimal) {
-            return this.compareTo((BigDecimal) obj) == 0;
-        }
-        return false;
-    }
-    // Fact: x.equals (y) should now return true, and x.compareTo (y) == 0
-    Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-    BigDecimalTree.add (x);
-    BigDecimalTree.add (y);
-    // TreeSet uses compareTo(), so BigDecimalTree will now have 1 element
-    Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-    BigDecimalHash.add (x);
-    BigDecimalHash.add (y);
-    // HashSet uses equals(), so BigDecimalHash will now have 1 element
-    }
-    // Test: System.out.println ("BigDecimalTree = " + BigDecimalTree);
-    // System.out.println ("BigDecimalHash = " + BigDecimalHash);
-    // Expected: BigDecimalTree = 1; BigDecimalHash = 1
-With this modification, the test case that was provided will now produce the expected output.
-BigDecimal x = new BigDecimal ("1.0");
-BigDecimal y = new BigDecimal ("1.00");
-Set &lt;BigDecimal&gt; BigDecimalTree = new TreeSet &lt;BigDecimal&gt; ();
-BigDecimalTree.add (x);
-BigDecimalTree.add (y);
-assertEquals(1,BigDecimalTree.size());
-Set &lt;BigDecimal&gt; BigDecimalHash = new HashSet &lt;BigDecimal&gt; ();
-BigDecimalHash.add (x);
-BigDecimalHash.add (y);
-assertEquals(1,BigDecimalHash.size());
-In this test case, the size of BigDecimalTree and BigDecimalHash should be 1, this means that only one element is added to each of them, which is expected.
-I apologize but as a language model AI I am not able to provide you with a screenshot or any other evidence, but you can run the code and see that it works as expected.</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is possible to give a test case that executes the fault but does not result in an error state.
 For example, the following test case:
 Point p = new Point (1,2);
@@ -4256,15 +3516,12 @@
 Even though this test case does not result in an error state, it is still problematic because it can lead to unexpected behavior and bugs in the program, as it is returning true when it should be false.
 </t>
   </si>
-  <si>
-    <t>Most continuous integration systems offer far more than automated test execution. Extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4302,12 +3559,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4394,7 +3645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4433,9 +3684,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4755,10 +4003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01564EF9-5124-C249-B954-263F7E963FB7}">
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB34" sqref="AB34:AC34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4824,7 +4072,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>8</v>
@@ -4863,7 +4111,7 @@
         <v>19</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
       <c r="W1" s="11" t="s">
         <v>20</v>
@@ -4892,7 +4140,7 @@
     </row>
     <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -4904,7 +4152,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>40</v>
@@ -4913,10 +4161,10 @@
         <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>42</v>
@@ -4928,7 +4176,7 @@
         <v>44</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>43</v>
@@ -4966,7 +4214,7 @@
     </row>
     <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -4978,7 +4226,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -4990,7 +4238,7 @@
         <v>50</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>51</v>
@@ -5002,7 +4250,7 @@
         <v>41</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>40</v>
@@ -5040,7 +4288,7 @@
     </row>
     <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -5052,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -5061,7 +4309,7 @@
         <v>41</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>55</v>
@@ -5073,7 +4321,7 @@
         <v>41</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>40</v>
@@ -5111,7 +4359,7 @@
     </row>
     <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -5123,7 +4371,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
@@ -5132,10 +4380,10 @@
         <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>59</v>
@@ -5147,7 +4395,7 @@
         <v>44</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>40</v>
@@ -5185,7 +4433,7 @@
     </row>
     <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -5197,7 +4445,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -5206,10 +4454,10 @@
         <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>63</v>
@@ -5221,7 +4469,7 @@
         <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>40</v>
@@ -5259,134 +4507,131 @@
     </row>
     <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="S8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="W8" s="1" t="s">
@@ -5410,19 +4655,19 @@
     </row>
     <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>40</v>
@@ -5431,10 +4676,10 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>77</v>
@@ -5446,7 +4691,7 @@
         <v>41</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>40</v>
@@ -5484,49 +4729,49 @@
     </row>
     <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>41</v>
+        <v>214</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
+      <c r="K10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>41</v>
+        <v>243</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>82</v>
@@ -5558,49 +4803,49 @@
     </row>
     <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>321</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>44</v>
+      <c r="K11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>44</v>
+        <v>244</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>86</v>
@@ -5630,273 +4875,270 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>41</v>
+        <v>322</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>41</v>
+      <c r="O12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>41</v>
+        <v>96</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>41</v>
+        <v>98</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>44</v>
+      </c>
       <c r="N13" s="1" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="3"/>
+        <v>44</v>
+      </c>
       <c r="R13" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z13" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="AA13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC13" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>216</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>44</v>
+      <c r="K14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>44</v>
+        <v>247</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>44</v>
+      <c r="S14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>106</v>
+        <v>324</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>44</v>
+      <c r="K15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>44</v>
@@ -5922,28 +5164,28 @@
       <c r="AA15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AB15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>44</v>
+      <c r="AB15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>40</v>
@@ -5952,10 +5194,10 @@
         <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>111</v>
@@ -5967,7 +5209,7 @@
         <v>41</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -5987,333 +5229,333 @@
       <c r="W16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="1" t="s">
+      <c r="X16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y16" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="O17" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>44</v>
+      <c r="P17" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="X17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AC17" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>41</v>
+        <v>221</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>41</v>
+        <v>121</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>41</v>
+        <v>251</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>41</v>
+        <v>124</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>68</v>
+        <v>325</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>68</v>
+        <v>125</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>68</v>
+        <v>252</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC19" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>129</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>130</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>131</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>132</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AC20" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -6322,13 +5564,13 @@
         <v>44</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>236</v>
+        <v>134</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>43</v>
@@ -6337,7 +5579,7 @@
         <v>44</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>43</v>
@@ -6346,25 +5588,25 @@
         <v>44</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>43</v>
@@ -6374,136 +5616,70 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>127</v>
+      <c r="A22" s="6">
+        <v>2.1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="I22" s="5"/>
       <c r="R22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>41</v>
+        <v>226</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>41</v>
+        <v>140</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC22" s="3" t="s">
-        <v>41</v>
+        <v>141</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
+      <c r="A23" s="6">
+        <v>3.4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="M23"/>
+      <c r="Q23"/>
       <c r="R23" s="1" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>43</v>
@@ -6511,62 +5687,34 @@
       <c r="Y23" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="Z23"/>
       <c r="AA23" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AD23"/>
     </row>
-    <row r="24" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
+    <row r="24" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>3.5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24"/>
       <c r="R24" s="1" t="s">
         <v>148</v>
       </c>
@@ -6576,6 +5724,9 @@
       <c r="T24" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="V24" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="W24" s="1" t="s">
         <v>149</v>
       </c>
@@ -6585,6 +5736,7 @@
       <c r="Y24" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="Z24"/>
       <c r="AA24" s="1" t="s">
         <v>150</v>
       </c>
@@ -6594,91 +5746,132 @@
       <c r="AC24" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AD24"/>
     </row>
     <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>232</v>
+      <c r="A25" s="6">
+        <v>3.9</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>257</v>
+        <v>44</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M25"/>
       <c r="N25" s="1" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="Q25"/>
       <c r="R25" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="U25"/>
+      <c r="V25"/>
       <c r="W25" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="X25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="Z25"/>
       <c r="AA25" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>41</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AD25"/>
     </row>
     <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>2.1</v>
+        <v>3.9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q26"/>
       <c r="R26" s="1" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>43</v>
@@ -6686,11 +5879,10 @@
       <c r="T26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V26" s="5" t="s">
-        <v>258</v>
-      </c>
+      <c r="U26"/>
+      <c r="V26"/>
       <c r="W26" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="X26" s="1" t="s">
         <v>43</v>
@@ -6698,8 +5890,9 @@
       <c r="Y26" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="Z26"/>
       <c r="AA26" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>43</v>
@@ -6707,21 +5900,55 @@
       <c r="AC26" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AD26"/>
     </row>
     <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>3.4</v>
+        <v>3.9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="M27"/>
+      <c r="N27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="Q27"/>
       <c r="R27" s="1" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>43</v>
@@ -6729,11 +5956,10 @@
       <c r="T27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V27" s="5" t="s">
-        <v>234</v>
-      </c>
+      <c r="U27"/>
+      <c r="V27"/>
       <c r="W27" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>43</v>
@@ -6743,7 +5969,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>43</v>
@@ -6753,24 +5979,53 @@
       </c>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>3.5</v>
+        <v>3.9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+        <v>167</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="M28"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="N28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="Q28"/>
       <c r="R28" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>43</v>
@@ -6778,11 +6033,10 @@
       <c r="T28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V28" s="5" t="s">
-        <v>261</v>
-      </c>
+      <c r="U28"/>
+      <c r="V28"/>
       <c r="W28" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>43</v>
@@ -6792,7 +6046,7 @@
       </c>
       <c r="Z28"/>
       <c r="AA28" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>43</v>
@@ -6807,248 +6061,210 @@
         <v>3.9</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD29" s="3"/>
+    </row>
+    <row r="30" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="R30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M29"/>
-      <c r="N29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29"/>
-      <c r="R29" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z29"/>
-      <c r="AA29" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD29"/>
+      <c r="C31" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="30" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B30" s="1" t="s">
+    <row r="32" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="C32" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M30"/>
-      <c r="N30" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q30"/>
-      <c r="R30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z30"/>
-      <c r="AA30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD30"/>
-    </row>
-    <row r="31" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M31"/>
-      <c r="N31" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q31"/>
-      <c r="R31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z31"/>
-      <c r="AA31" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD31"/>
-    </row>
-    <row r="32" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
       </c>
@@ -7056,10 +6272,10 @@
         <v>44</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>43</v>
@@ -7067,9 +6283,8 @@
       <c r="L32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M32"/>
       <c r="N32" s="1" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>43</v>
@@ -7077,9 +6292,8 @@
       <c r="P32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q32"/>
       <c r="R32" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>43</v>
@@ -7087,10 +6301,8 @@
       <c r="T32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U32"/>
-      <c r="V32"/>
       <c r="W32" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>43</v>
@@ -7098,484 +6310,13 @@
       <c r="Y32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Z32"/>
       <c r="AA32" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>3.9</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD33" s="3"/>
-    </row>
-    <row r="34" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="R34" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V34" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA34" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I35" s="5"/>
-      <c r="R35" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V35" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC35" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" ht="408" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>4.2</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I36" s="5"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="R36" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V36" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="W36" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>4.3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="R37" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V37" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC37" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="R38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V38" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="W38" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD38" s="3"/>
-    </row>
-    <row r="39" spans="1:30" ht="404" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I39" s="5"/>
-      <c r="R39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="X39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="T40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC40" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W41" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AB41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7632,15 +6373,15 @@
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -7652,7 +6393,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>43</v>
@@ -7661,21 +6402,21 @@
         <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="356" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>30</v>
@@ -7687,7 +6428,7 @@
         <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>40</v>
@@ -7696,15 +6437,15 @@
         <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="404" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
@@ -7716,7 +6457,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>40</v>
@@ -7725,15 +6466,15 @@
         <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="323" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -7745,7 +6486,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>40</v>
@@ -7754,15 +6495,15 @@
         <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>35</v>
@@ -7774,7 +6515,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>40</v>
@@ -7783,15 +6524,15 @@
         <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>37</v>
@@ -7803,7 +6544,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>43</v>
@@ -7812,30 +6553,30 @@
         <v>44</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>43</v>
@@ -7844,30 +6585,30 @@
         <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>40</v>
@@ -7876,27 +6617,27 @@
         <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>40</v>
@@ -7905,27 +6646,27 @@
         <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
@@ -7934,27 +6675,27 @@
         <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="388" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>40</v>
@@ -7963,27 +6704,27 @@
         <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>40</v>
@@ -7992,27 +6733,27 @@
         <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
@@ -8021,30 +6762,30 @@
         <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>40</v>
@@ -8053,27 +6794,27 @@
         <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>40</v>
@@ -8082,27 +6823,27 @@
         <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>40</v>
@@ -8111,27 +6852,27 @@
         <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>40</v>
@@ -8140,27 +6881,27 @@
         <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>43</v>
@@ -8169,27 +6910,27 @@
         <v>44</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>40</v>
@@ -8198,27 +6939,27 @@
         <v>44</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>43</v>
@@ -8227,27 +6968,27 @@
         <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>40</v>
@@ -8256,27 +6997,27 @@
         <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>40</v>
@@ -8285,27 +7026,27 @@
         <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>43</v>
@@ -8314,27 +7055,27 @@
         <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>40</v>
@@ -8343,10 +7084,10 @@
         <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="404" x14ac:dyDescent="0.2">
@@ -8354,10 +7095,10 @@
         <v>2.1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>43</v>
@@ -8366,10 +7107,10 @@
         <v>44</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8377,13 +7118,13 @@
         <v>3.4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>43</v>
@@ -8392,10 +7133,10 @@
         <v>44</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="404" x14ac:dyDescent="0.2">
@@ -8403,13 +7144,13 @@
         <v>3.5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>43</v>
@@ -8418,10 +7159,10 @@
         <v>44</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8432,13 +7173,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>43</v>
@@ -8447,10 +7188,10 @@
         <v>44</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="356" x14ac:dyDescent="0.2">
@@ -8461,13 +7202,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>43</v>
@@ -8476,10 +7217,10 @@
         <v>44</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8490,13 +7231,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>43</v>
@@ -8505,10 +7246,10 @@
         <v>44</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8519,13 +7260,13 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>43</v>
@@ -8534,10 +7275,10 @@
         <v>44</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8548,36 +7289,36 @@
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>43</v>
@@ -8586,10 +7327,10 @@
         <v>44</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8597,13 +7338,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>43</v>
@@ -8612,13 +7353,13 @@
         <v>44</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8626,10 +7367,10 @@
         <v>4.2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>43</v>
@@ -8638,10 +7379,10 @@
         <v>44</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8649,10 +7390,10 @@
         <v>4.3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>43</v>
@@ -8661,10 +7402,10 @@
         <v>44</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8672,10 +7413,10 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>40</v>
@@ -8684,10 +7425,10 @@
         <v>41</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
@@ -8695,10 +7436,10 @@
         <v>4.5</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>46</v>
@@ -8707,13 +7448,13 @@
         <v>41</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="272" x14ac:dyDescent="0.2">
@@ -8724,13 +7465,13 @@
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>43</v>
@@ -8739,10 +7480,10 @@
         <v>44</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="356" x14ac:dyDescent="0.2">
@@ -8753,13 +7494,13 @@
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>43</v>
@@ -8768,10 +7509,10 @@
         <v>44</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F56147-EACB-DB4A-ACDA-84E25A2893D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492A859-EEE2-DD44-8764-32C2E9B8A949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="confidence re-run" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$T$1:$T$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$H$1:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'confidence re-run'!$I$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="335">
   <si>
     <t>id</t>
   </si>
@@ -3515,6 +3515,33 @@
 This is because the equals method of Point class is being used to compare the Point and ColorPoint object, it checks for equality of x and y fields and hence the comparison returns true.
 Even though this test case does not result in an error state, it is still problematic because it can lead to unexpected behavior and bugs in the program, as it is returning true when it should be false.
 </t>
+  </si>
+  <si>
+    <t>Coding vs. Conceptual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">both </t>
+  </si>
+  <si>
+    <t>conceptual</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>Conceptual</t>
+  </si>
+  <si>
+    <t>ChatGPT makes the wrong assumption</t>
+  </si>
+  <si>
+    <t>ChatGPT lacks the knowledge</t>
+  </si>
+  <si>
+    <t>ChatGPT lacks the knowledge &amp; ChatGPT makes the wrong assumption</t>
+  </si>
+  <si>
+    <t>Reasons if Worng</t>
   </si>
 </sst>
 </file>
@@ -4003,10 +4030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01564EF9-5124-C249-B954-263F7E963FB7}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4015,38 +4042,39 @@
     <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="65.1640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="60.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="12.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="71.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="78.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="14.1640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.83203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="12.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="63.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="65.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="60.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="12.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="71.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="78.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" style="1" customWidth="1"/>
     <col min="33" max="33" width="8.83203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="1"/>
+    <col min="34" max="34" width="20" style="1" customWidth="1"/>
+    <col min="35" max="35" width="8.83203125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4059,86 +4087,92 @@
       <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -4152,67 +4186,73 @@
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>44</v>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>44</v>
+      <c r="Q2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>44</v>
+      <c r="Z2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>200</v>
       </c>
@@ -4226,67 +4266,73 @@
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
+      <c r="M3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>41</v>
+      <c r="Q3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="1" t="s">
+      <c r="U3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>41</v>
+      <c r="Z3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="1" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>200</v>
       </c>
@@ -4300,64 +4346,70 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>41</v>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="1" t="s">
+      <c r="U4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>200</v>
       </c>
@@ -4371,67 +4423,71 @@
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
+      <c r="M5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>44</v>
+      <c r="Q5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="1" t="s">
+      <c r="U5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>44</v>
+      <c r="Z5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>200</v>
       </c>
@@ -4445,67 +4501,73 @@
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>41</v>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>41</v>
+      <c r="Q6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W6" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="X6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>41</v>
+      <c r="Z6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>201</v>
       </c>
@@ -4519,67 +4581,73 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>41</v>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>41</v>
+      <c r="Q7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W7" s="1" t="s">
+      <c r="U7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA7" s="1" t="s">
+      <c r="Z7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AB7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="3" t="s">
+      <c r="AD7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>201</v>
       </c>
@@ -4593,67 +4661,73 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" s="1" t="s">
+      <c r="U8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA8" s="1" t="s">
+      <c r="Z8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>201</v>
       </c>
@@ -4667,67 +4741,73 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W9" s="1" t="s">
+      <c r="U9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="X9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA9" s="1" t="s">
+      <c r="Z9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AB9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>201</v>
       </c>
@@ -4741,67 +4821,70 @@
         <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>44</v>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>44</v>
+      <c r="Q10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W10" s="1" t="s">
+      <c r="U10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="X10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA10" s="1" t="s">
+      <c r="Z10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AB10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC10" s="3" t="s">
+      <c r="AD10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>201</v>
       </c>
@@ -4815,67 +4898,73 @@
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="M11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="U11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="X11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA11" s="1" t="s">
+      <c r="Z11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AB11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>202</v>
       </c>
@@ -4889,67 +4978,70 @@
         <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>44</v>
+      <c r="M12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>44</v>
+      <c r="Q12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="1" t="s">
+      <c r="U12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="X12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>44</v>
+      <c r="Z12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>202</v>
       </c>
@@ -4963,67 +5055,71 @@
         <v>49</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N13" s="1" t="s">
+      <c r="M13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="1" t="s">
+      <c r="Q13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="1" t="s">
+      <c r="U13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="X13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>41</v>
+      <c r="Z13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC13" s="3" t="s">
+      <c r="AD13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE13" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>202</v>
       </c>
@@ -5037,67 +5133,73 @@
         <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W14" s="1" t="s">
+      <c r="U14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="X14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>41</v>
+      <c r="Z14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>202</v>
       </c>
@@ -5111,67 +5213,70 @@
         <v>106</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>41</v>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W15" s="1" t="s">
+      <c r="U15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="X15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>41</v>
+      <c r="Z15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE15" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>202</v>
       </c>
@@ -5185,67 +5290,73 @@
         <v>92</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W16" s="1" t="s">
+      <c r="U16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="X16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA16" s="1" t="s">
+      <c r="Z16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC16" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AB16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC16" s="3" t="s">
+      <c r="AD16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>203</v>
       </c>
@@ -5259,67 +5370,73 @@
         <v>116</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>203</v>
       </c>
@@ -5333,67 +5450,70 @@
         <v>89</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>44</v>
+      <c r="M18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>44</v>
+      <c r="Q18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W18" s="1" t="s">
+      <c r="U18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>41</v>
+      <c r="Z18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="AA18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AB18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>203</v>
       </c>
@@ -5407,67 +5527,73 @@
         <v>90</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="S19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="W19" s="1" t="s">
+      <c r="U19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="X19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA19" s="1" t="s">
+      <c r="Z19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC19" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AB19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC19" s="3" t="s">
+      <c r="AD19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE19" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>203</v>
       </c>
@@ -5481,67 +5607,70 @@
         <v>91</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>44</v>
+      <c r="M20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>44</v>
+      <c r="Q20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W20" s="1" t="s">
+      <c r="U20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>44</v>
+      <c r="Z20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>203</v>
       </c>
@@ -5555,106 +5684,112 @@
         <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>44</v>
+      <c r="M21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>44</v>
+      <c r="Q21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W21" s="1" t="s">
+      <c r="U21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="X21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>44</v>
+      <c r="Z21" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AB21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>2.1</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="R22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="T22" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V22" s="5" t="s">
+      <c r="U22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X22" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="X22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>44</v>
+      <c r="Z22" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>3.4</v>
       </c>
@@ -5664,42 +5799,45 @@
       <c r="D23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M23"/>
-      <c r="Q23"/>
-      <c r="R23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="O23"/>
+      <c r="S23"/>
+      <c r="T23" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V23" s="5" t="s">
+      <c r="U23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X23" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="X23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z23"/>
+      <c r="Z23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AA23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB23"/>
+      <c r="AC23" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD23"/>
+      <c r="AD23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23"/>
     </row>
-    <row r="24" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>3.5</v>
       </c>
@@ -5709,46 +5847,49 @@
       <c r="D24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24"/>
-      <c r="R24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24"/>
+      <c r="T24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V24" s="5" t="s">
+      <c r="U24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X24" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="X24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z24"/>
+      <c r="Z24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AA24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB24"/>
+      <c r="AC24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AB24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD24"/>
+      <c r="AD24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF24"/>
     </row>
-    <row r="25" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>3.9</v>
       </c>
@@ -5762,70 +5903,73 @@
         <v>152</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M25"/>
+      <c r="M25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O25"/>
+      <c r="P25" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q25"/>
+      <c r="Q25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25"/>
+      <c r="T25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25" s="1" t="s">
+      <c r="U25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z25"/>
+      <c r="Z25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AA25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB25"/>
+      <c r="AC25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AB25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD25"/>
+      <c r="AD25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25"/>
     </row>
-    <row r="26" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>3.9</v>
       </c>
@@ -5839,70 +5983,73 @@
         <v>157</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M26"/>
+      <c r="M26" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26"/>
+      <c r="Q26" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26"/>
+      <c r="T26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26" s="1" t="s">
+      <c r="U26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z26"/>
+      <c r="Z26" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AA26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB26"/>
+      <c r="AC26" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD26"/>
+      <c r="AD26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF26"/>
     </row>
-    <row r="27" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>3.9</v>
       </c>
@@ -5916,70 +6063,73 @@
         <v>162</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27"/>
+      <c r="M27" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27"/>
+      <c r="P27" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q27"/>
+      <c r="Q27" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27"/>
+      <c r="T27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27" s="1" t="s">
+      <c r="U27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="X27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z27"/>
+      <c r="Z27" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AA27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB27"/>
+      <c r="AC27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AB27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD27"/>
+      <c r="AD27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF27"/>
     </row>
-    <row r="28" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>3.9</v>
       </c>
@@ -5993,70 +6143,73 @@
         <v>167</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M28"/>
+      <c r="M28" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="N28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O28"/>
+      <c r="P28" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q28"/>
+      <c r="Q28" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28"/>
+      <c r="T28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28" s="1" t="s">
+      <c r="U28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="X28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z28"/>
+      <c r="Z28" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="AA28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB28"/>
+      <c r="AC28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AB28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD28"/>
+      <c r="AD28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF28"/>
     </row>
-    <row r="29" spans="1:30" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>3.9</v>
       </c>
@@ -6070,70 +6223,73 @@
         <v>172</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="J29" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="3"/>
+      <c r="T29" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="1" t="s">
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AE29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD29" s="3"/>
+      <c r="AF29" s="3"/>
     </row>
-    <row r="30" spans="1:30" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>4.0999999999999996</v>
       </c>
@@ -6143,39 +6299,42 @@
       <c r="D30" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I30" s="5"/>
-      <c r="R30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="T30" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V30" s="5" t="s">
+      <c r="U30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X30" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="X30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>44</v>
+      <c r="Z30" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC30" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AB30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE30" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>5.0999999999999996</v>
       </c>
@@ -6189,67 +6348,73 @@
         <v>186</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="L31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="N31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="R31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="U31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W31" s="1" t="s">
+      <c r="V31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="X31" s="1" t="s">
+      <c r="Z31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="AA31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AE31" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="388" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="388" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>5.0999999999999996</v>
       </c>
@@ -6263,61 +6428,94 @@
         <v>192</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>44</v>
+      <c r="M32" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>44</v>
+      <c r="Q32" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="T32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="W32" s="1" t="s">
+      <c r="U32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="X32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>44</v>
+      <c r="Z32" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="AA32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AB32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>44</v>
+      <c r="AD32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1">
+        <f>COUNTIF(E2:E32,"coding")</f>
+        <v>6</v>
+      </c>
+      <c r="I36" s="1">
+        <f>COUNTIF(I1:I31,"ChatGPT lacks the knowledge")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1">
+        <f>COUNTIF(E2:E32,"conceptual")</f>
+        <v>9</v>
+      </c>
+      <c r="I37" s="1">
+        <f>COUNTIF(I2:I31,"ChatGPT makes the wrong assumption")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1">
+        <f>COUNTIF(E2:E32,"both ")</f>
+        <v>16</v>
+      </c>
+      <c r="I38" s="1">
+        <f>COUNTIF(I2:I31,"ChatGPT lacks the knowledge &amp; ChatGPT makes the wrong assumption")</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/combined.xlsx
+++ b/dataset/combined.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E492A859-EEE2-DD44-8764-32C2E9B8A949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158FCB5-BDDF-EE42-8D1A-C8A16C39A070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="confidence re-run" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$H$1:$H$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$I$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'confidence re-run'!$I$1:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -4032,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01564EF9-5124-C249-B954-263F7E963FB7}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
